--- a/Robot4-RealEstateWebScraping/output.xlsx
+++ b/Robot4-RealEstateWebScraping/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <x:si>
     <x:t>Price</x:t>
   </x:si>
@@ -31,1060 +31,1147 @@
     <x:t>Address</x:t>
   </x:si>
   <x:si>
-    <x:t>802 Davis Ter, Schenectady, NY 12303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124 N Washington St, Carthage, NY 13619</x:t>
-  </x:si>
-  <x:si>
-    <x:t>418 Schenectady St, Schenectady, NY 12307</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 Grove St, Amsterdam, NY 12010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2321 Oak Ln, Newfane, NY 14108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>608 Jersey Ave, Ogdensburg, NY 13669</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 High St, Ilion, NY 13357</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34 Center St, Richfield Springs, NY 13439</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3208 Genesee St, Piffard, NY 14533</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93 N Williams St, Whitehall, NY 12887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Mynderse St, Schenectady, NY 12307</x:t>
-  </x:si>
-  <x:si>
-    <x:t>742 Eastern Ave, Schenectady, NY 12308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22 Zoa Ave, Johnson City, NY 13790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121 Broad St, Albany, NY 12202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>236 Nowlan Rd, Binghamton, NY 13904</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 Willets Ave, Belmont, NY 14813</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 Grant Ave, Amsterdam, NY 12010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3898 Rome Rd, Pulaski, NY 13142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5600 Shute Rd, La Fayette, NY 13084</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145 N Williams St, Whitehall, NY 12887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>317 Robble Ave, Endicott, NY 13760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>901 Adams St, Schenectady, NY 12306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>906 Maplewood Ave, Schenectady, NY 12303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 Rose St, Geneva, NY 14456</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115 Richard Ave, Falconer, NY 14733</x:t>
-  </x:si>
-  <x:si>
-    <x:t>516 W Falconer St, Falconer, NY 14733</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4986 Us Route 219, Great Valley, NY 14741</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 W 2nd St, Dunkirk, NY 14048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80 Dickinson St, Binghamton, NY 13905</x:t>
-  </x:si>
-  <x:si>
-    <x:t>259 E Clark St, Ilion, NY 13357</x:t>
-  </x:si>
-  <x:si>
-    <x:t>431 Ambrose St, Sackets Harbor, NY 13685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 Colfax Ave, Binghamton, NY 13905</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 Massachusetts Ave, Johnson City, NY 13790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173 Harry L Dr, Johnson City, NY 13790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 Neddo St, Whitehall, NY 12887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 Dewitt St, Amsterdam, NY 12010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 Coulon Drive Prvt, Parishville, NY 13672</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52 Kelvin Dr, Buffalo, NY 14223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97 Dorsey Rd, Rochester, NY 14616</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4096 W Shore Dr, Bethel, NY 12786</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 Division St, Ilion, NY 13357</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301 Center St, Caledonia, NY 14423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2105 Tracy St, Endicott, NY 13760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1011 Helderberg Ave, Schenectady, NY 12306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>297 Chelsea St, Buffalo, NY 14223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39 Center Road High Falls Park, High Falls, NY 12440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126 Point Pleasant Rd, Rochester, NY 14622</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1081 Hegeman St, Schenectady, NY 12306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 Ardsley Rd, Binghamton, NY 13904</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025 Route 9 N LOT 159, Greenfield Center, NY 12833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49 Maple St, Angola, NY 14006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152 Overlook Ave APT 2H, Peekskill, NY 10566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130 Reynolds Ave, Corning, NY 14830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8617 Lindbergh Ave, Niagara Falls, NY 14304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>870 Whitlock Rd, Irondequoit, NY 14609</x:t>
-  </x:si>
-  <x:si>
-    <x:t>977 Stone Rd, Rochester, NY 14616</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 Parkwood Ave, Johnstown, NY 12095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105 Curtice Rd, Irondequoit, NY 14617</x:t>
-  </x:si>
-  <x:si>
-    <x:t>361 E 3rd St, Corning, NY 14830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55 Jefferson Ave, Geneva, NY 14456</x:t>
-  </x:si>
-  <x:si>
-    <x:t>601 West St, Carthage, NY 13619</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 E High Pines Ter #3E, Chestertown, NY 12817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140 Larkin Ave, Canastota, NY 13032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1601 Lenox Rd, Schenectady, NY 12308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2673 Main St, Newfane, NY 14108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103 Kenosha St, Albany, NY 12209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51 2nd St, Amsterdam, NY 12010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104 Mill Creek Ln, Sackets Harbor, NY 13685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154 Overlook Ave APT 2H, Peekskill, NY 10566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13V Scenic Dr #V, Croton On Hudson, NY 10520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>248 Loretta Ln, Vestal, NY 13850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22 Glen St, Rensselaer, NY 12144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69 Beale Ave, Cheektowaga, NY 14225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Delton St, Tonawanda, NY 14150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28 Barnsdale Ave, West Seneca, NY 14224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191 Lake Pointe Cir, Middle Island, NY 11953</x:t>
-  </x:si>
-  <x:si>
-    <x:t>214 S Clinton St, Carthage, NY 13619</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025 Route 9n LOT 147, Greenfield Center, NY 12833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67 Heather Rd, Cheektowaga, NY 14225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>942 Central Pkwy, Schenectady, NY 12309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4108 Foxwood Dr S, Clifton Park, NY 12065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>723 Myrtle Ave, Albany, NY 12208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 Denton Rd, Binghamton, NY 13903</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 Arnold Ave, Amsterdam, NY 12010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 Zane Rd, Binghamton, NY 13903</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144 Koenig Rd, Tonawanda, NY 14150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92 W Toulon Dr, Cheektowaga, NY 14227</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8181 Bluffview Dr, Manlius, NY 13104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104 Kimble Rd, Vestal, NY 13850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226 E Campbell Rd, Schenectady, NY 12303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 Hamilton Blvd, Kenmore, NY 14217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>413 Broad St, Tonawanda, NY 14150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32 Lake Ave, Lancaster, NY 14086</x:t>
-  </x:si>
-  <x:si>
-    <x:t>315 Quail St, Albany, NY 12208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 North St, Montrose, NY 10548</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28 Betwood St, Albany, NY 12209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184 Somerville Ave, Tonawanda, NY 14150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>906 Myrtle Ave, Albany, NY 12208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250 Kings Ferry Rd #13, Montrose, NY 10548</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 Genesee Ave, Binghamton, NY 13903</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 Heritage Dr UNIT A, Harriman, NY 10926</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Academy St, Liberty, NY 12754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 Norton St, Newburgh, NY 12550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1346 Trinity Ave, Schenectady, NY 12306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13 Dana Ave, Albany, NY 12208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106 Hackett Blvd, Albany, NY 12209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27 Sidney Ave, Waterford, NY 12188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 Prospect Ave, Colonie, NY 12205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96 Martinique Dr, Cheektowaga, NY 14227</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74 Lawnridge Ave, Albany, NY 12208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10377 Park Ave, Van Buren Point, NY 14166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>491 Niagara St, Tonawanda, NY 14150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70 Andrews Ave, Wheatley Heights, NY 11798</x:t>
-  </x:si>
-  <x:si>
-    <x:t>246 Rosedale Blvd, Amherst, NY 14226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170 Parkside Dr #170, Suffern, NY 10901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 Stonington Hill Rd UNIT I, Voorheesville, NY 12186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>615 Western Ave, Albany, NY 12203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73 Fleetwood Ave, Albany, NY 12209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 Overlook Ln N #B/D, Chestertown, NY 12817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>229 Hampton Ave, Rensselaer, NY 12144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>607 Farmers Ave, Bellmore, NY 11710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32 Belvidere Ave, Albany, NY 12203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Campbell St, Amityville, NY 11701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1353 Howard St, Peekskill, NY 10566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 Sandhurst Dr, Slingerlands, NY 12159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57 Cedar Pond Ln #5G, Cortlandt Manor, NY 10567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1331 Broadway #P21-22, Hewlett, NY 11557</x:t>
-  </x:si>
-  <x:si>
-    <x:t>336 Madison Ave, Albany, NY 12210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6260 Eckhardt Rd UNIT 5, Hamburg, NY 14085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>638 Sierra Vista Ln, Valley Cottage, NY 10989</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57 Bramley Ct, Monroe, NY 10950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>503 Meadow Rd, Syracuse, NY 13219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>355 State St APT 3EF, Albany, NY 12210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13355 Hook Creek Blvd, Valley Stream, NY 11580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 Homestead Ave, Highland Falls, NY 10928</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42 Morris St, Albany, NY 12208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34 Sunset Island Rd, Wilson, NY 14172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34 S Sunset Is, Wilson, NY 14172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>906 Eagles Ridge Rd, Brewster, NY 10509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 Bosher Dr, Albany, NY 12205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26 Hudson Ave, Colonie, NY 12205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150 Featherbed Ln APT 5A, Bronx, NY 10452</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8829 183rd St, Jamaica, NY 11423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 Lincoln St, Haverstraw, NY 10927</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29 Fieldstone Dr #4G, Hartsdale, NY 10530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300 Sierra Vista Ln, Valley Cottage, NY 10989</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96 Mcnutt Ave, Albany, NY 12205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 Chestnut Ct, Rensselaer, NY 12144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 Malibu Hl, Rensselaer, NY 12144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44 Overlook Rd, West Haverstraw, NY 10993</x:t>
-  </x:si>
-  <x:si>
-    <x:t>525 Sierra Vista Ln, Valley Cottage, NY 10989</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51 Massachusetts Ave, Buffalo, NY 14213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126 Sierra Vista Ln, Valley Cottage, NY 10989</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1325 Ackerson Blvd, Bay Shore, NY 11706</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 Hempstead Ave APT 3C, Rockville Centre, NY 11570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 Pine Rd, Florida, NY 10921</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2666 Miles Ave #P1, Bronx, NY 10465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 Greenport Pkwy, Hudson, NY 12534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>230 Feller Dr, Central Islip, NY 11722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50 Barker St APT 430, Mount Kisco, NY 10549</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1634 Wilson St, North Baldwin, NY 11510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177 E Hartsdale Ave APT 3R, Hartsdale, NY 10530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41 Delaware Rd, Kenmore, NY 14217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1468 Midland Ave APT 3A, Bronxville, NY 10708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28 Amesworth Ct, Middle Island, NY 11953</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155 Lake Tour Rd LOT 3, Lake Luzerne, NY 12846</x:t>
-  </x:si>
-  <x:si>
-    <x:t>740 Washington St, Baldwin, NY 11510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>940 Cranford Ave, Bronx, NY 10466</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120 E Hartsdale Ave APT 2A, Hartsdale, NY 10530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 Kless Ct, Middletown, NY 10940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 Waterview Est, Peekskill, NY 10566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184 Pinewood Rd APT 71, Hartsdale, NY 10530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1131 Orchard St, Peekskill, NY 10566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33 Hemlock Cir, Peekskill, NY 10566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 Maplewood Dr, Mount Kisco, NY 10549</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400 E 4th St, Watkins Glen, NY 14891</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25 Huntingdale Way, Middle Island, NY 11953</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25 Barker St APT 410, Mount Kisco, NY 10549</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60-11 Broadway #4R, Woodside, NY 11377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118 Willowgrove Ct, Tonawanda, NY 14150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41 Morris St, New Rochelle, NY 10801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>574 Rye Ct, Valley Stream, NY 11580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123 Clubhouse Rd, Bellmore, NY 11710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 Levan St, Kingston, NY 12401</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27 Harbor Pointe Dr, Haverstraw, NY 10927</x:t>
-  </x:si>
-  <x:si>
-    <x:t>645 Midwood St, Uniondale, NY 11553</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 Dakota Ct, Suffern, NY 10901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>431 Willow Grove Rd, Stony Point, NY 10980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167 Lake Shore Dr, Mahopac, NY 10541</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10218 Russell St, Jamaica, NY 11414</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85 Hemlock Cir, Peekskill, NY 10566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4302 Finch Ct, Peekskill, NY 10566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46 Winchester Ave, Peekskill, NY 10566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132 County Highway 152, Northville, NY 12134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69 Rushmore St, Huntington Station, NY 11746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 Abbey Ln, Levittown, NY 11756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88-08 151st Ave #5, Howard Beach, NY 11414</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167 Maple Rd, Wading River, NY 11792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 Oriole Ln, Croton On Hudson, NY 10520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72 Amber Dr, Croton On Hudson, NY 10520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Bowman Ln #6, Wilmington, NY 12997</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68 Garden St #B3C, Brooklyn, NY 11206</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212 N State Rd, Briarcliff Manor, NY 10510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187 Henry St, Kingston, NY 12401</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115 E Maujer St, Valley Stream, NY 11580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182 Mill Rd, Ronkonkoma, NY 11779</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29 Nelson St, Farmingdale, NY 11735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218-14 99th Ave, Queens Village, NY 11429</x:t>
-  </x:si>
-  <x:si>
-    <x:t>604 City Island Ave, Bronx, NY 10464</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197 Lawrence St, Uniondale, NY 11553</x:t>
-  </x:si>
-  <x:si>
-    <x:t>508 N Atlanta Ave, Massapequa, NY 11758</x:t>
-  </x:si>
-  <x:si>
-    <x:t>875 Morrison Ave APT 9J, Bronx, NY 10473</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 W 141st St APT 52, New York, NY 10030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47 Moore Ave, Mount Kisco, NY 10549</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222 Hawthorne Rd, Kings Park, NY 11754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>196 N Kensico Ave, White Plains, NY 10604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52 Clubhouse Cir, Melville, NY 11747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110 Snowy View Ln, Lake Pleasant, NY 12108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1094 N Broadway, Massapequa, NY 11758</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13 Spring St, Tarrytown, NY 10591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212 Northview Ct, Peekskill, NY 10566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108 Harrison Ave, Freeport, NY 11520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>597 Secor Rd, Hartsdale, NY 10530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57 W Hampton Rd, Lindenhurst, NY 11757</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61 Southfield Ave, Dobbs Ferry, NY 10522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>373 Gardiners Ave, Levittown, NY 11756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 Tower Ln, Levittown, NY 11756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57 President St, Hempstead, NY 11550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Bowman Ln #4, Wilmington, NY 12997</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4825 Henson Dr, Geneva, NY 14456</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111 Rombout Ave, Beacon, NY 12508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28 Carl St, Valley Stream, NY 11580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165 N Elm St, Massapequa, NY 11758</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11620 Van Wyck Expy, Jamaica, NY 11420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22 Ellwood St, Glen Cove, NY 11542</x:t>
-  </x:si>
-  <x:si>
-    <x:t>637A Westwood Ave, Staten Island, NY 10314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109 N Montague St, Valley Stream, NY 11580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133 Bogert Ave, Pearl River, NY 10965</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211 Tallwood Drive, Hartsdale, NY 10530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Bowman Ln UNIT 3, Wilmington, NY 12997</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36 1st Ave, Farmingdale, NY 11735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>771 Mile Square Rd, Yonkers, NY 10704</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1380 Surprise St, Elmont, NY 11003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22 Stirrup Ln, Levittown, NY 11756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 Avenue A, Port Washington, NY 11050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2626 Foxdale Ave, Oceanside, NY 11572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303 E 57th St APT 6D, New York, NY 10022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2106 Central Dr N, East Meadow, NY 11554</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204 Clinton Ave, New Rochelle, NY 10801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 George St, Glen Cove, NY 11542</x:t>
-  </x:si>
-  <x:si>
-    <x:t>223 Ringgold St, Peekskill, NY 10566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 W 184th St, Bronx, NY 10468</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122 Alnwick Rd, Malverne, NY 11565</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47 Edgewood Rd, Rockville Centre, NY 11570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>323 State St, Hudson, NY 12534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>372 Weidner Ave, Oceanside, NY 11572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 Ballard Ave, Valley Stream, NY 11580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47 Vermont St, Melville, NY 11747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108 1/2 Deacons Way, Wells, NY 12190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1032 Mile Square Rd, Yonkers, NY 10704</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2275 3rd St, East Meadow, NY 11554</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27 Lorenz Ave, New Rochelle, NY 10801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77 E 56th St, Brooklyn, NY 11203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77 Beaumont Dr, Plainview, NY 11803</x:t>
-  </x:si>
-  <x:si>
-    <x:t>551 Broadway, Bethpage, NY 11714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>411 N Newbridge Rd, Levittown, NY 11756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98 Briary Rd, Dobbs Ferry, NY 10522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>541 Jefferson Ave, Mamaroneck, NY 10543</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303 E 57th St APT 24B, New York, NY 10022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149 Fenimore Rd APT B6, Mamaroneck, NY 10543</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74 Helena Ave, Yonkers, NY 10710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 Hayward St, Yonkers, NY 10704</x:t>
-  </x:si>
-  <x:si>
-    <x:t>453 Clinton Ave, Rockville Centre, NY 11570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 Eagle Ln, Farmingdale, NY 11735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Wedgewood Ln, Wantagh, NY 11793</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 Homewood Rd, Mount Vernon, NY 10553</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2400 Johnson Ave APT 10E, Bronx, NY 10463</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28 Barnhardt Ave, Sleepy Hollow, NY 10591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17314 108th Ave, Jamaica, NY 11433</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47 Beach Rd, Riverhead, NY 11901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1101 Brentwood Dr, Tarrytown, NY 10591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 South St, Port Washington, NY 11050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157 Columbia Ave, Hartsdale, NY 10530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49 Heather Ln, Levittown, NY 11756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13 Brook Rd, Port Chester, NY 10573</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2428 Yorktown St, Oceanside, NY 11572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1201 Hunters Run, Dobbs Ferry, NY 10522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 Adams Ct, Oyster Bay, NY 11771</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73 Ogden Ave, Dobbs Ferry, NY 10522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 E Chester St, Valley Stream, NY 11580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2274 Mildred Pl, Bellmore, NY 11710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 Station Ave, Staten Island, NY 10309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140 Park Dr, Eastchester, NY 10709</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1668 Little Neck Ave, North Bellmore, NY 11710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95 Constellation Rd, Levittown, NY 11756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32 Springhurst Park, Dobbs Ferry, NY 10522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13449 161st St, Jamaica, NY 11434</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2250 Croydon Dr, Baldwin, NY 11510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3555 Mc Owen Ave, Bronx, NY 10475</x:t>
-  </x:si>
-  <x:si>
-    <x:t>502 Helen Rd, Mineola, NY 11501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3555 Bayfield Blvd, Oceanside, NY 11572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 Locust St, Valley Stream, NY 11581</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 Blanchard Ave, Dobbs Ferry, NY 10522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Shore Ave, Bayville, NY 11709</x:t>
-  </x:si>
-  <x:si>
-    <x:t>428 6th St, Greenport, NY 11944</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303 E 57th St #20JK, New York, NY 10022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203 Gair St, Piermont, NY 10968</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166 Intervale Ave, Farmingdale, NY 11735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>504 Maitland St, East Meadow, NY 11554</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135 Devon Rd, Albertson, NY 11507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123 Van Tassel Ave, Sleepy Hollow, NY 10591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 Shepherd St, Rockville Centre, NY 11570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2561 S Saint Marks Ave, Bellmore, NY 11710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1408 Half Moon Bay Dr, Croton On Hudson, NY 10520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57 Lawton Ave, Hartsdale, NY 10530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2750 Colden Ave, Bronx, NY 10469</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6662 75th St, Flushing, NY 11379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113-34 200th St, Saint Albans, NY 11412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303 E 57th St #17GH, New York, NY 10022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90 Penfield Ave, Croton On Hudson, NY 10520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93 Joyce Rd, Eastchester, NY 10709</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93 Stirrup Ln, Levittown, NY 11756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50 Mohawk Rd, Yonkers, NY 10710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>546 Mountainview Ave, Valley Cottage, NY 10989</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60-54 83rd Pl, Middle Village, NY 11379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72 Sugar Maple Rd, Levittown, NY 11756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88 Union Ave, Deer Park, NY 11729</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5192 Hylan Blvd, Staten Island, NY 10312</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3031 Fortesque Ave, Oceanside, NY 11572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1611 Plymouth Ave #A, Bronx, NY 10461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1760 Ann Rd, Merrick, NY 11566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153 Webster Rd, Scarsdale, NY 10583</x:t>
-  </x:si>
-  <x:si>
-    <x:t>452 15th St APT 1R, Brooklyn, NY 11215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69 Milburn St, Rockville Centre, NY 11570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Blenheim Ct, Rockville Centre, NY 11570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>459 E 93rd St, Brooklyn, NY 11212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41 Bellair Dr, Dobbs Ferry, NY 10522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2722 Wilson Ave, Bellmore, NY 11710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 W 57th St UNIT 4JK, New York, NY 10019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 Hyacinth Ct, Melville, NY 11747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>305 Bryn Mawr Rd, New Hyde Park, NY 11040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303 E 57th St APT 43G, New York, NY 10022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30 Jefferson Rd, Scarsdale, NY 10583</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 W 84th St, New York, NY 10024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303 E 57th St APT 45G, New York, NY 10022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77 Berkshire Rd, Great Neck, NY 11023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 Herkomer St, New Hyde Park, NY 11040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175 E 62nd St APT 18B, New York, NY 10065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>236 Manor Pl, Greenport, NY 11944</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303 Pulaski St, Brooklyn, NY 11206</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25 Kayla Ct, Staten Island, NY 10306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14009 14th Ave, Flushing, NY 11357</x:t>
+    <x:t>71700 636th Ave, Humboldt, NE 68376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 Birchwood Grv, Gering, NE 69341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>812 Cherry St, Arapahoe, NE 68922</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202 S Park St, Bassett, NE 68714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240 E 2nd St, Leigh, NE 68643</x:t>
+  </x:si>
+  <x:si>
+    <x:t>687 N Pine St, Long Pine, NE 69217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>800 S 15th St, Norfolk, NE 68701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>302 S Main St, Atkinson, NE 68713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12812 Sahler Plz, Omaha, NE 68164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>408 Garfield St, Creighton, NE 68729</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1026 B St, Fairbury, NE 68352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>514 E 8th St, Minden, NE 68959</x:t>
+  </x:si>
+  <x:si>
+    <x:t>606 Main St, Newcastle, NE 68757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1402 W Bluff Ave, Norfolk, NE 68701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117 N Main St, Eustis, NE 69028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 Sara Dr, Hastings, NE 68901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>311 2nd Ave, Verdigre, NE 68783</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1120 G St, Pawnee City, NE 68420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>720 Boulevard St LOT 34, Fremont, NE 68025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>921 W 10th St, Hastings, NE 68901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>540 N 10th Ave, Broken Bow, NE 68822</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101 W 3rd St, Lawrence, NE 68957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202 S 2nd St, Cedar Bluffs, NE 68015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>805 Penn St, Cambridge, NE 69022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403 1st Ave, Bayard, NE 69334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2902 Hancock St, Bellevue, NE 68005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>507 E 11th St, North Platte, NE 69101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1010 O St, Bridgeport, NE 69336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233 N Walnut St, Red Cloud, NE 68970</x:t>
+  </x:si>
+  <x:si>
+    <x:t>814 4th Ave, Plattsmouth, NE 68048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109 S Park St, Bassett, NE 68714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1309 W Park Ave, Norfolk, NE 68701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12603 Manderson Plz #285, Omaha, NE 68164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>601 5th St, Chappell, NE 69129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1519 Ella St, Beatrice, NE 68310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>903 Dolan Ave, Cambridge, NE 69022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155 N Ash St, Shelby, NE 68662</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247 Hutchinson St, Garland, NE 68360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1219 N Oak St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022 W 3rd St, North Platte, NE 69101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2225 Osage St, Sidney, NE 69162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4320 Binney St, Omaha, NE 68111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303 W 2nd St, Tilden, NE 68781</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2815 Hamilton St, Omaha, NE 68131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105 S Pear St, Maywood, NE 69038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>876 N 3rd St, David City, NE 68632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>340 N 32nd St, Lincoln, NE 68503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>802 Bates Blvd, Lodgepole, NE 69149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1118 14th St, Aurora, NE 68818</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1322 Avenue G, Scottsbluff, NE 69361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104 S 8th St, Mccook, NE 69001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6734 N 31st Ave, Omaha, NE 68112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4155 Cuming St, Omaha, NE 68131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4029 Wirt St, Omaha, NE 68111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317 S Mayne St, Valley, NE 68064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1414 3rd Ave, Nebraska City, NE 68410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>712 Pacific St, Cambridge, NE 69022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1917 11th Ave, Scottsbluff, NE 69361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2403 Florence Blvd, Omaha, NE 68110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>353 Lake St, Chadron, NE 69337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1672 31st Ave, Columbus, NE 68601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>875 2nd St, Syracuse, NE 68446</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2503 W 4th St, Hastings, NE 68901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2419 Camden Ave, Omaha, NE 68111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>820 C St, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3512 N 59th St, Omaha, NE 68104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1105 R St, Bridgeport, NE 69336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>221/223 E Arapahoe St, Exeter, NE 68351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1802 10th Ave, Scottsbluff, NE 69361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2613 Stone St, Falls City, NE 68355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1816 L St, Auburn, NE 68305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2552 Crown Point Ave, Omaha, NE 68111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147 E 5th St, Hastings, NE 68901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>424 S 9th St, Nebraska City, NE 68410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>511 N Grant Ave, North Platte, NE 69101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>819 N Wheeler Ave, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1909 N 26th St, Omaha, NE 68111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>910 E C St, North Platte, NE 69101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1416 W Koenig St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2513 S 33rd St, Omaha, NE 68105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1605 Washington St, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1905 2nd Ave, Scottsbluff, NE 69361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>613 8th St, Syracuse, NE 68446</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1043 S 28th St, Omaha, NE 68105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41 Chinoe Rd, Gering, NE 69341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220 S 6th St, Albion, NE 68620</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4244 Witherbee Blvd, Lincoln, NE 68510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2703 Madison St, Bellevue, NE 68005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1214 M St, Ord, NE 68862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>521 Shole Ave, Cambridge, NE 69022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247 N 2nd St, Seward, NE 68434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1732 Whittier St, Lincoln, NE 68503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1405 W 5th St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>221 W 29th St, Kearney, NE 68845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>820 N Burlington Ave, York, NE 68467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2333 N 67th St, Omaha, NE 68104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>847 N Hewett, Hastings, NE 68901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3212 Vine St, Lincoln, NE 68503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2220 D St, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6122 Florence Blvd, Omaha, NE 68110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4111 S 39th St, Omaha, NE 68107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1815 W &amp; 1815.5 W #13, Grand Island, NE 68803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7245 N Ridge Dr, Omaha, NE 68112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1102 E 14th St, Scottsbluff, NE 69361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>628 N York Ave, York, NE 68467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1212 New Hampshire St, Lincoln, NE 68508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>785 Q St, Gering, NE 69341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107 W Ashton Ave, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1751 South St, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1912 16th St, Columbus, NE 68601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201 2nd St, Utica, NE 68456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>611 Logan St, Holdrege, NE 68949</x:t>
+  </x:si>
+  <x:si>
+    <x:t>722 Penn St, Cambridge, NE 69022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1710 W 7th St, Hastings, NE 68901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>502 Spring View Cir, Beatrice, NE 68310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2307 Clay St, Bellevue, NE 68005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1004 S Eugene St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18164 Southdale Plz, Omaha, NE 68135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3080 T St, Lincoln, NE 68503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1205 Norris Ave, Mccook, NE 69001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1321 S 31st St, Omaha, NE 68105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7515 N 34th St, Omaha, NE 68112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1202 S Willow St, North Platte, NE 69101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>604 A St, Parks, NE 69021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5809 N 27th St, Omaha, NE 68111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1915 W 2nd St, Grand Island, NE 68803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2862 Crown Point Ave, Omaha, NE 68111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1305 17th St, Gering, NE 69341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230 S 22nd St, Omaha, NE 68107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>819 Shole Ave, Cambridge, NE 69022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4403 S 38th St, Omaha, NE 68107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>720 Emerson Ave, Alliance, NE 69301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103 S Chestnut St, Kimball, NE 69145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1405 B Ave, Kearney, NE 68847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112 S Broadwell Ave, Grand Island, NE 68803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614 Nasby St, Cambridge, NE 69022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>724 W 29th St, Kearney, NE 68845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4019 Palamino Rd APT 4, Kearney, NE 68845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4339 Miami St, Omaha, NE 68111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2106 Avenue E, Scottsbluff, NE 69361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>323 W 29th St, Kearney, NE 68845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>722 S Cowan Ave, York, NE 68467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7912 N 40th St, Omaha, NE 68112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1700 Jackson St, Beatrice, NE 68310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4709 N 111th Cir, Omaha, NE 68164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2709 Woolworth Ave, Omaha, NE 68105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3107 N 59th St, Omaha, NE 68104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101 S Manderson Ave, Hyannis, NE 69350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2511 S 42nd St, Omaha, NE 68105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>626 E 10th St, York, NE 68467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1004 W 11th St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1761 N Walnut St, Wahoo, NE 68066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7320 Stanton St, Lincoln, NE 68507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>640 S 29th St, Lincoln, NE 68510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>602 S 7th St, Norfolk, NE 68701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4219 Parker St, Omaha, NE 68111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2105 C St, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4401 S 34th St, Omaha, NE 68107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1517 W 40th St, Kearney, NE 68845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2300 B Ave, Kearney, NE 68847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>720 W 24th St, Kearney, NE 68845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>921 S 2nd St, Norfolk, NE 68701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4203 Pierce St, Omaha, NE 68105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4732 N 36th Ave, Omaha, NE 68111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1525 King St, Sidney, NE 69162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6913 S 50th St, Omaha, NE 68157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2865 Titus Ave, Omaha, NE 68112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6601 Minne Lusa Blvd, Omaha, NE 68112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2527 S 10th St, Omaha, NE 68108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2428 S 42nd St, Omaha, NE 68105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204 E 19th St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>711 W 10th St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111 S Roselane, Columbus, NE 68601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 Saint James Pl, Grand Island, NE 68803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500 S Lakewood St, Valley, NE 68064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 Walleye, Lemoyne, NE 69146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5153 Starr St, Lincoln, NE 68504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3060 39th Ave, Columbus, NE 68601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 E Cedar Dr, Columbus, NE 68601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>404 N Pebble St, Fremont, NE 68025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1333 Rainbow Ave, Seward, NE 68434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1757 N Linden St, Wahoo, NE 68066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7012 S 129th St, Omaha, NE 68138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2645 A St, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6811 S 51st St, Omaha, NE 68117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3996 Iowa St, Omaha, NE 68112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7769 Highland St, Ralston, NE 68127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 N Circle Dr, York, NE 68467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7420 South St UNIT 16, Lincoln, NE 68506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103 E 21st St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5310 S 194th Ave, Omaha, NE 68135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403 W 9th St, Wood River, NE 68883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6717 S 191st Ave, Omaha, NE 68135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1413 Avenue N, Scottsbluff, NE 69361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021 N 50th St, Omaha, NE 68104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2244 N Aaron Way, Fremont, NE 68025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1017 Arthur St, Beatrice, NE 68310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3511 Jackson St, Omaha, NE 68105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>902 S Chestnut St, Norfolk, NE 68701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>906 S Chestnut St, Norfolk, NE 68701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>904 S Chestnut St, Norfolk, NE 68701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>843 8th St, Columbus, NE 68601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5315 N St, Lincoln, NE 68510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>417 E Braasch Ave, Norfolk, NE 68701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13843 Greenfield Rd, Omaha, NE 68138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>640 Road 44 LOT 59, Bellwood, NE 68624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>307 E 2nd Apartments A B #D-C, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2518 W South St, Lincoln, NE 68522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1018 E 19th St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1010 E 19th St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>834 N 26th St, Beatrice, NE 68310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2541 S 35th St, Lincoln, NE 68506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14467 Reynolds St, Bennington, NE 68007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3308 Jason Dr, Bellevue, NE 68123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1050 1st St, Chappell, NE 69129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1742 Victoria Ln, Fremont, NE 68025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1524 E 5th St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1520 E 5th St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7708 Lakeview St, Ralston, NE 68127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5001 Hamilton St, Omaha, NE 68132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13206 S 38th St, Bellevue, NE 68123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2264 N Aaron Way, Fremont, NE 68025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2314 Pilgrim Dr, Bellevue, NE 68123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5637 Burdette St, Omaha, NE 68104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1827 N 93rd Ct, Omaha, NE 68114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12715 Fowler Cir, Omaha, NE 68164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1314 S 48th St, Omaha, NE 68106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8358 Flintlock St, Lincoln, NE 68526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1812 Euclid Ave, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19503 U St, Omaha, NE 68135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>312 S 16th St APT 205, Omaha, NE 68102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1546 Newton St, Sidney, NE 69162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5633 Erskine St, Omaha, NE 68104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5933 N 158th Ct APT 308, Omaha, NE 68116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18676 V St, Omaha, NE 68135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>915 N 28th St, Blair, NE 68008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3826 Gertrude St, Bellevue, NE 68147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8940 Buckshot Rd, Lincoln, NE 68507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1009 Aspen St, Wayne, NE 68787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214 E Plum St, Doniphan, NE 68832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>805 Blue Stem Cir, Norfolk, NE 68701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6710 S 81st St, Ralston, NE 68127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13813 Springview Dr, Bellevue, NE 68133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4803 N 144th St, Omaha, NE 68116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310 E 2nd St, Mccook, NE 69001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5817 4th Ave, Kearney, NE 68845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1735 NW 51st St, Lincoln, NE 68528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1837 N Peach, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1845 N Peach, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4720 Center St, Omaha, NE 68106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5208 N 10th St, Lincoln, NE 68521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50554 868th Rd, Page, NE 68766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17014 Hawthorne Ave, Omaha, NE 68118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1528 E 5th St, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5928 N 158th Plz, Omaha, NE 68116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>620 W 2nd St, Hastings, NE 68901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>800 A St, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300061 Lakeside Dr, Minatare, NE 69356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10621 Curtis Ave, Omaha, NE 68134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17020 Hawthorne Ave, Omaha, NE 68118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(undisclosed Address), Lincoln, NE 68522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5308 Linden St, Lincoln, NE 68516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4932 Franklin St, Omaha, NE 68104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6628 Shenandoah Ct, Lincoln, NE 68510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>428 N Allen St, Bennington, NE 68007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830 Iris Ave, Crete, NE 68333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1508 Chokecherry Ln, South Sioux City, NE 68776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2506 H St, Fairbury, NE 68352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7215 N 15th St, Lincoln, NE 68521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1222 S 12th St, Omaha, NE 68108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1526 Open Sky Ln, Lincoln, NE 68522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>809 N 48th St, Omaha, NE 68132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1532 Open Sky Ln, Lincoln, NE 68522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2961 N 87th St, Lincoln, NE 68507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7200 S Wedgewood Dr, Lincoln, NE 68510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>931 S 33rd Terrace Plz, Omaha, NE 68105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17019 Hawthorne Ave, Omaha, NE 68118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17090 Nicholas St, Omaha, NE 68118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>525 N 32nd St, Omaha, NE 68131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1229 L St, Fairbury, NE 68352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3614 Burt St, Omaha, NE 68131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6112 S 95th St, Omaha, NE 68127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1503 Harrison Ave, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>618 W 11th St, Hastings, NE 68901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5418 Oriole Dr, Scottsbluff, NE 69361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3916 Pablo Ln, Lincoln, NE 68516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13304 S 24th St, Bellevue, NE 68123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3319 Schroeder Ave, Grand Island, NE 68803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4830 S 189th St, Omaha, NE 68135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2316 Clay St, Bellevue, NE 68005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2819 33rd St, Columbus, NE 68601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1920 NW 44th St, Lincoln, NE 68528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1510 Highway 61 N #14, Ogallala, NE 69153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>410 Skyview Cir, Norfolk, NE 68701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1911 Sewell St, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40114 Prairie View Dr, Cambridge, NE 69022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103 W 9th St, Hickman, NE 68372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2970 W Washington *model St, Lincoln, NE 68522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16122 Mormon St, Bennington, NE 68007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2704 N 202nd Ave, Elkhorn, NE 68022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14814 Grebe St, Bennington, NE 68007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7416 S 183rd St, Omaha, NE 68136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219 N 5th St, Nebraska City, NE 68410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17507 Tucker St, Bennington, NE 68007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5708 Mayberry St, Omaha, NE 68106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3808 Park Pl, South Sioux City, NE 68776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2425 South St, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15132 Borman St, Omaha, NE 68138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1152 S 2nd Ave, Decatur, NE 68020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1785 Equineus Corral, Central City, NE 68826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3094 Cottage Grove Ln, Fremont, NE 68025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47 Jansen Cir, Saint Paul, NE 68873</x:t>
+  </x:si>
+  <x:si>
+    <x:t>810 Autumn Pkwy, Hickman, NE 68372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2607 Rahn Blvd, Bellevue, NE 68123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11974 N 142nd St, Waverly, NE 68462</x:t>
+  </x:si>
+  <x:si>
+    <x:t>621 W 23rd St, Kearney, NE 68845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7642 Glynoaks Dr, Lincoln, NE 68516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10406 N 152nd Ave, Bennington, NE 68007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5018 Western Ave, Omaha, NE 68132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>510 S Woodland Dr, Grand Island, NE 68801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3111 Mayberry Plz, Omaha, NE 68106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>312 S 55th St, Lincoln, NE 68510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316 S 55th St, Lincoln, NE 68510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1068 N 170th Ave, Omaha, NE 68118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>877 Road 4, Schuyler, NE 68661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4655 Mayberry St, Omaha, NE 68106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2866 Krejci Blvd, Blair, NE 68008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>748 N 155th Ave, Omaha, NE 68154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2014 M St, Aurora, NE 68818</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5101 Woodland Hills Dr, Eagle, NE 68347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11631 N 143rd St, Waverly, NE 68462</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5013 Webster St, Omaha, NE 68132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2706 Merle Ave, Hastings, NE 68901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2201 Harrison Ave, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3742 Twin Creek Rd, Lincoln, NE 68516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4446 Leawood Dr, Bellevue, NE 68123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>454 N Allen St, Bennington, NE 68007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220 Jefferson St, Aurora, NE 68818</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4722 32nd St, Columbus, NE 68601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9706 S 184th Ave, Omaha, NE 68136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5415 Roose St, Lincoln, NE 68506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5419 Roose St, Lincoln, NE 68506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40112 Prairie View Dr, Cambridge, NE 69022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>452 N Molley St, Bennington, NE 68007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2110 Leigh Cir, Papillion, NE 68133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1915 Bentley Cir, Grand Island, NE 68803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8624 S 79th St, Lincoln, NE 68516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2613 N 167th Ave, Omaha, NE 68116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5007 Nicholas St, Omaha, NE 68132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8060 A St, Lincoln, NE 68510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3327 N 92nd Ct, Lincoln, NE 68507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2609 Bishop Ln, Lincoln, NE 68502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5120 Izard St, Omaha, NE 68132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2010 Geri Cir, Bellevue, NE 68147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9602 S 183rd Ave, Omaha, NE 68136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1402 Birdie Blvd, Cairo, NE 68824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3324 Davenport St, Omaha, NE 68131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6560 S 59th St, Lincoln, NE 68516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6401 Verano Dr, Lincoln, NE 68523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1812 Del Mar Cir, Grand Island, NE 68803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3101 N 92nd St, Lincoln, NE 68507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11928 N 143rd St, Waverly, NE 68462</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2830 Big Island Rd LOT 25, Fremont, NE 68025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17830 N 2nd St, Davey, NE 68336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10205 N 29th Ct, Omaha, NE 68112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345 Sunset Dr, Doniphan, NE 68832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5115 Capitol Ave, Omaha, NE 68132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7024 Straffan Pl, Lincoln, NE 68516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7156 S 94th Ct, Lincoln, NE 68526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12651 Sherman Plz, Omaha, NE 68138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3530 Anaheim Dr, Lincoln, NE 68506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6601 Stonebrook Pkwy, Lincoln, NE 68521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3903 Warbler Rd, Grand Island, NE 68803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10210 Spyglass Dr, Omaha, NE 68136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10105 S 180th St, Gretna, NE 68028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 Riverview Dr, Crofton, NE 68730</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4745 Lambert Pl, Columbus, NE 68601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11210 William Plz, Omaha, NE 68144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 Rua B Quadra #3, Am 69037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11406 S 120th Ave, Papillion, NE 68046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1424 S 13th St, Omaha, NE 68108</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1435,7 +1522,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E353"/>
+  <x:dimension ref="A1:E383"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1460,16 +1547,16 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="n">
-        <x:v>7500</x:v>
+        <x:v>20000</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>1122</x:v>
+        <x:v>4912</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>5</x:v>
@@ -1477,16 +1564,16 @@
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="n">
-        <x:v>19900</x:v>
+        <x:v>25000</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>1260</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>6</x:v>
@@ -1494,16 +1581,16 @@
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="n">
-        <x:v>20000</x:v>
+        <x:v>30000</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>2348</x:v>
+        <x:v>1748</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>7</x:v>
@@ -1511,16 +1598,16 @@
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="n">
-        <x:v>25000</x:v>
+        <x:v>33500</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>2244</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>8</x:v>
@@ -1528,16 +1615,16 @@
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="n">
-        <x:v>26000</x:v>
+        <x:v>34500</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>1008</x:v>
+        <x:v>1716</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>9</x:v>
@@ -1545,16 +1632,16 @@
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="n">
-        <x:v>29500</x:v>
+        <x:v>37500</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>1492</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>10</x:v>
@@ -1562,7 +1649,7 @@
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="n">
-        <x:v>29900</x:v>
+        <x:v>40000</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
         <x:v>3</x:v>
@@ -1571,7 +1658,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>1344</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>11</x:v>
@@ -1579,16 +1666,16 @@
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="n">
-        <x:v>36000</x:v>
+        <x:v>42950</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>1346</x:v>
+        <x:v>1657</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>12</x:v>
@@ -1596,16 +1683,16 @@
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="n">
-        <x:v>39900</x:v>
+        <x:v>45000</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>1908</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>13</x:v>
@@ -1613,16 +1700,16 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="n">
-        <x:v>39900</x:v>
+        <x:v>49500</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>1046</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>14</x:v>
@@ -1630,16 +1717,16 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="n">
-        <x:v>40000</x:v>
+        <x:v>50000</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>2224</x:v>
+        <x:v>1592</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>15</x:v>
@@ -1647,16 +1734,16 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="n">
-        <x:v>40000</x:v>
+        <x:v>50000</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>2386</x:v>
+        <x:v>1476</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>16</x:v>
@@ -1664,16 +1751,16 @@
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="n">
-        <x:v>43900</x:v>
+        <x:v>52000</x:v>
       </x:c>
       <x:c r="B14" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>1260</x:v>
+        <x:v>1136</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>17</x:v>
@@ -1681,16 +1768,16 @@
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="n">
-        <x:v>44900</x:v>
+        <x:v>54900</x:v>
       </x:c>
       <x:c r="B15" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>1968</x:v>
+        <x:v>1344</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>18</x:v>
@@ -1698,16 +1785,16 @@
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="n">
-        <x:v>49900</x:v>
+        <x:v>57900</x:v>
       </x:c>
       <x:c r="B16" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>1510</x:v>
+        <x:v>3841</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>19</x:v>
@@ -1715,16 +1802,16 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="n">
-        <x:v>49900</x:v>
+        <x:v>58000</x:v>
       </x:c>
       <x:c r="B17" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>2756</x:v>
+        <x:v>1344</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>20</x:v>
@@ -1732,16 +1819,16 @@
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="n">
-        <x:v>49900</x:v>
+        <x:v>58000</x:v>
       </x:c>
       <x:c r="B18" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>2222</x:v>
+        <x:v>1521</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>21</x:v>
@@ -1749,16 +1836,16 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="n">
-        <x:v>55000</x:v>
+        <x:v>58500</x:v>
       </x:c>
       <x:c r="B19" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>1648</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>22</x:v>
@@ -1766,16 +1853,16 @@
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="n">
-        <x:v>55000</x:v>
+        <x:v>59000</x:v>
       </x:c>
       <x:c r="B20" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>1344</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>23</x:v>
@@ -1792,7 +1879,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>1080</x:v>
+        <x:v>1221</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>24</x:v>
@@ -1800,16 +1887,16 @@
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="n">
-        <x:v>65000</x:v>
+        <x:v>59900</x:v>
       </x:c>
       <x:c r="B22" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>1241</x:v>
+        <x:v>2132</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>25</x:v>
@@ -1817,16 +1904,16 @@
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="n">
-        <x:v>69000</x:v>
+        <x:v>60000</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>1130</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>26</x:v>
@@ -1834,16 +1921,16 @@
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="n">
-        <x:v>69900</x:v>
+        <x:v>62500</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>1352</x:v>
+        <x:v>1612</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>27</x:v>
@@ -1851,16 +1938,16 @@
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="n">
-        <x:v>69900</x:v>
+        <x:v>65000</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>1496</x:v>
+        <x:v>1472</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>28</x:v>
@@ -1868,16 +1955,16 @@
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="n">
-        <x:v>69900</x:v>
+        <x:v>65000</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>1144</x:v>
+        <x:v>1772</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>29</x:v>
@@ -1885,16 +1972,16 @@
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="n">
-        <x:v>79000</x:v>
+        <x:v>65000</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>1379</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>30</x:v>
@@ -1902,7 +1989,7 @@
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="n">
-        <x:v>79000</x:v>
+        <x:v>65000</x:v>
       </x:c>
       <x:c r="B28" s="0" t="n">
         <x:v>3</x:v>
@@ -1911,7 +1998,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>1544</x:v>
+        <x:v>1926</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>31</x:v>
@@ -1919,7 +2006,7 @@
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="n">
-        <x:v>84000</x:v>
+        <x:v>66500</x:v>
       </x:c>
       <x:c r="B29" s="0" t="n">
         <x:v>2</x:v>
@@ -1928,7 +2015,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>5040</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>32</x:v>
@@ -1936,16 +2023,16 @@
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="n">
-        <x:v>84900</x:v>
+        <x:v>67500</x:v>
       </x:c>
       <x:c r="B30" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>1872</x:v>
+        <x:v>1628</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>33</x:v>
@@ -1953,7 +2040,7 @@
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="n">
-        <x:v>85000</x:v>
+        <x:v>67500</x:v>
       </x:c>
       <x:c r="B31" s="0" t="n">
         <x:v>3</x:v>
@@ -1962,7 +2049,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>1188</x:v>
+        <x:v>1529</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>34</x:v>
@@ -1970,7 +2057,7 @@
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="n">
-        <x:v>85000</x:v>
+        <x:v>69900</x:v>
       </x:c>
       <x:c r="B32" s="0" t="n">
         <x:v>3</x:v>
@@ -1979,7 +2066,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>1056</x:v>
+        <x:v>1112</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>35</x:v>
@@ -1987,16 +2074,16 @@
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="n">
-        <x:v>85000</x:v>
+        <x:v>69990</x:v>
       </x:c>
       <x:c r="B33" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>1688</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>36</x:v>
@@ -2004,16 +2091,16 @@
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="n">
-        <x:v>85000</x:v>
+        <x:v>70000</x:v>
       </x:c>
       <x:c r="B34" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>1612</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>37</x:v>
@@ -2021,16 +2108,16 @@
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="n">
-        <x:v>89900</x:v>
+        <x:v>70000</x:v>
       </x:c>
       <x:c r="B35" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>1519</x:v>
+        <x:v>1296</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>38</x:v>
@@ -2038,16 +2125,16 @@
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="n">
-        <x:v>89900</x:v>
+        <x:v>72500</x:v>
       </x:c>
       <x:c r="B36" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>1208</x:v>
+        <x:v>1320</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>39</x:v>
@@ -2055,16 +2142,16 @@
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="n">
-        <x:v>99900</x:v>
+        <x:v>75500</x:v>
       </x:c>
       <x:c r="B37" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>2280</x:v>
+        <x:v>1692</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>40</x:v>
@@ -2072,16 +2159,16 @@
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="n">
-        <x:v>99900</x:v>
+        <x:v>79000</x:v>
       </x:c>
       <x:c r="B38" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>1088</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>41</x:v>
@@ -2089,16 +2176,16 @@
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="n">
-        <x:v>100000</x:v>
+        <x:v>82500</x:v>
       </x:c>
       <x:c r="B39" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>1076</x:v>
+        <x:v>1301</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>42</x:v>
@@ -2106,16 +2193,16 @@
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="n">
-        <x:v>100000</x:v>
+        <x:v>84000</x:v>
       </x:c>
       <x:c r="B40" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>1347</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>43</x:v>
@@ -2123,16 +2210,16 @@
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="n">
-        <x:v>101999</x:v>
+        <x:v>84000</x:v>
       </x:c>
       <x:c r="B41" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>1444</x:v>
+        <x:v>1768</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>44</x:v>
@@ -2140,16 +2227,16 @@
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="0" t="n">
-        <x:v>106000</x:v>
+        <x:v>84500</x:v>
       </x:c>
       <x:c r="B42" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>1746</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>45</x:v>
@@ -2157,16 +2244,16 @@
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="0" t="n">
-        <x:v>109000</x:v>
+        <x:v>85000</x:v>
       </x:c>
       <x:c r="B43" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>1380</x:v>
+        <x:v>1426</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>46</x:v>
@@ -2174,16 +2261,16 @@
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="0" t="n">
-        <x:v>118000</x:v>
+        <x:v>85000</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>1996</x:v>
+        <x:v>1782</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>47</x:v>
@@ -2191,16 +2278,16 @@
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" s="0" t="n">
-        <x:v>119900</x:v>
+        <x:v>85000</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>1678</x:v>
+        <x:v>1296</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>48</x:v>
@@ -2208,16 +2295,16 @@
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="0" t="n">
-        <x:v>120000</x:v>
+        <x:v>86500</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>1228</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>49</x:v>
@@ -2225,16 +2312,16 @@
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="0" t="n">
-        <x:v>120000</x:v>
+        <x:v>88000</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>1558</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>50</x:v>
@@ -2242,16 +2329,16 @@
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" s="0" t="n">
-        <x:v>125000</x:v>
+        <x:v>89500</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>1030</x:v>
+        <x:v>1566</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>51</x:v>
@@ -2259,16 +2346,16 @@
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" s="0" t="n">
-        <x:v>125900</x:v>
+        <x:v>92500</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>1520</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>52</x:v>
@@ -2276,16 +2363,16 @@
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="A50" s="0" t="n">
-        <x:v>129500</x:v>
+        <x:v>92900</x:v>
       </x:c>
       <x:c r="B50" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
-        <x:v>1364</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>53</x:v>
@@ -2293,16 +2380,16 @@
     </x:row>
     <x:row r="51" spans="1:5">
       <x:c r="A51" s="0" t="n">
-        <x:v>129900</x:v>
+        <x:v>94500</x:v>
       </x:c>
       <x:c r="B51" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
-        <x:v>1736</x:v>
+        <x:v>1244</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>54</x:v>
@@ -2310,16 +2397,16 @@
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" s="0" t="n">
-        <x:v>129900</x:v>
+        <x:v>94900</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
-        <x:v>1256</x:v>
+        <x:v>1296</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>55</x:v>
@@ -2327,16 +2414,16 @@
     </x:row>
     <x:row r="53" spans="1:5">
       <x:c r="A53" s="0" t="n">
-        <x:v>132000</x:v>
+        <x:v>95000</x:v>
       </x:c>
       <x:c r="B53" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
-        <x:v>1050</x:v>
+        <x:v>1336</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>56</x:v>
@@ -2344,16 +2431,16 @@
     </x:row>
     <x:row r="54" spans="1:5">
       <x:c r="A54" s="0" t="n">
-        <x:v>132000</x:v>
+        <x:v>95000</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
-        <x:v>1696</x:v>
+        <x:v>2200</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>57</x:v>
@@ -2361,16 +2448,16 @@
     </x:row>
     <x:row r="55" spans="1:5">
       <x:c r="A55" s="0" t="n">
-        <x:v>135000</x:v>
+        <x:v>95000</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
-        <x:v>1900</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>58</x:v>
@@ -2378,16 +2465,16 @@
     </x:row>
     <x:row r="56" spans="1:5">
       <x:c r="A56" s="0" t="n">
-        <x:v>137000</x:v>
+        <x:v>96000</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
-        <x:v>1303</x:v>
+        <x:v>1217</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>59</x:v>
@@ -2395,16 +2482,16 @@
     </x:row>
     <x:row r="57" spans="1:5">
       <x:c r="A57" s="0" t="n">
-        <x:v>138800</x:v>
+        <x:v>98000</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
-        <x:v>1251</x:v>
+        <x:v>2170</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>60</x:v>
@@ -2412,16 +2499,16 @@
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="0" t="n">
-        <x:v>139900</x:v>
+        <x:v>98500</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
-        <x:v>1144</x:v>
+        <x:v>1872</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
         <x:v>61</x:v>
@@ -2429,16 +2516,16 @@
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="0" t="n">
-        <x:v>139900</x:v>
+        <x:v>99000</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
-        <x:v>1130</x:v>
+        <x:v>1292</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>62</x:v>
@@ -2446,16 +2533,16 @@
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="0" t="n">
-        <x:v>139900</x:v>
+        <x:v>99000</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
-        <x:v>1710</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>63</x:v>
@@ -2463,16 +2550,16 @@
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="0" t="n">
-        <x:v>139900</x:v>
+        <x:v>99500</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
-        <x:v>1248</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>64</x:v>
@@ -2480,16 +2567,16 @@
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="0" t="n">
-        <x:v>140000</x:v>
+        <x:v>99500</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
-        <x:v>2341</x:v>
+        <x:v>1408</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>65</x:v>
@@ -2497,7 +2584,7 @@
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="0" t="n">
-        <x:v>142500</x:v>
+        <x:v>99800</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
         <x:v>2</x:v>
@@ -2506,7 +2593,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
-        <x:v>1432</x:v>
+        <x:v>1118</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>66</x:v>
@@ -2514,7 +2601,7 @@
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="0" t="n">
-        <x:v>144900</x:v>
+        <x:v>105000</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
         <x:v>3</x:v>
@@ -2523,7 +2610,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
-        <x:v>1152</x:v>
+        <x:v>1728</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>67</x:v>
@@ -2531,16 +2618,16 @@
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="0" t="n">
-        <x:v>149900</x:v>
+        <x:v>105000</x:v>
       </x:c>
       <x:c r="B65" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
-        <x:v>1424</x:v>
+        <x:v>1583</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>68</x:v>
@@ -2548,16 +2635,16 @@
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="0" t="n">
-        <x:v>149900</x:v>
+        <x:v>105000</x:v>
       </x:c>
       <x:c r="B66" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
-        <x:v>1479</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>69</x:v>
@@ -2565,16 +2652,16 @@
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="0" t="n">
-        <x:v>149900</x:v>
+        <x:v>105000</x:v>
       </x:c>
       <x:c r="B67" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>1736</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>70</x:v>
@@ -2582,16 +2669,16 @@
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="0" t="n">
-        <x:v>149900</x:v>
+        <x:v>106000</x:v>
       </x:c>
       <x:c r="B68" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
-        <x:v>1334</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>71</x:v>
@@ -2599,16 +2686,16 @@
     </x:row>
     <x:row r="69" spans="1:5">
       <x:c r="A69" s="0" t="n">
-        <x:v>149900</x:v>
+        <x:v>109900</x:v>
       </x:c>
       <x:c r="B69" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>1452</x:v>
+        <x:v>1820</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>72</x:v>
@@ -2616,16 +2703,16 @@
     </x:row>
     <x:row r="70" spans="1:5">
       <x:c r="A70" s="0" t="n">
-        <x:v>150000</x:v>
+        <x:v>110000</x:v>
       </x:c>
       <x:c r="B70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
-        <x:v>1150</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>73</x:v>
@@ -2633,16 +2720,16 @@
     </x:row>
     <x:row r="71" spans="1:5">
       <x:c r="A71" s="0" t="n">
-        <x:v>150000</x:v>
+        <x:v>110000</x:v>
       </x:c>
       <x:c r="B71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
-        <x:v>1100</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>74</x:v>
@@ -2650,16 +2737,16 @@
     </x:row>
     <x:row r="72" spans="1:5">
       <x:c r="A72" s="0" t="n">
-        <x:v>152900</x:v>
+        <x:v>115000</x:v>
       </x:c>
       <x:c r="B72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>1924</x:v>
+        <x:v>1740</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>75</x:v>
@@ -2667,16 +2754,16 @@
     </x:row>
     <x:row r="73" spans="1:5">
       <x:c r="A73" s="0" t="n">
-        <x:v>154000</x:v>
+        <x:v>115000</x:v>
       </x:c>
       <x:c r="B73" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>1628</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
         <x:v>76</x:v>
@@ -2684,7 +2771,7 @@
     </x:row>
     <x:row r="74" spans="1:5">
       <x:c r="A74" s="0" t="n">
-        <x:v>154900</x:v>
+        <x:v>118500</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
         <x:v>3</x:v>
@@ -2693,7 +2780,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
-        <x:v>1699</x:v>
+        <x:v>2376</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>77</x:v>
@@ -2701,16 +2788,16 @@
     </x:row>
     <x:row r="75" spans="1:5">
       <x:c r="A75" s="0" t="n">
-        <x:v>154900</x:v>
+        <x:v>119000</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
-        <x:v>1665</x:v>
+        <x:v>2162</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
         <x:v>78</x:v>
@@ -2718,16 +2805,16 @@
     </x:row>
     <x:row r="76" spans="1:5">
       <x:c r="A76" s="0" t="n">
-        <x:v>154900</x:v>
+        <x:v>119000</x:v>
       </x:c>
       <x:c r="B76" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
-        <x:v>1507</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>79</x:v>
@@ -2735,16 +2822,16 @@
     </x:row>
     <x:row r="77" spans="1:5">
       <x:c r="A77" s="0" t="n">
-        <x:v>154990</x:v>
+        <x:v>119900</x:v>
       </x:c>
       <x:c r="B77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
-        <x:v>1999</x:v>
+        <x:v>1210</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>80</x:v>
@@ -2752,16 +2839,16 @@
     </x:row>
     <x:row r="78" spans="1:5">
       <x:c r="A78" s="0" t="n">
-        <x:v>155000</x:v>
+        <x:v>119900</x:v>
       </x:c>
       <x:c r="B78" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C78" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
-        <x:v>2004</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>81</x:v>
@@ -2769,16 +2856,16 @@
     </x:row>
     <x:row r="79" spans="1:5">
       <x:c r="A79" s="0" t="n">
-        <x:v>158000</x:v>
+        <x:v>119900</x:v>
       </x:c>
       <x:c r="B79" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C79" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
-        <x:v>1568</x:v>
+        <x:v>1656</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>82</x:v>
@@ -2786,16 +2873,16 @@
     </x:row>
     <x:row r="80" spans="1:5">
       <x:c r="A80" s="0" t="n">
-        <x:v>159900</x:v>
+        <x:v>120000</x:v>
       </x:c>
       <x:c r="B80" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C80" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
-        <x:v>1554</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>83</x:v>
@@ -2803,16 +2890,16 @@
     </x:row>
     <x:row r="81" spans="1:5">
       <x:c r="A81" s="0" t="n">
-        <x:v>159900</x:v>
+        <x:v>120000</x:v>
       </x:c>
       <x:c r="B81" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C81" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
-        <x:v>2383</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>84</x:v>
@@ -2820,16 +2907,16 @@
     </x:row>
     <x:row r="82" spans="1:5">
       <x:c r="A82" s="0" t="n">
-        <x:v>159900</x:v>
+        <x:v>120000</x:v>
       </x:c>
       <x:c r="B82" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C82" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
-        <x:v>1040</x:v>
+        <x:v>1518</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>85</x:v>
@@ -2837,16 +2924,16 @@
     </x:row>
     <x:row r="83" spans="1:5">
       <x:c r="A83" s="0" t="n">
-        <x:v>159900</x:v>
+        <x:v>124900</x:v>
       </x:c>
       <x:c r="B83" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C83" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>1706</x:v>
+        <x:v>1744</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>86</x:v>
@@ -2854,16 +2941,16 @@
     </x:row>
     <x:row r="84" spans="1:5">
       <x:c r="A84" s="0" t="n">
-        <x:v>159900</x:v>
+        <x:v>124900</x:v>
       </x:c>
       <x:c r="B84" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C84" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
-        <x:v>2090</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>87</x:v>
@@ -2871,16 +2958,16 @@
     </x:row>
     <x:row r="85" spans="1:5">
       <x:c r="A85" s="0" t="n">
-        <x:v>159900</x:v>
+        <x:v>125000</x:v>
       </x:c>
       <x:c r="B85" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C85" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
-        <x:v>2279</x:v>
+        <x:v>1272</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
         <x:v>88</x:v>
@@ -2888,16 +2975,16 @@
     </x:row>
     <x:row r="86" spans="1:5">
       <x:c r="A86" s="0" t="n">
-        <x:v>162500</x:v>
+        <x:v>125900</x:v>
       </x:c>
       <x:c r="B86" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C86" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>2030</x:v>
+        <x:v>1472</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>89</x:v>
@@ -2905,16 +2992,16 @@
     </x:row>
     <x:row r="87" spans="1:5">
       <x:c r="A87" s="0" t="n">
-        <x:v>162900</x:v>
+        <x:v>129900</x:v>
       </x:c>
       <x:c r="B87" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C87" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
-        <x:v>1434</x:v>
+        <x:v>1137</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
         <x:v>90</x:v>
@@ -2922,16 +3009,16 @@
     </x:row>
     <x:row r="88" spans="1:5">
       <x:c r="A88" s="0" t="n">
-        <x:v>164900</x:v>
+        <x:v>129950</x:v>
       </x:c>
       <x:c r="B88" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C88" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>91</x:v>
@@ -2939,16 +3026,16 @@
     </x:row>
     <x:row r="89" spans="1:5">
       <x:c r="A89" s="0" t="n">
-        <x:v>165000</x:v>
+        <x:v>130000</x:v>
       </x:c>
       <x:c r="B89" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C89" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
-        <x:v>2300</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>92</x:v>
@@ -2956,16 +3043,16 @@
     </x:row>
     <x:row r="90" spans="1:5">
       <x:c r="A90" s="0" t="n">
-        <x:v>165000</x:v>
+        <x:v>130000</x:v>
       </x:c>
       <x:c r="B90" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C90" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D90" s="0" t="n">
-        <x:v>1739</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>93</x:v>
@@ -2973,16 +3060,16 @@
     </x:row>
     <x:row r="91" spans="1:5">
       <x:c r="A91" s="0" t="n">
-        <x:v>169900</x:v>
+        <x:v>130900</x:v>
       </x:c>
       <x:c r="B91" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C91" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D91" s="0" t="n">
-        <x:v>1340</x:v>
+        <x:v>2800</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>94</x:v>
@@ -2990,16 +3077,16 @@
     </x:row>
     <x:row r="92" spans="1:5">
       <x:c r="A92" s="0" t="n">
-        <x:v>169900</x:v>
+        <x:v>132000</x:v>
       </x:c>
       <x:c r="B92" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C92" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
-        <x:v>1544</x:v>
+        <x:v>1925</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>95</x:v>
@@ -3007,16 +3094,16 @@
     </x:row>
     <x:row r="93" spans="1:5">
       <x:c r="A93" s="0" t="n">
-        <x:v>169900</x:v>
+        <x:v>133900</x:v>
       </x:c>
       <x:c r="B93" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C93" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
-        <x:v>1107</x:v>
+        <x:v>1068</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>96</x:v>
@@ -3024,7 +3111,7 @@
     </x:row>
     <x:row r="94" spans="1:5">
       <x:c r="A94" s="0" t="n">
-        <x:v>169999</x:v>
+        <x:v>134900</x:v>
       </x:c>
       <x:c r="B94" s="0" t="n">
         <x:v>3</x:v>
@@ -3033,7 +3120,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D94" s="0" t="n">
-        <x:v>1644</x:v>
+        <x:v>1284</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>97</x:v>
@@ -3041,7 +3128,7 @@
     </x:row>
     <x:row r="95" spans="1:5">
       <x:c r="A95" s="0" t="n">
-        <x:v>170000</x:v>
+        <x:v>134900</x:v>
       </x:c>
       <x:c r="B95" s="0" t="n">
         <x:v>3</x:v>
@@ -3050,7 +3137,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
-        <x:v>1056</x:v>
+        <x:v>1526</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
         <x:v>98</x:v>
@@ -3058,16 +3145,16 @@
     </x:row>
     <x:row r="96" spans="1:5">
       <x:c r="A96" s="0" t="n">
-        <x:v>175000</x:v>
+        <x:v>134900</x:v>
       </x:c>
       <x:c r="B96" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C96" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D96" s="0" t="n">
-        <x:v>1368</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>99</x:v>
@@ -3075,16 +3162,16 @@
     </x:row>
     <x:row r="97" spans="1:5">
       <x:c r="A97" s="0" t="n">
-        <x:v>175000</x:v>
+        <x:v>135000</x:v>
       </x:c>
       <x:c r="B97" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C97" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
-        <x:v>1216</x:v>
+        <x:v>1106</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>100</x:v>
@@ -3092,16 +3179,16 @@
     </x:row>
     <x:row r="98" spans="1:5">
       <x:c r="A98" s="0" t="n">
-        <x:v>178000</x:v>
+        <x:v>135000</x:v>
       </x:c>
       <x:c r="B98" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C98" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D98" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>1768</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>101</x:v>
@@ -3109,16 +3196,16 @@
     </x:row>
     <x:row r="99" spans="1:5">
       <x:c r="A99" s="0" t="n">
-        <x:v>179500</x:v>
+        <x:v>135000</x:v>
       </x:c>
       <x:c r="B99" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C99" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D99" s="0" t="n">
-        <x:v>1448</x:v>
+        <x:v>1288</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>102</x:v>
@@ -3126,16 +3213,16 @@
     </x:row>
     <x:row r="100" spans="1:5">
       <x:c r="A100" s="0" t="n">
-        <x:v>179999</x:v>
+        <x:v>135000</x:v>
       </x:c>
       <x:c r="B100" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C100" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
-        <x:v>1144</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>103</x:v>
@@ -3143,16 +3230,16 @@
     </x:row>
     <x:row r="101" spans="1:5">
       <x:c r="A101" s="0" t="n">
-        <x:v>184900</x:v>
+        <x:v>135000</x:v>
       </x:c>
       <x:c r="B101" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C101" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
-        <x:v>4780</x:v>
+        <x:v>1626</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
         <x:v>104</x:v>
@@ -3160,16 +3247,16 @@
     </x:row>
     <x:row r="102" spans="1:5">
       <x:c r="A102" s="0" t="n">
-        <x:v>185000</x:v>
+        <x:v>136000</x:v>
       </x:c>
       <x:c r="B102" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C102" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
-        <x:v>1022</x:v>
+        <x:v>1622</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
         <x:v>105</x:v>
@@ -3177,16 +3264,16 @@
     </x:row>
     <x:row r="103" spans="1:5">
       <x:c r="A103" s="0" t="n">
-        <x:v>185000</x:v>
+        <x:v>137000</x:v>
       </x:c>
       <x:c r="B103" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C103" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D103" s="0" t="n">
-        <x:v>3518</x:v>
+        <x:v>1700</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
         <x:v>106</x:v>
@@ -3194,16 +3281,16 @@
     </x:row>
     <x:row r="104" spans="1:5">
       <x:c r="A104" s="0" t="n">
-        <x:v>185000</x:v>
+        <x:v>137000</x:v>
       </x:c>
       <x:c r="B104" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C104" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D104" s="0" t="n">
-        <x:v>1212</x:v>
+        <x:v>1431</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
         <x:v>107</x:v>
@@ -3211,16 +3298,16 @@
     </x:row>
     <x:row r="105" spans="1:5">
       <x:c r="A105" s="0" t="n">
-        <x:v>189900</x:v>
+        <x:v>137500</x:v>
       </x:c>
       <x:c r="B105" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C105" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D105" s="0" t="n">
-        <x:v>1590</x:v>
+        <x:v>1360</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
         <x:v>108</x:v>
@@ -3228,16 +3315,16 @@
     </x:row>
     <x:row r="106" spans="1:5">
       <x:c r="A106" s="0" t="n">
-        <x:v>189900</x:v>
+        <x:v>137900</x:v>
       </x:c>
       <x:c r="B106" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C106" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D106" s="0" t="n">
-        <x:v>1584</x:v>
+        <x:v>1902</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
         <x:v>109</x:v>
@@ -3245,16 +3332,16 @@
     </x:row>
     <x:row r="107" spans="1:5">
       <x:c r="A107" s="0" t="n">
-        <x:v>189900</x:v>
+        <x:v>138000</x:v>
       </x:c>
       <x:c r="B107" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C107" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D107" s="0" t="n">
-        <x:v>1064</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>110</x:v>
@@ -3262,16 +3349,16 @@
     </x:row>
     <x:row r="108" spans="1:5">
       <x:c r="A108" s="0" t="n">
-        <x:v>195000</x:v>
+        <x:v>139000</x:v>
       </x:c>
       <x:c r="B108" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C108" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D108" s="0" t="n">
-        <x:v>1300</x:v>
+        <x:v>1322</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
         <x:v>111</x:v>
@@ -3279,16 +3366,16 @@
     </x:row>
     <x:row r="109" spans="1:5">
       <x:c r="A109" s="0" t="n">
-        <x:v>195000</x:v>
+        <x:v>139500</x:v>
       </x:c>
       <x:c r="B109" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C109" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D109" s="0" t="n">
-        <x:v>1432</x:v>
+        <x:v>1921</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
         <x:v>112</x:v>
@@ -3296,16 +3383,16 @@
     </x:row>
     <x:row r="110" spans="1:5">
       <x:c r="A110" s="0" t="n">
-        <x:v>195900</x:v>
+        <x:v>139500</x:v>
       </x:c>
       <x:c r="B110" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C110" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D110" s="0" t="n">
-        <x:v>1344</x:v>
+        <x:v>1684</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
         <x:v>113</x:v>
@@ -3313,16 +3400,16 @@
     </x:row>
     <x:row r="111" spans="1:5">
       <x:c r="A111" s="0" t="n">
-        <x:v>197500</x:v>
+        <x:v>139900</x:v>
       </x:c>
       <x:c r="B111" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C111" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D111" s="0" t="n">
-        <x:v>1017</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>114</x:v>
@@ -3330,7 +3417,7 @@
     </x:row>
     <x:row r="112" spans="1:5">
       <x:c r="A112" s="0" t="n">
-        <x:v>199000</x:v>
+        <x:v>139900</x:v>
       </x:c>
       <x:c r="B112" s="0" t="n">
         <x:v>3</x:v>
@@ -3339,7 +3426,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D112" s="0" t="n">
-        <x:v>1508</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
         <x:v>115</x:v>
@@ -3347,16 +3434,16 @@
     </x:row>
     <x:row r="113" spans="1:5">
       <x:c r="A113" s="0" t="n">
-        <x:v>199900</x:v>
+        <x:v>139900</x:v>
       </x:c>
       <x:c r="B113" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C113" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D113" s="0" t="n">
-        <x:v>1746</x:v>
+        <x:v>1596</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
         <x:v>116</x:v>
@@ -3364,16 +3451,16 @@
     </x:row>
     <x:row r="114" spans="1:5">
       <x:c r="A114" s="0" t="n">
-        <x:v>200000</x:v>
+        <x:v>140000</x:v>
       </x:c>
       <x:c r="B114" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C114" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
-        <x:v>1786</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
         <x:v>117</x:v>
@@ -3381,16 +3468,16 @@
     </x:row>
     <x:row r="115" spans="1:5">
       <x:c r="A115" s="0" t="n">
-        <x:v>203000</x:v>
+        <x:v>140000</x:v>
       </x:c>
       <x:c r="B115" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C115" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D115" s="0" t="n">
-        <x:v>1428</x:v>
+        <x:v>1792</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
         <x:v>118</x:v>
@@ -3398,7 +3485,7 @@
     </x:row>
     <x:row r="116" spans="1:5">
       <x:c r="A116" s="0" t="n">
-        <x:v>205000</x:v>
+        <x:v>140000</x:v>
       </x:c>
       <x:c r="B116" s="0" t="n">
         <x:v>2</x:v>
@@ -3407,7 +3494,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
-        <x:v>1216</x:v>
+        <x:v>1307</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
         <x:v>119</x:v>
@@ -3415,16 +3502,16 @@
     </x:row>
     <x:row r="117" spans="1:5">
       <x:c r="A117" s="0" t="n">
-        <x:v>207500</x:v>
+        <x:v>144900</x:v>
       </x:c>
       <x:c r="B117" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C117" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
-        <x:v>1450</x:v>
+        <x:v>1204</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
         <x:v>120</x:v>
@@ -3432,7 +3519,7 @@
     </x:row>
     <x:row r="118" spans="1:5">
       <x:c r="A118" s="0" t="n">
-        <x:v>209900</x:v>
+        <x:v>145000</x:v>
       </x:c>
       <x:c r="B118" s="0" t="n">
         <x:v>3</x:v>
@@ -3441,7 +3528,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
-        <x:v>1568</x:v>
+        <x:v>1316</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
         <x:v>121</x:v>
@@ -3449,16 +3536,16 @@
     </x:row>
     <x:row r="119" spans="1:5">
       <x:c r="A119" s="0" t="n">
-        <x:v>209900</x:v>
+        <x:v>145000</x:v>
       </x:c>
       <x:c r="B119" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C119" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
-        <x:v>1250</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
         <x:v>122</x:v>
@@ -3466,16 +3553,16 @@
     </x:row>
     <x:row r="120" spans="1:5">
       <x:c r="A120" s="0" t="n">
-        <x:v>209900</x:v>
+        <x:v>145000</x:v>
       </x:c>
       <x:c r="B120" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C120" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D120" s="0" t="n">
-        <x:v>1758</x:v>
+        <x:v>1432</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
         <x:v>123</x:v>
@@ -3483,16 +3570,16 @@
     </x:row>
     <x:row r="121" spans="1:5">
       <x:c r="A121" s="0" t="n">
-        <x:v>210000</x:v>
+        <x:v>145000</x:v>
       </x:c>
       <x:c r="B121" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D121" s="0" t="n">
-        <x:v>1330</x:v>
+        <x:v>1718</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
         <x:v>124</x:v>
@@ -3500,7 +3587,7 @@
     </x:row>
     <x:row r="122" spans="1:5">
       <x:c r="A122" s="0" t="n">
-        <x:v>215000</x:v>
+        <x:v>145000</x:v>
       </x:c>
       <x:c r="B122" s="0" t="n">
         <x:v>3</x:v>
@@ -3509,7 +3596,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
-        <x:v>1075</x:v>
+        <x:v>1766</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
         <x:v>125</x:v>
@@ -3517,16 +3604,16 @@
     </x:row>
     <x:row r="123" spans="1:5">
       <x:c r="A123" s="0" t="n">
-        <x:v>219000</x:v>
+        <x:v>145000</x:v>
       </x:c>
       <x:c r="B123" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C123" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D123" s="0" t="n">
-        <x:v>1820</x:v>
+        <x:v>1508</x:v>
       </x:c>
       <x:c r="E123" s="0" t="s">
         <x:v>126</x:v>
@@ -3534,16 +3621,16 @@
     </x:row>
     <x:row r="124" spans="1:5">
       <x:c r="A124" s="0" t="n">
-        <x:v>219900</x:v>
+        <x:v>149000</x:v>
       </x:c>
       <x:c r="B124" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C124" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
-        <x:v>1180</x:v>
+        <x:v>1792</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
         <x:v>127</x:v>
@@ -3551,16 +3638,16 @@
     </x:row>
     <x:row r="125" spans="1:5">
       <x:c r="A125" s="0" t="n">
-        <x:v>220000</x:v>
+        <x:v>149500</x:v>
       </x:c>
       <x:c r="B125" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D125" s="0" t="n">
-        <x:v>1035</x:v>
+        <x:v>1960</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
         <x:v>128</x:v>
@@ -3568,16 +3655,16 @@
     </x:row>
     <x:row r="126" spans="1:5">
       <x:c r="A126" s="0" t="n">
-        <x:v>224900</x:v>
+        <x:v>150000</x:v>
       </x:c>
       <x:c r="B126" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C126" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D126" s="0" t="n">
-        <x:v>1521</x:v>
+        <x:v>1584</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
         <x:v>129</x:v>
@@ -3585,7 +3672,7 @@
     </x:row>
     <x:row r="127" spans="1:5">
       <x:c r="A127" s="0" t="n">
-        <x:v>225000</x:v>
+        <x:v>150000</x:v>
       </x:c>
       <x:c r="B127" s="0" t="n">
         <x:v>2</x:v>
@@ -3594,7 +3681,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D127" s="0" t="n">
-        <x:v>1100</x:v>
+        <x:v>1240</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
         <x:v>130</x:v>
@@ -3602,7 +3689,7 @@
     </x:row>
     <x:row r="128" spans="1:5">
       <x:c r="A128" s="0" t="n">
-        <x:v>228000</x:v>
+        <x:v>150000</x:v>
       </x:c>
       <x:c r="B128" s="0" t="n">
         <x:v>3</x:v>
@@ -3611,7 +3698,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D128" s="0" t="n">
-        <x:v>1100</x:v>
+        <x:v>1512</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
         <x:v>131</x:v>
@@ -3619,7 +3706,7 @@
     </x:row>
     <x:row r="129" spans="1:5">
       <x:c r="A129" s="0" t="n">
-        <x:v>229000</x:v>
+        <x:v>150000</x:v>
       </x:c>
       <x:c r="B129" s="0" t="n">
         <x:v>3</x:v>
@@ -3628,7 +3715,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D129" s="0" t="n">
-        <x:v>1932</x:v>
+        <x:v>1344</x:v>
       </x:c>
       <x:c r="E129" s="0" t="s">
         <x:v>132</x:v>
@@ -3636,16 +3723,16 @@
     </x:row>
     <x:row r="130" spans="1:5">
       <x:c r="A130" s="0" t="n">
-        <x:v>229900</x:v>
+        <x:v>150000</x:v>
       </x:c>
       <x:c r="B130" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C130" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D130" s="0" t="n">
-        <x:v>1310</x:v>
+        <x:v>2270</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
         <x:v>133</x:v>
@@ -3653,16 +3740,16 @@
     </x:row>
     <x:row r="131" spans="1:5">
       <x:c r="A131" s="0" t="n">
-        <x:v>235000</x:v>
+        <x:v>152000</x:v>
       </x:c>
       <x:c r="B131" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C131" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D131" s="0" t="n">
-        <x:v>1216</x:v>
+        <x:v>3033</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
         <x:v>134</x:v>
@@ -3670,16 +3757,16 @@
     </x:row>
     <x:row r="132" spans="1:5">
       <x:c r="A132" s="0" t="n">
-        <x:v>239500</x:v>
+        <x:v>155000</x:v>
       </x:c>
       <x:c r="B132" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C132" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D132" s="0" t="n">
-        <x:v>1228</x:v>
+        <x:v>1304</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
         <x:v>135</x:v>
@@ -3687,16 +3774,16 @@
     </x:row>
     <x:row r="133" spans="1:5">
       <x:c r="A133" s="0" t="n">
-        <x:v>239700</x:v>
+        <x:v>155000</x:v>
       </x:c>
       <x:c r="B133" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C133" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D133" s="0" t="n">
-        <x:v>2056</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="E133" s="0" t="s">
         <x:v>136</x:v>
@@ -3704,16 +3791,16 @@
     </x:row>
     <x:row r="134" spans="1:5">
       <x:c r="A134" s="0" t="n">
-        <x:v>239900</x:v>
+        <x:v>155000</x:v>
       </x:c>
       <x:c r="B134" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D134" s="0" t="n">
-        <x:v>1350</x:v>
+        <x:v>5310</x:v>
       </x:c>
       <x:c r="E134" s="0" t="s">
         <x:v>137</x:v>
@@ -3721,7 +3808,7 @@
     </x:row>
     <x:row r="135" spans="1:5">
       <x:c r="A135" s="0" t="n">
-        <x:v>240000</x:v>
+        <x:v>156500</x:v>
       </x:c>
       <x:c r="B135" s="0" t="n">
         <x:v>3</x:v>
@@ -3730,7 +3817,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D135" s="0" t="n">
-        <x:v>1319</x:v>
+        <x:v>1492</x:v>
       </x:c>
       <x:c r="E135" s="0" t="s">
         <x:v>138</x:v>
@@ -3738,16 +3825,16 @@
     </x:row>
     <x:row r="136" spans="1:5">
       <x:c r="A136" s="0" t="n">
-        <x:v>244000</x:v>
+        <x:v>158000</x:v>
       </x:c>
       <x:c r="B136" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C136" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
-        <x:v>1550</x:v>
+        <x:v>1584</x:v>
       </x:c>
       <x:c r="E136" s="0" t="s">
         <x:v>139</x:v>
@@ -3755,16 +3842,16 @@
     </x:row>
     <x:row r="137" spans="1:5">
       <x:c r="A137" s="0" t="n">
-        <x:v>244900</x:v>
+        <x:v>159000</x:v>
       </x:c>
       <x:c r="B137" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C137" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
-        <x:v>2648</x:v>
+        <x:v>1667</x:v>
       </x:c>
       <x:c r="E137" s="0" t="s">
         <x:v>140</x:v>
@@ -3772,7 +3859,7 @@
     </x:row>
     <x:row r="138" spans="1:5">
       <x:c r="A138" s="0" t="n">
-        <x:v>247900</x:v>
+        <x:v>159000</x:v>
       </x:c>
       <x:c r="B138" s="0" t="n">
         <x:v>3</x:v>
@@ -3781,7 +3868,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D138" s="0" t="n">
-        <x:v>1337</x:v>
+        <x:v>1632</x:v>
       </x:c>
       <x:c r="E138" s="0" t="s">
         <x:v>141</x:v>
@@ -3789,7 +3876,7 @@
     </x:row>
     <x:row r="139" spans="1:5">
       <x:c r="A139" s="0" t="n">
-        <x:v>247900</x:v>
+        <x:v>159000</x:v>
       </x:c>
       <x:c r="B139" s="0" t="n">
         <x:v>3</x:v>
@@ -3798,7 +3885,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D139" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1616</x:v>
       </x:c>
       <x:c r="E139" s="0" t="s">
         <x:v>142</x:v>
@@ -3806,16 +3893,16 @@
     </x:row>
     <x:row r="140" spans="1:5">
       <x:c r="A140" s="0" t="n">
-        <x:v>249000</x:v>
+        <x:v>159000</x:v>
       </x:c>
       <x:c r="B140" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C140" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D140" s="0" t="n">
-        <x:v>1440</x:v>
+        <x:v>1469</x:v>
       </x:c>
       <x:c r="E140" s="0" t="s">
         <x:v>143</x:v>
@@ -3823,16 +3910,16 @@
     </x:row>
     <x:row r="141" spans="1:5">
       <x:c r="A141" s="0" t="n">
-        <x:v>249900</x:v>
+        <x:v>159500</x:v>
       </x:c>
       <x:c r="B141" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C141" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D141" s="0" t="n">
-        <x:v>1482</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="E141" s="0" t="s">
         <x:v>144</x:v>
@@ -3840,16 +3927,16 @@
     </x:row>
     <x:row r="142" spans="1:5">
       <x:c r="A142" s="0" t="n">
-        <x:v>249900</x:v>
+        <x:v>159900</x:v>
       </x:c>
       <x:c r="B142" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C142" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D142" s="0" t="n">
-        <x:v>1120</x:v>
+        <x:v>1906</x:v>
       </x:c>
       <x:c r="E142" s="0" t="s">
         <x:v>145</x:v>
@@ -3857,16 +3944,16 @@
     </x:row>
     <x:row r="143" spans="1:5">
       <x:c r="A143" s="0" t="n">
-        <x:v>249900</x:v>
+        <x:v>159900</x:v>
       </x:c>
       <x:c r="B143" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C143" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D143" s="0" t="n">
-        <x:v>1003</x:v>
+        <x:v>2080</x:v>
       </x:c>
       <x:c r="E143" s="0" t="s">
         <x:v>146</x:v>
@@ -3874,7 +3961,7 @@
     </x:row>
     <x:row r="144" spans="1:5">
       <x:c r="A144" s="0" t="n">
-        <x:v>250000</x:v>
+        <x:v>159950</x:v>
       </x:c>
       <x:c r="B144" s="0" t="n">
         <x:v>3</x:v>
@@ -3883,7 +3970,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D144" s="0" t="n">
-        <x:v>1632</x:v>
+        <x:v>1614</x:v>
       </x:c>
       <x:c r="E144" s="0" t="s">
         <x:v>147</x:v>
@@ -3891,16 +3978,16 @@
     </x:row>
     <x:row r="145" spans="1:5">
       <x:c r="A145" s="0" t="n">
-        <x:v>250000</x:v>
+        <x:v>159975</x:v>
       </x:c>
       <x:c r="B145" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C145" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D145" s="0" t="n">
-        <x:v>1040</x:v>
+        <x:v>1850</x:v>
       </x:c>
       <x:c r="E145" s="0" t="s">
         <x:v>148</x:v>
@@ -3908,16 +3995,16 @@
     </x:row>
     <x:row r="146" spans="1:5">
       <x:c r="A146" s="0" t="n">
-        <x:v>250000</x:v>
+        <x:v>160000</x:v>
       </x:c>
       <x:c r="B146" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C146" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D146" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>2704</x:v>
       </x:c>
       <x:c r="E146" s="0" t="s">
         <x:v>149</x:v>
@@ -3925,16 +4012,16 @@
     </x:row>
     <x:row r="147" spans="1:5">
       <x:c r="A147" s="0" t="n">
-        <x:v>259900</x:v>
+        <x:v>160000</x:v>
       </x:c>
       <x:c r="B147" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C147" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D147" s="0" t="n">
-        <x:v>1022</x:v>
+        <x:v>1716</x:v>
       </x:c>
       <x:c r="E147" s="0" t="s">
         <x:v>150</x:v>
@@ -3942,16 +4029,16 @@
     </x:row>
     <x:row r="148" spans="1:5">
       <x:c r="A148" s="0" t="n">
-        <x:v>264000</x:v>
+        <x:v>160000</x:v>
       </x:c>
       <x:c r="B148" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C148" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D148" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="E148" s="0" t="s">
         <x:v>151</x:v>
@@ -3959,16 +4046,16 @@
     </x:row>
     <x:row r="149" spans="1:5">
       <x:c r="A149" s="0" t="n">
-        <x:v>269000</x:v>
+        <x:v>160000</x:v>
       </x:c>
       <x:c r="B149" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C149" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D149" s="0" t="n">
-        <x:v>1509</x:v>
+        <x:v>4500</x:v>
       </x:c>
       <x:c r="E149" s="0" t="s">
         <x:v>152</x:v>
@@ -3976,16 +4063,16 @@
     </x:row>
     <x:row r="150" spans="1:5">
       <x:c r="A150" s="0" t="n">
-        <x:v>269900</x:v>
+        <x:v>160000</x:v>
       </x:c>
       <x:c r="B150" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C150" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D150" s="0" t="n">
-        <x:v>1503</x:v>
+        <x:v>1125</x:v>
       </x:c>
       <x:c r="E150" s="0" t="s">
         <x:v>153</x:v>
@@ -3993,16 +4080,16 @@
     </x:row>
     <x:row r="151" spans="1:5">
       <x:c r="A151" s="0" t="n">
-        <x:v>270000</x:v>
+        <x:v>162500</x:v>
       </x:c>
       <x:c r="B151" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C151" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
-        <x:v>1480</x:v>
+        <x:v>2260</x:v>
       </x:c>
       <x:c r="E151" s="0" t="s">
         <x:v>154</x:v>
@@ -4010,16 +4097,16 @@
     </x:row>
     <x:row r="152" spans="1:5">
       <x:c r="A152" s="0" t="n">
-        <x:v>270000</x:v>
+        <x:v>164900</x:v>
       </x:c>
       <x:c r="B152" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C152" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D152" s="0" t="n">
-        <x:v>1035</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="E152" s="0" t="s">
         <x:v>155</x:v>
@@ -4027,16 +4114,16 @@
     </x:row>
     <x:row r="153" spans="1:5">
       <x:c r="A153" s="0" t="n">
-        <x:v>271000</x:v>
+        <x:v>164900</x:v>
       </x:c>
       <x:c r="B153" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C153" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D153" s="0" t="n">
-        <x:v>2079</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="E153" s="0" t="s">
         <x:v>156</x:v>
@@ -4044,7 +4131,7 @@
     </x:row>
     <x:row r="154" spans="1:5">
       <x:c r="A154" s="0" t="n">
-        <x:v>274900</x:v>
+        <x:v>165000</x:v>
       </x:c>
       <x:c r="B154" s="0" t="n">
         <x:v>2</x:v>
@@ -4053,7 +4140,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D154" s="0" t="n">
-        <x:v>1100</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="E154" s="0" t="s">
         <x:v>157</x:v>
@@ -4061,16 +4148,16 @@
     </x:row>
     <x:row r="155" spans="1:5">
       <x:c r="A155" s="0" t="n">
-        <x:v>275000</x:v>
+        <x:v>165000</x:v>
       </x:c>
       <x:c r="B155" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D155" s="0" t="n">
-        <x:v>1279</x:v>
+        <x:v>1507</x:v>
       </x:c>
       <x:c r="E155" s="0" t="s">
         <x:v>158</x:v>
@@ -4078,7 +4165,7 @@
     </x:row>
     <x:row r="156" spans="1:5">
       <x:c r="A156" s="0" t="n">
-        <x:v>279000</x:v>
+        <x:v>167500</x:v>
       </x:c>
       <x:c r="B156" s="0" t="n">
         <x:v>2</x:v>
@@ -4087,7 +4174,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D156" s="0" t="n">
-        <x:v>1059</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="E156" s="0" t="s">
         <x:v>159</x:v>
@@ -4095,16 +4182,16 @@
     </x:row>
     <x:row r="157" spans="1:5">
       <x:c r="A157" s="0" t="n">
-        <x:v>287500</x:v>
+        <x:v>167500</x:v>
       </x:c>
       <x:c r="B157" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C157" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D157" s="0" t="n">
-        <x:v>1603</x:v>
+        <x:v>1452</x:v>
       </x:c>
       <x:c r="E157" s="0" t="s">
         <x:v>160</x:v>
@@ -4112,16 +4199,16 @@
     </x:row>
     <x:row r="158" spans="1:5">
       <x:c r="A158" s="0" t="n">
-        <x:v>289000</x:v>
+        <x:v>168000</x:v>
       </x:c>
       <x:c r="B158" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C158" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
-        <x:v>1234</x:v>
+        <x:v>2781</x:v>
       </x:c>
       <x:c r="E158" s="0" t="s">
         <x:v>161</x:v>
@@ -4129,7 +4216,7 @@
     </x:row>
     <x:row r="159" spans="1:5">
       <x:c r="A159" s="0" t="n">
-        <x:v>289000</x:v>
+        <x:v>169000</x:v>
       </x:c>
       <x:c r="B159" s="0" t="n">
         <x:v>3</x:v>
@@ -4138,7 +4225,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
-        <x:v>1422</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="E159" s="0" t="s">
         <x:v>162</x:v>
@@ -4146,7 +4233,7 @@
     </x:row>
     <x:row r="160" spans="1:5">
       <x:c r="A160" s="0" t="n">
-        <x:v>289900</x:v>
+        <x:v>169000</x:v>
       </x:c>
       <x:c r="B160" s="0" t="n">
         <x:v>3</x:v>
@@ -4155,7 +4242,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D160" s="0" t="n">
-        <x:v>1172</x:v>
+        <x:v>2080</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
         <x:v>163</x:v>
@@ -4163,16 +4250,16 @@
     </x:row>
     <x:row r="161" spans="1:5">
       <x:c r="A161" s="0" t="n">
-        <x:v>295000</x:v>
+        <x:v>169900</x:v>
       </x:c>
       <x:c r="B161" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C161" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D161" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1475</x:v>
       </x:c>
       <x:c r="E161" s="0" t="s">
         <x:v>164</x:v>
@@ -4180,16 +4267,16 @@
     </x:row>
     <x:row r="162" spans="1:5">
       <x:c r="A162" s="0" t="n">
-        <x:v>299000</x:v>
+        <x:v>169900</x:v>
       </x:c>
       <x:c r="B162" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C162" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D162" s="0" t="n">
-        <x:v>1670</x:v>
+        <x:v>1704</x:v>
       </x:c>
       <x:c r="E162" s="0" t="s">
         <x:v>165</x:v>
@@ -4197,16 +4284,16 @@
     </x:row>
     <x:row r="163" spans="1:5">
       <x:c r="A163" s="0" t="n">
-        <x:v>299000</x:v>
+        <x:v>169900</x:v>
       </x:c>
       <x:c r="B163" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C163" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D163" s="0" t="n">
-        <x:v>1300</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="E163" s="0" t="s">
         <x:v>166</x:v>
@@ -4214,16 +4301,16 @@
     </x:row>
     <x:row r="164" spans="1:5">
       <x:c r="A164" s="0" t="n">
-        <x:v>299000</x:v>
+        <x:v>170000</x:v>
       </x:c>
       <x:c r="B164" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C164" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D164" s="0" t="n">
-        <x:v>2900</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="E164" s="0" t="s">
         <x:v>167</x:v>
@@ -4231,16 +4318,16 @@
     </x:row>
     <x:row r="165" spans="1:5">
       <x:c r="A165" s="0" t="n">
-        <x:v>299000</x:v>
+        <x:v>170000</x:v>
       </x:c>
       <x:c r="B165" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C165" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
-        <x:v>1450</x:v>
+        <x:v>1421</x:v>
       </x:c>
       <x:c r="E165" s="0" t="s">
         <x:v>168</x:v>
@@ -4248,16 +4335,16 @@
     </x:row>
     <x:row r="166" spans="1:5">
       <x:c r="A166" s="0" t="n">
-        <x:v>299000</x:v>
+        <x:v>173500</x:v>
       </x:c>
       <x:c r="B166" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C166" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
-        <x:v>1332</x:v>
+        <x:v>1446</x:v>
       </x:c>
       <x:c r="E166" s="0" t="s">
         <x:v>169</x:v>
@@ -4265,7 +4352,7 @@
     </x:row>
     <x:row r="167" spans="1:5">
       <x:c r="A167" s="0" t="n">
-        <x:v>299000</x:v>
+        <x:v>175000</x:v>
       </x:c>
       <x:c r="B167" s="0" t="n">
         <x:v>3</x:v>
@@ -4274,7 +4361,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D167" s="0" t="n">
-        <x:v>1484</x:v>
+        <x:v>1410</x:v>
       </x:c>
       <x:c r="E167" s="0" t="s">
         <x:v>170</x:v>
@@ -4282,16 +4369,16 @@
     </x:row>
     <x:row r="168" spans="1:5">
       <x:c r="A168" s="0" t="n">
-        <x:v>300000</x:v>
+        <x:v>175000</x:v>
       </x:c>
       <x:c r="B168" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C168" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>3116</x:v>
+        <x:v>1804</x:v>
       </x:c>
       <x:c r="E168" s="0" t="s">
         <x:v>171</x:v>
@@ -4299,16 +4386,16 @@
     </x:row>
     <x:row r="169" spans="1:5">
       <x:c r="A169" s="0" t="n">
-        <x:v>300000</x:v>
+        <x:v>175000</x:v>
       </x:c>
       <x:c r="B169" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C169" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>2560</x:v>
+        <x:v>1521</x:v>
       </x:c>
       <x:c r="E169" s="0" t="s">
         <x:v>172</x:v>
@@ -4316,16 +4403,16 @@
     </x:row>
     <x:row r="170" spans="1:5">
       <x:c r="A170" s="0" t="n">
-        <x:v>315000</x:v>
+        <x:v>178000</x:v>
       </x:c>
       <x:c r="B170" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C170" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D170" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="E170" s="0" t="s">
         <x:v>173</x:v>
@@ -4333,7 +4420,7 @@
     </x:row>
     <x:row r="171" spans="1:5">
       <x:c r="A171" s="0" t="n">
-        <x:v>315000</x:v>
+        <x:v>179000</x:v>
       </x:c>
       <x:c r="B171" s="0" t="n">
         <x:v>3</x:v>
@@ -4342,7 +4429,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>2097</x:v>
+        <x:v>1242</x:v>
       </x:c>
       <x:c r="E171" s="0" t="s">
         <x:v>174</x:v>
@@ -4350,16 +4437,16 @@
     </x:row>
     <x:row r="172" spans="1:5">
       <x:c r="A172" s="0" t="n">
-        <x:v>319000</x:v>
+        <x:v>179900</x:v>
       </x:c>
       <x:c r="B172" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C172" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="E172" s="0" t="s">
         <x:v>175</x:v>
@@ -4367,16 +4454,16 @@
     </x:row>
     <x:row r="173" spans="1:5">
       <x:c r="A173" s="0" t="n">
-        <x:v>320000</x:v>
+        <x:v>179900</x:v>
       </x:c>
       <x:c r="B173" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C173" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D173" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1958</x:v>
       </x:c>
       <x:c r="E173" s="0" t="s">
         <x:v>176</x:v>
@@ -4384,16 +4471,16 @@
     </x:row>
     <x:row r="174" spans="1:5">
       <x:c r="A174" s="0" t="n">
-        <x:v>325000</x:v>
+        <x:v>179900</x:v>
       </x:c>
       <x:c r="B174" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C174" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D174" s="0" t="n">
-        <x:v>1350</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="E174" s="0" t="s">
         <x:v>177</x:v>
@@ -4401,16 +4488,16 @@
     </x:row>
     <x:row r="175" spans="1:5">
       <x:c r="A175" s="0" t="n">
-        <x:v>325000</x:v>
+        <x:v>179900</x:v>
       </x:c>
       <x:c r="B175" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C175" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D175" s="0" t="n">
-        <x:v>1935</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E175" s="0" t="s">
         <x:v>178</x:v>
@@ -4418,7 +4505,7 @@
     </x:row>
     <x:row r="176" spans="1:5">
       <x:c r="A176" s="0" t="n">
-        <x:v>325000</x:v>
+        <x:v>179900</x:v>
       </x:c>
       <x:c r="B176" s="0" t="n">
         <x:v>3</x:v>
@@ -4427,7 +4514,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="E176" s="0" t="s">
         <x:v>179</x:v>
@@ -4435,16 +4522,16 @@
     </x:row>
     <x:row r="177" spans="1:5">
       <x:c r="A177" s="0" t="n">
-        <x:v>325000</x:v>
+        <x:v>179900</x:v>
       </x:c>
       <x:c r="B177" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C177" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
-        <x:v>2256</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="E177" s="0" t="s">
         <x:v>180</x:v>
@@ -4452,7 +4539,7 @@
     </x:row>
     <x:row r="178" spans="1:5">
       <x:c r="A178" s="0" t="n">
-        <x:v>326000</x:v>
+        <x:v>179900</x:v>
       </x:c>
       <x:c r="B178" s="0" t="n">
         <x:v>3</x:v>
@@ -4461,7 +4548,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D178" s="0" t="n">
-        <x:v>1591</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="E178" s="0" t="s">
         <x:v>181</x:v>
@@ -4469,16 +4556,16 @@
     </x:row>
     <x:row r="179" spans="1:5">
       <x:c r="A179" s="0" t="n">
-        <x:v>327500</x:v>
+        <x:v>179900</x:v>
       </x:c>
       <x:c r="B179" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C179" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D179" s="0" t="n">
-        <x:v>1527</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
         <x:v>182</x:v>
@@ -4486,7 +4573,7 @@
     </x:row>
     <x:row r="180" spans="1:5">
       <x:c r="A180" s="0" t="n">
-        <x:v>329000</x:v>
+        <x:v>180000</x:v>
       </x:c>
       <x:c r="B180" s="0" t="n">
         <x:v>3</x:v>
@@ -4495,7 +4582,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
-        <x:v>1622</x:v>
+        <x:v>1688</x:v>
       </x:c>
       <x:c r="E180" s="0" t="s">
         <x:v>183</x:v>
@@ -4503,16 +4590,16 @@
     </x:row>
     <x:row r="181" spans="1:5">
       <x:c r="A181" s="0" t="n">
-        <x:v>330000</x:v>
+        <x:v>183600</x:v>
       </x:c>
       <x:c r="B181" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C181" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
-        <x:v>2432</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="E181" s="0" t="s">
         <x:v>184</x:v>
@@ -4520,16 +4607,16 @@
     </x:row>
     <x:row r="182" spans="1:5">
       <x:c r="A182" s="0" t="n">
-        <x:v>340000</x:v>
+        <x:v>184500</x:v>
       </x:c>
       <x:c r="B182" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C182" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D182" s="0" t="n">
-        <x:v>1700</x:v>
+        <x:v>1308</x:v>
       </x:c>
       <x:c r="E182" s="0" t="s">
         <x:v>185</x:v>
@@ -4537,7 +4624,7 @@
     </x:row>
     <x:row r="183" spans="1:5">
       <x:c r="A183" s="0" t="n">
-        <x:v>340000</x:v>
+        <x:v>185000</x:v>
       </x:c>
       <x:c r="B183" s="0" t="n">
         <x:v>3</x:v>
@@ -4546,7 +4633,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D183" s="0" t="n">
-        <x:v>1499</x:v>
+        <x:v>1918</x:v>
       </x:c>
       <x:c r="E183" s="0" t="s">
         <x:v>186</x:v>
@@ -4554,16 +4641,16 @@
     </x:row>
     <x:row r="184" spans="1:5">
       <x:c r="A184" s="0" t="n">
-        <x:v>349000</x:v>
+        <x:v>185000</x:v>
       </x:c>
       <x:c r="B184" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C184" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D184" s="0" t="n">
-        <x:v>1019</x:v>
+        <x:v>1688</x:v>
       </x:c>
       <x:c r="E184" s="0" t="s">
         <x:v>187</x:v>
@@ -4571,16 +4658,16 @@
     </x:row>
     <x:row r="185" spans="1:5">
       <x:c r="A185" s="0" t="n">
-        <x:v>349000</x:v>
+        <x:v>185000</x:v>
       </x:c>
       <x:c r="B185" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C185" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
-        <x:v>1347</x:v>
+        <x:v>2462</x:v>
       </x:c>
       <x:c r="E185" s="0" t="s">
         <x:v>188</x:v>
@@ -4588,16 +4675,16 @@
     </x:row>
     <x:row r="186" spans="1:5">
       <x:c r="A186" s="0" t="n">
-        <x:v>350000</x:v>
+        <x:v>185000</x:v>
       </x:c>
       <x:c r="B186" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C186" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
-        <x:v>1917</x:v>
+        <x:v>1821</x:v>
       </x:c>
       <x:c r="E186" s="0" t="s">
         <x:v>189</x:v>
@@ -4605,16 +4692,16 @@
     </x:row>
     <x:row r="187" spans="1:5">
       <x:c r="A187" s="0" t="n">
-        <x:v>350000</x:v>
+        <x:v>185000</x:v>
       </x:c>
       <x:c r="B187" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
-        <x:v>1100</x:v>
+        <x:v>1687</x:v>
       </x:c>
       <x:c r="E187" s="0" t="s">
         <x:v>190</x:v>
@@ -4622,16 +4709,16 @@
     </x:row>
     <x:row r="188" spans="1:5">
       <x:c r="A188" s="0" t="n">
-        <x:v>350000</x:v>
+        <x:v>185500</x:v>
       </x:c>
       <x:c r="B188" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C188" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>2632</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E188" s="0" t="s">
         <x:v>191</x:v>
@@ -4639,16 +4726,16 @@
     </x:row>
     <x:row r="189" spans="1:5">
       <x:c r="A189" s="0" t="n">
-        <x:v>350000</x:v>
+        <x:v>187000</x:v>
       </x:c>
       <x:c r="B189" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C189" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>3084</x:v>
       </x:c>
       <x:c r="E189" s="0" t="s">
         <x:v>192</x:v>
@@ -4656,7 +4743,7 @@
     </x:row>
     <x:row r="190" spans="1:5">
       <x:c r="A190" s="0" t="n">
-        <x:v>355000</x:v>
+        <x:v>189000</x:v>
       </x:c>
       <x:c r="B190" s="0" t="n">
         <x:v>2</x:v>
@@ -4665,7 +4752,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D190" s="0" t="n">
-        <x:v>1768</x:v>
+        <x:v>1852</x:v>
       </x:c>
       <x:c r="E190" s="0" t="s">
         <x:v>193</x:v>
@@ -4673,16 +4760,16 @@
     </x:row>
     <x:row r="191" spans="1:5">
       <x:c r="A191" s="0" t="n">
-        <x:v>355000</x:v>
+        <x:v>189900</x:v>
       </x:c>
       <x:c r="B191" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C191" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="E191" s="0" t="s">
         <x:v>194</x:v>
@@ -4690,16 +4777,16 @@
     </x:row>
     <x:row r="192" spans="1:5">
       <x:c r="A192" s="0" t="n">
-        <x:v>359000</x:v>
+        <x:v>189900</x:v>
       </x:c>
       <x:c r="B192" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C192" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D192" s="0" t="n">
-        <x:v>1600</x:v>
+        <x:v>1244</x:v>
       </x:c>
       <x:c r="E192" s="0" t="s">
         <x:v>195</x:v>
@@ -4707,16 +4794,16 @@
     </x:row>
     <x:row r="193" spans="1:5">
       <x:c r="A193" s="0" t="n">
-        <x:v>368000</x:v>
+        <x:v>189900</x:v>
       </x:c>
       <x:c r="B193" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C193" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D193" s="0" t="n">
-        <x:v>2100</x:v>
+        <x:v>2025</x:v>
       </x:c>
       <x:c r="E193" s="0" t="s">
         <x:v>196</x:v>
@@ -4724,16 +4811,16 @@
     </x:row>
     <x:row r="194" spans="1:5">
       <x:c r="A194" s="0" t="n">
-        <x:v>369000</x:v>
+        <x:v>190000</x:v>
       </x:c>
       <x:c r="B194" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C194" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D194" s="0" t="n">
-        <x:v>1670</x:v>
+        <x:v>1512</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
         <x:v>197</x:v>
@@ -4741,16 +4828,16 @@
     </x:row>
     <x:row r="195" spans="1:5">
       <x:c r="A195" s="0" t="n">
-        <x:v>369900</x:v>
+        <x:v>190000</x:v>
       </x:c>
       <x:c r="B195" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C195" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>1976</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="E195" s="0" t="s">
         <x:v>198</x:v>
@@ -4758,16 +4845,16 @@
     </x:row>
     <x:row r="196" spans="1:5">
       <x:c r="A196" s="0" t="n">
-        <x:v>374900</x:v>
+        <x:v>190000</x:v>
       </x:c>
       <x:c r="B196" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C196" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>2200</x:v>
+        <x:v>1225</x:v>
       </x:c>
       <x:c r="E196" s="0" t="s">
         <x:v>199</x:v>
@@ -4775,16 +4862,16 @@
     </x:row>
     <x:row r="197" spans="1:5">
       <x:c r="A197" s="0" t="n">
-        <x:v>379900</x:v>
+        <x:v>190900</x:v>
       </x:c>
       <x:c r="B197" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C197" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>1514</x:v>
+        <x:v>1470</x:v>
       </x:c>
       <x:c r="E197" s="0" t="s">
         <x:v>200</x:v>
@@ -4792,7 +4879,7 @@
     </x:row>
     <x:row r="198" spans="1:5">
       <x:c r="A198" s="0" t="n">
-        <x:v>388000</x:v>
+        <x:v>191900</x:v>
       </x:c>
       <x:c r="B198" s="0" t="n">
         <x:v>3</x:v>
@@ -4801,7 +4888,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>1300</x:v>
+        <x:v>1458</x:v>
       </x:c>
       <x:c r="E198" s="0" t="s">
         <x:v>201</x:v>
@@ -4809,7 +4896,7 @@
     </x:row>
     <x:row r="199" spans="1:5">
       <x:c r="A199" s="0" t="n">
-        <x:v>389000</x:v>
+        <x:v>192500</x:v>
       </x:c>
       <x:c r="B199" s="0" t="n">
         <x:v>3</x:v>
@@ -4818,7 +4905,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D199" s="0" t="n">
-        <x:v>1919</x:v>
+        <x:v>1748</x:v>
       </x:c>
       <x:c r="E199" s="0" t="s">
         <x:v>202</x:v>
@@ -4826,16 +4913,16 @@
     </x:row>
     <x:row r="200" spans="1:5">
       <x:c r="A200" s="0" t="n">
-        <x:v>389900</x:v>
+        <x:v>192700</x:v>
       </x:c>
       <x:c r="B200" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C200" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D200" s="0" t="n">
-        <x:v>1600</x:v>
+        <x:v>1405</x:v>
       </x:c>
       <x:c r="E200" s="0" t="s">
         <x:v>203</x:v>
@@ -4843,16 +4930,16 @@
     </x:row>
     <x:row r="201" spans="1:5">
       <x:c r="A201" s="0" t="n">
-        <x:v>390000</x:v>
+        <x:v>192700</x:v>
       </x:c>
       <x:c r="B201" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C201" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
-        <x:v>1520</x:v>
+        <x:v>1405</x:v>
       </x:c>
       <x:c r="E201" s="0" t="s">
         <x:v>204</x:v>
@@ -4860,16 +4947,16 @@
     </x:row>
     <x:row r="202" spans="1:5">
       <x:c r="A202" s="0" t="n">
-        <x:v>395000</x:v>
+        <x:v>192700</x:v>
       </x:c>
       <x:c r="B202" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C202" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D202" s="0" t="n">
-        <x:v>1896</x:v>
+        <x:v>1405</x:v>
       </x:c>
       <x:c r="E202" s="0" t="s">
         <x:v>205</x:v>
@@ -4877,16 +4964,16 @@
     </x:row>
     <x:row r="203" spans="1:5">
       <x:c r="A203" s="0" t="n">
-        <x:v>395000</x:v>
+        <x:v>194000</x:v>
       </x:c>
       <x:c r="B203" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C203" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D203" s="0" t="n">
-        <x:v>1060</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="E203" s="0" t="s">
         <x:v>206</x:v>
@@ -4894,16 +4981,16 @@
     </x:row>
     <x:row r="204" spans="1:5">
       <x:c r="A204" s="0" t="n">
-        <x:v>398000</x:v>
+        <x:v>194500</x:v>
       </x:c>
       <x:c r="B204" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C204" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D204" s="0" t="n">
-        <x:v>1149</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="E204" s="0" t="s">
         <x:v>207</x:v>
@@ -4911,16 +4998,16 @@
     </x:row>
     <x:row r="205" spans="1:5">
       <x:c r="A205" s="0" t="n">
-        <x:v>399000</x:v>
+        <x:v>195000</x:v>
       </x:c>
       <x:c r="B205" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D205" s="0" t="n">
-        <x:v>1434</x:v>
+        <x:v>2496</x:v>
       </x:c>
       <x:c r="E205" s="0" t="s">
         <x:v>208</x:v>
@@ -4928,7 +5015,7 @@
     </x:row>
     <x:row r="206" spans="1:5">
       <x:c r="A206" s="0" t="n">
-        <x:v>399000</x:v>
+        <x:v>199000</x:v>
       </x:c>
       <x:c r="B206" s="0" t="n">
         <x:v>3</x:v>
@@ -4937,7 +5024,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D206" s="0" t="n">
-        <x:v>1579</x:v>
+        <x:v>1363</x:v>
       </x:c>
       <x:c r="E206" s="0" t="s">
         <x:v>209</x:v>
@@ -4945,16 +5032,16 @@
     </x:row>
     <x:row r="207" spans="1:5">
       <x:c r="A207" s="0" t="n">
-        <x:v>399000</x:v>
+        <x:v>199000</x:v>
       </x:c>
       <x:c r="B207" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C207" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D207" s="0" t="n">
-        <x:v>3102</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="E207" s="0" t="s">
         <x:v>210</x:v>
@@ -4962,16 +5049,16 @@
     </x:row>
     <x:row r="208" spans="1:5">
       <x:c r="A208" s="0" t="n">
-        <x:v>399990</x:v>
+        <x:v>199900</x:v>
       </x:c>
       <x:c r="B208" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C208" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D208" s="0" t="n">
-        <x:v>1473</x:v>
+        <x:v>2942</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
         <x:v>211</x:v>
@@ -4979,7 +5066,7 @@
     </x:row>
     <x:row r="209" spans="1:5">
       <x:c r="A209" s="0" t="n">
-        <x:v>399999</x:v>
+        <x:v>199900</x:v>
       </x:c>
       <x:c r="B209" s="0" t="n">
         <x:v>3</x:v>
@@ -4988,7 +5075,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D209" s="0" t="n">
-        <x:v>2692</x:v>
+        <x:v>1457</x:v>
       </x:c>
       <x:c r="E209" s="0" t="s">
         <x:v>212</x:v>
@@ -4996,16 +5083,16 @@
     </x:row>
     <x:row r="210" spans="1:5">
       <x:c r="A210" s="0" t="n">
-        <x:v>400000</x:v>
+        <x:v>199900</x:v>
       </x:c>
       <x:c r="B210" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C210" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D210" s="0" t="n">
-        <x:v>1944</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="E210" s="0" t="s">
         <x:v>213</x:v>
@@ -5013,16 +5100,16 @@
     </x:row>
     <x:row r="211" spans="1:5">
       <x:c r="A211" s="0" t="n">
-        <x:v>400000</x:v>
+        <x:v>199900</x:v>
       </x:c>
       <x:c r="B211" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C211" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D211" s="0" t="n">
-        <x:v>1260</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="E211" s="0" t="s">
         <x:v>214</x:v>
@@ -5030,7 +5117,7 @@
     </x:row>
     <x:row r="212" spans="1:5">
       <x:c r="A212" s="0" t="n">
-        <x:v>400000</x:v>
+        <x:v>199900</x:v>
       </x:c>
       <x:c r="B212" s="0" t="n">
         <x:v>3</x:v>
@@ -5039,7 +5126,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D212" s="0" t="n">
-        <x:v>1414</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="E212" s="0" t="s">
         <x:v>215</x:v>
@@ -5047,16 +5134,16 @@
     </x:row>
     <x:row r="213" spans="1:5">
       <x:c r="A213" s="0" t="n">
-        <x:v>400000</x:v>
+        <x:v>200000</x:v>
       </x:c>
       <x:c r="B213" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C213" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D213" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>1638</x:v>
       </x:c>
       <x:c r="E213" s="0" t="s">
         <x:v>216</x:v>
@@ -5064,16 +5151,16 @@
     </x:row>
     <x:row r="214" spans="1:5">
       <x:c r="A214" s="0" t="n">
-        <x:v>408000</x:v>
+        <x:v>200000</x:v>
       </x:c>
       <x:c r="B214" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C214" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D214" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="E214" s="0" t="s">
         <x:v>217</x:v>
@@ -5081,16 +5168,16 @@
     </x:row>
     <x:row r="215" spans="1:5">
       <x:c r="A215" s="0" t="n">
-        <x:v>415000</x:v>
+        <x:v>200000</x:v>
       </x:c>
       <x:c r="B215" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C215" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D215" s="0" t="n">
-        <x:v>1300</x:v>
+        <x:v>1320</x:v>
       </x:c>
       <x:c r="E215" s="0" t="s">
         <x:v>218</x:v>
@@ -5098,16 +5185,16 @@
     </x:row>
     <x:row r="216" spans="1:5">
       <x:c r="A216" s="0" t="n">
-        <x:v>425000</x:v>
+        <x:v>200000</x:v>
       </x:c>
       <x:c r="B216" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C216" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D216" s="0" t="n">
-        <x:v>1344</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="E216" s="0" t="s">
         <x:v>219</x:v>
@@ -5115,7 +5202,7 @@
     </x:row>
     <x:row r="217" spans="1:5">
       <x:c r="A217" s="0" t="n">
-        <x:v>430000</x:v>
+        <x:v>204000</x:v>
       </x:c>
       <x:c r="B217" s="0" t="n">
         <x:v>2</x:v>
@@ -5124,7 +5211,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D217" s="0" t="n">
-        <x:v>1232</x:v>
+        <x:v>1231</x:v>
       </x:c>
       <x:c r="E217" s="0" t="s">
         <x:v>220</x:v>
@@ -5132,16 +5219,16 @@
     </x:row>
     <x:row r="218" spans="1:5">
       <x:c r="A218" s="0" t="n">
-        <x:v>430852</x:v>
+        <x:v>204900</x:v>
       </x:c>
       <x:c r="B218" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C218" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D218" s="0" t="n">
-        <x:v>1223</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="E218" s="0" t="s">
         <x:v>221</x:v>
@@ -5149,16 +5236,16 @@
     </x:row>
     <x:row r="219" spans="1:5">
       <x:c r="A219" s="0" t="n">
-        <x:v>435000</x:v>
+        <x:v>206900</x:v>
       </x:c>
       <x:c r="B219" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D219" s="0" t="n">
-        <x:v>1092</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="E219" s="0" t="s">
         <x:v>222</x:v>
@@ -5166,16 +5253,16 @@
     </x:row>
     <x:row r="220" spans="1:5">
       <x:c r="A220" s="0" t="n">
-        <x:v>439000</x:v>
+        <x:v>209000</x:v>
       </x:c>
       <x:c r="B220" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C220" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D220" s="0" t="n">
-        <x:v>1008</x:v>
+        <x:v>2104</x:v>
       </x:c>
       <x:c r="E220" s="0" t="s">
         <x:v>223</x:v>
@@ -5183,16 +5270,16 @@
     </x:row>
     <x:row r="221" spans="1:5">
       <x:c r="A221" s="0" t="n">
-        <x:v>439000</x:v>
+        <x:v>209000</x:v>
       </x:c>
       <x:c r="B221" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C221" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D221" s="0" t="n">
-        <x:v>1288</x:v>
+        <x:v>1164</x:v>
       </x:c>
       <x:c r="E221" s="0" t="s">
         <x:v>224</x:v>
@@ -5200,16 +5287,16 @@
     </x:row>
     <x:row r="222" spans="1:5">
       <x:c r="A222" s="0" t="n">
-        <x:v>444000</x:v>
+        <x:v>209900</x:v>
       </x:c>
       <x:c r="B222" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C222" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D222" s="0" t="n">
-        <x:v>1315</x:v>
+        <x:v>1789</x:v>
       </x:c>
       <x:c r="E222" s="0" t="s">
         <x:v>225</x:v>
@@ -5217,16 +5304,16 @@
     </x:row>
     <x:row r="223" spans="1:5">
       <x:c r="A223" s="0" t="n">
-        <x:v>444500</x:v>
+        <x:v>209900</x:v>
       </x:c>
       <x:c r="B223" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C223" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D223" s="0" t="n">
-        <x:v>1408</x:v>
+        <x:v>1631</x:v>
       </x:c>
       <x:c r="E223" s="0" t="s">
         <x:v>226</x:v>
@@ -5234,16 +5321,16 @@
     </x:row>
     <x:row r="224" spans="1:5">
       <x:c r="A224" s="0" t="n">
-        <x:v>445000</x:v>
+        <x:v>210000</x:v>
       </x:c>
       <x:c r="B224" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D224" s="0" t="n">
-        <x:v>1149</x:v>
+        <x:v>1109</x:v>
       </x:c>
       <x:c r="E224" s="0" t="s">
         <x:v>227</x:v>
@@ -5251,16 +5338,16 @@
     </x:row>
     <x:row r="225" spans="1:5">
       <x:c r="A225" s="0" t="n">
-        <x:v>445000</x:v>
+        <x:v>210000</x:v>
       </x:c>
       <x:c r="B225" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D225" s="0" t="n">
-        <x:v>1104</x:v>
+        <x:v>1523</x:v>
       </x:c>
       <x:c r="E225" s="0" t="s">
         <x:v>228</x:v>
@@ -5268,16 +5355,16 @@
     </x:row>
     <x:row r="226" spans="1:5">
       <x:c r="A226" s="0" t="n">
-        <x:v>449000</x:v>
+        <x:v>210000</x:v>
       </x:c>
       <x:c r="B226" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C226" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D226" s="0" t="n">
-        <x:v>1120</x:v>
+        <x:v>2025</x:v>
       </x:c>
       <x:c r="E226" s="0" t="s">
         <x:v>229</x:v>
@@ -5285,16 +5372,16 @@
     </x:row>
     <x:row r="227" spans="1:5">
       <x:c r="A227" s="0" t="n">
-        <x:v>449000</x:v>
+        <x:v>210000</x:v>
       </x:c>
       <x:c r="B227" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D227" s="0" t="n">
-        <x:v>1050</x:v>
+        <x:v>1720</x:v>
       </x:c>
       <x:c r="E227" s="0" t="s">
         <x:v>230</x:v>
@@ -5302,7 +5389,7 @@
     </x:row>
     <x:row r="228" spans="1:5">
       <x:c r="A228" s="0" t="n">
-        <x:v>455000</x:v>
+        <x:v>212000</x:v>
       </x:c>
       <x:c r="B228" s="0" t="n">
         <x:v>3</x:v>
@@ -5311,7 +5398,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D228" s="0" t="n">
-        <x:v>1050</x:v>
+        <x:v>2108</x:v>
       </x:c>
       <x:c r="E228" s="0" t="s">
         <x:v>231</x:v>
@@ -5319,16 +5406,16 @@
     </x:row>
     <x:row r="229" spans="1:5">
       <x:c r="A229" s="0" t="n">
-        <x:v>459995</x:v>
+        <x:v>212900</x:v>
       </x:c>
       <x:c r="B229" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C229" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D229" s="0" t="n">
-        <x:v>1254</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="E229" s="0" t="s">
         <x:v>232</x:v>
@@ -5336,16 +5423,16 @@
     </x:row>
     <x:row r="230" spans="1:5">
       <x:c r="A230" s="0" t="n">
-        <x:v>465000</x:v>
+        <x:v>212999</x:v>
       </x:c>
       <x:c r="B230" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C230" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D230" s="0" t="n">
-        <x:v>1896</x:v>
+        <x:v>1730</x:v>
       </x:c>
       <x:c r="E230" s="0" t="s">
         <x:v>233</x:v>
@@ -5353,16 +5440,16 @@
     </x:row>
     <x:row r="231" spans="1:5">
       <x:c r="A231" s="0" t="n">
-        <x:v>465000</x:v>
+        <x:v>214000</x:v>
       </x:c>
       <x:c r="B231" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C231" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D231" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="E231" s="0" t="s">
         <x:v>234</x:v>
@@ -5370,16 +5457,16 @@
     </x:row>
     <x:row r="232" spans="1:5">
       <x:c r="A232" s="0" t="n">
-        <x:v>465000</x:v>
+        <x:v>214900</x:v>
       </x:c>
       <x:c r="B232" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C232" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D232" s="0" t="n">
-        <x:v>1424</x:v>
+        <x:v>1332</x:v>
       </x:c>
       <x:c r="E232" s="0" t="s">
         <x:v>235</x:v>
@@ -5387,16 +5474,16 @@
     </x:row>
     <x:row r="233" spans="1:5">
       <x:c r="A233" s="0" t="n">
-        <x:v>469000</x:v>
+        <x:v>214900</x:v>
       </x:c>
       <x:c r="B233" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C233" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D233" s="0" t="n">
-        <x:v>1632</x:v>
+        <x:v>1708</x:v>
       </x:c>
       <x:c r="E233" s="0" t="s">
         <x:v>236</x:v>
@@ -5404,16 +5491,16 @@
     </x:row>
     <x:row r="234" spans="1:5">
       <x:c r="A234" s="0" t="n">
-        <x:v>469000</x:v>
+        <x:v>214900</x:v>
       </x:c>
       <x:c r="B234" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C234" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D234" s="0" t="n">
-        <x:v>2730</x:v>
+        <x:v>1724</x:v>
       </x:c>
       <x:c r="E234" s="0" t="s">
         <x:v>237</x:v>
@@ -5421,16 +5508,16 @@
     </x:row>
     <x:row r="235" spans="1:5">
       <x:c r="A235" s="0" t="n">
-        <x:v>469000</x:v>
+        <x:v>214950</x:v>
       </x:c>
       <x:c r="B235" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C235" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D235" s="0" t="n">
-        <x:v>1124</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="E235" s="0" t="s">
         <x:v>238</x:v>
@@ -5438,7 +5525,7 @@
     </x:row>
     <x:row r="236" spans="1:5">
       <x:c r="A236" s="0" t="n">
-        <x:v>469900</x:v>
+        <x:v>215000</x:v>
       </x:c>
       <x:c r="B236" s="0" t="n">
         <x:v>3</x:v>
@@ -5447,7 +5534,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D236" s="0" t="n">
-        <x:v>1900</x:v>
+        <x:v>1469</x:v>
       </x:c>
       <x:c r="E236" s="0" t="s">
         <x:v>239</x:v>
@@ -5455,7 +5542,7 @@
     </x:row>
     <x:row r="237" spans="1:5">
       <x:c r="A237" s="0" t="n">
-        <x:v>478000</x:v>
+        <x:v>215000</x:v>
       </x:c>
       <x:c r="B237" s="0" t="n">
         <x:v>3</x:v>
@@ -5464,7 +5551,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D237" s="0" t="n">
-        <x:v>1224</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="E237" s="0" t="s">
         <x:v>240</x:v>
@@ -5472,7 +5559,7 @@
     </x:row>
     <x:row r="238" spans="1:5">
       <x:c r="A238" s="0" t="n">
-        <x:v>479000</x:v>
+        <x:v>215000</x:v>
       </x:c>
       <x:c r="B238" s="0" t="n">
         <x:v>4</x:v>
@@ -5481,7 +5568,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D238" s="0" t="n">
-        <x:v>1916</x:v>
+        <x:v>1322</x:v>
       </x:c>
       <x:c r="E238" s="0" t="s">
         <x:v>241</x:v>
@@ -5489,16 +5576,16 @@
     </x:row>
     <x:row r="239" spans="1:5">
       <x:c r="A239" s="0" t="n">
-        <x:v>479900</x:v>
+        <x:v>215000</x:v>
       </x:c>
       <x:c r="B239" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C239" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D239" s="0" t="n">
-        <x:v>1230</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="E239" s="0" t="s">
         <x:v>242</x:v>
@@ -5506,16 +5593,16 @@
     </x:row>
     <x:row r="240" spans="1:5">
       <x:c r="A240" s="0" t="n">
-        <x:v>480000</x:v>
+        <x:v>215000</x:v>
       </x:c>
       <x:c r="B240" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C240" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D240" s="0" t="n">
-        <x:v>1968</x:v>
+        <x:v>1507</x:v>
       </x:c>
       <x:c r="E240" s="0" t="s">
         <x:v>243</x:v>
@@ -5523,16 +5610,16 @@
     </x:row>
     <x:row r="241" spans="1:5">
       <x:c r="A241" s="0" t="n">
-        <x:v>489000</x:v>
+        <x:v>218000</x:v>
       </x:c>
       <x:c r="B241" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C241" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D241" s="0" t="n">
-        <x:v>1896</x:v>
+        <x:v>1523</x:v>
       </x:c>
       <x:c r="E241" s="0" t="s">
         <x:v>244</x:v>
@@ -5540,16 +5627,16 @@
     </x:row>
     <x:row r="242" spans="1:5">
       <x:c r="A242" s="0" t="n">
-        <x:v>489000</x:v>
+        <x:v>219000</x:v>
       </x:c>
       <x:c r="B242" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C242" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D242" s="0" t="n">
-        <x:v>1175</x:v>
+        <x:v>2100</x:v>
       </x:c>
       <x:c r="E242" s="0" t="s">
         <x:v>245</x:v>
@@ -5557,16 +5644,16 @@
     </x:row>
     <x:row r="243" spans="1:5">
       <x:c r="A243" s="0" t="n">
-        <x:v>498000</x:v>
+        <x:v>220000</x:v>
       </x:c>
       <x:c r="B243" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C243" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D243" s="0" t="n">
-        <x:v>1242</x:v>
+        <x:v>1841</x:v>
       </x:c>
       <x:c r="E243" s="0" t="s">
         <x:v>246</x:v>
@@ -5574,16 +5661,16 @@
     </x:row>
     <x:row r="244" spans="1:5">
       <x:c r="A244" s="0" t="n">
-        <x:v>499000</x:v>
+        <x:v>220000</x:v>
       </x:c>
       <x:c r="B244" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C244" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D244" s="0" t="n">
-        <x:v>1470</x:v>
+        <x:v>1620</x:v>
       </x:c>
       <x:c r="E244" s="0" t="s">
         <x:v>247</x:v>
@@ -5591,16 +5678,16 @@
     </x:row>
     <x:row r="245" spans="1:5">
       <x:c r="A245" s="0" t="n">
-        <x:v>499000</x:v>
+        <x:v>220000</x:v>
       </x:c>
       <x:c r="B245" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C245" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D245" s="0" t="n">
-        <x:v>1254</x:v>
+        <x:v>1806</x:v>
       </x:c>
       <x:c r="E245" s="0" t="s">
         <x:v>248</x:v>
@@ -5608,16 +5695,16 @@
     </x:row>
     <x:row r="246" spans="1:5">
       <x:c r="A246" s="0" t="n">
-        <x:v>499000</x:v>
+        <x:v>220000</x:v>
       </x:c>
       <x:c r="B246" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C246" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D246" s="0" t="n">
-        <x:v>1581</x:v>
+        <x:v>1867</x:v>
       </x:c>
       <x:c r="E246" s="0" t="s">
         <x:v>249</x:v>
@@ -5625,16 +5712,16 @@
     </x:row>
     <x:row r="247" spans="1:5">
       <x:c r="A247" s="0" t="n">
-        <x:v>499000</x:v>
+        <x:v>222500</x:v>
       </x:c>
       <x:c r="B247" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C247" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D247" s="0" t="n">
-        <x:v>1034</x:v>
+        <x:v>2262</x:v>
       </x:c>
       <x:c r="E247" s="0" t="s">
         <x:v>250</x:v>
@@ -5642,16 +5729,16 @@
     </x:row>
     <x:row r="248" spans="1:5">
       <x:c r="A248" s="0" t="n">
-        <x:v>499900</x:v>
+        <x:v>222500</x:v>
       </x:c>
       <x:c r="B248" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C248" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D248" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1736</x:v>
       </x:c>
       <x:c r="E248" s="0" t="s">
         <x:v>251</x:v>
@@ -5659,16 +5746,16 @@
     </x:row>
     <x:row r="249" spans="1:5">
       <x:c r="A249" s="0" t="n">
-        <x:v>499900</x:v>
+        <x:v>224500</x:v>
       </x:c>
       <x:c r="B249" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C249" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D249" s="0" t="n">
-        <x:v>1056</x:v>
+        <x:v>1740</x:v>
       </x:c>
       <x:c r="E249" s="0" t="s">
         <x:v>252</x:v>
@@ -5676,16 +5763,16 @@
     </x:row>
     <x:row r="250" spans="1:5">
       <x:c r="A250" s="0" t="n">
-        <x:v>499999</x:v>
+        <x:v>224500</x:v>
       </x:c>
       <x:c r="B250" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C250" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D250" s="0" t="n">
-        <x:v>2443</x:v>
+        <x:v>1740</x:v>
       </x:c>
       <x:c r="E250" s="0" t="s">
         <x:v>253</x:v>
@@ -5693,16 +5780,16 @@
     </x:row>
     <x:row r="251" spans="1:5">
       <x:c r="A251" s="0" t="n">
-        <x:v>500000</x:v>
+        <x:v>225000</x:v>
       </x:c>
       <x:c r="B251" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C251" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D251" s="0" t="n">
-        <x:v>1916</x:v>
+        <x:v>2200</x:v>
       </x:c>
       <x:c r="E251" s="0" t="s">
         <x:v>254</x:v>
@@ -5710,16 +5797,16 @@
     </x:row>
     <x:row r="252" spans="1:5">
       <x:c r="A252" s="0" t="n">
-        <x:v>505900</x:v>
+        <x:v>225000</x:v>
       </x:c>
       <x:c r="B252" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C252" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D252" s="0" t="n">
-        <x:v>2400</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="E252" s="0" t="s">
         <x:v>255</x:v>
@@ -5727,16 +5814,16 @@
     </x:row>
     <x:row r="253" spans="1:5">
       <x:c r="A253" s="0" t="n">
-        <x:v>519000</x:v>
+        <x:v>225000</x:v>
       </x:c>
       <x:c r="B253" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C253" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D253" s="0" t="n">
-        <x:v>2268</x:v>
+        <x:v>1632</x:v>
       </x:c>
       <x:c r="E253" s="0" t="s">
         <x:v>256</x:v>
@@ -5744,16 +5831,16 @@
     </x:row>
     <x:row r="254" spans="1:5">
       <x:c r="A254" s="0" t="n">
-        <x:v>519000</x:v>
+        <x:v>225500</x:v>
       </x:c>
       <x:c r="B254" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C254" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D254" s="0" t="n">
-        <x:v>1277</x:v>
+        <x:v>1431</x:v>
       </x:c>
       <x:c r="E254" s="0" t="s">
         <x:v>257</x:v>
@@ -5761,16 +5848,16 @@
     </x:row>
     <x:row r="255" spans="1:5">
       <x:c r="A255" s="0" t="n">
-        <x:v>525000</x:v>
+        <x:v>227900</x:v>
       </x:c>
       <x:c r="B255" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C255" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D255" s="0" t="n">
-        <x:v>2141</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="E255" s="0" t="s">
         <x:v>258</x:v>
@@ -5778,16 +5865,16 @@
     </x:row>
     <x:row r="256" spans="1:5">
       <x:c r="A256" s="0" t="n">
-        <x:v>529000</x:v>
+        <x:v>228000</x:v>
       </x:c>
       <x:c r="B256" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C256" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D256" s="0" t="n">
-        <x:v>2288</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="E256" s="0" t="s">
         <x:v>259</x:v>
@@ -5795,16 +5882,16 @@
     </x:row>
     <x:row r="257" spans="1:5">
       <x:c r="A257" s="0" t="n">
-        <x:v>529000</x:v>
+        <x:v>229000</x:v>
       </x:c>
       <x:c r="B257" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C257" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D257" s="0" t="n">
-        <x:v>1645</x:v>
+        <x:v>1270</x:v>
       </x:c>
       <x:c r="E257" s="0" t="s">
         <x:v>260</x:v>
@@ -5812,16 +5899,16 @@
     </x:row>
     <x:row r="258" spans="1:5">
       <x:c r="A258" s="0" t="n">
-        <x:v>535999</x:v>
+        <x:v>229900</x:v>
       </x:c>
       <x:c r="B258" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C258" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D258" s="0" t="n">
-        <x:v>1198</x:v>
+        <x:v>1968</x:v>
       </x:c>
       <x:c r="E258" s="0" t="s">
         <x:v>261</x:v>
@@ -5829,16 +5916,16 @@
     </x:row>
     <x:row r="259" spans="1:5">
       <x:c r="A259" s="0" t="n">
-        <x:v>539850</x:v>
+        <x:v>230000</x:v>
       </x:c>
       <x:c r="B259" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C259" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D259" s="0" t="n">
-        <x:v>1997</x:v>
+        <x:v>1316</x:v>
       </x:c>
       <x:c r="E259" s="0" t="s">
         <x:v>262</x:v>
@@ -5846,16 +5933,16 @@
     </x:row>
     <x:row r="260" spans="1:5">
       <x:c r="A260" s="0" t="n">
-        <x:v>549000</x:v>
+        <x:v>230000</x:v>
       </x:c>
       <x:c r="B260" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C260" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D260" s="0" t="n">
-        <x:v>1728</x:v>
+        <x:v>1220</x:v>
       </x:c>
       <x:c r="E260" s="0" t="s">
         <x:v>263</x:v>
@@ -5863,16 +5950,16 @@
     </x:row>
     <x:row r="261" spans="1:5">
       <x:c r="A261" s="0" t="n">
-        <x:v>549000</x:v>
+        <x:v>230025</x:v>
       </x:c>
       <x:c r="B261" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C261" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D261" s="0" t="n">
-        <x:v>1375</x:v>
+        <x:v>1431</x:v>
       </x:c>
       <x:c r="E261" s="0" t="s">
         <x:v>264</x:v>
@@ -5880,7 +5967,7 @@
     </x:row>
     <x:row r="262" spans="1:5">
       <x:c r="A262" s="0" t="n">
-        <x:v>549000</x:v>
+        <x:v>234100</x:v>
       </x:c>
       <x:c r="B262" s="0" t="n">
         <x:v>3</x:v>
@@ -5889,7 +5976,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D262" s="0" t="n">
-        <x:v>1066</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="E262" s="0" t="s">
         <x:v>265</x:v>
@@ -5897,16 +5984,16 @@
     </x:row>
     <x:row r="263" spans="1:5">
       <x:c r="A263" s="0" t="n">
-        <x:v>549000</x:v>
+        <x:v>234900</x:v>
       </x:c>
       <x:c r="B263" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C263" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D263" s="0" t="n">
-        <x:v>1500</x:v>
+        <x:v>1320</x:v>
       </x:c>
       <x:c r="E263" s="0" t="s">
         <x:v>266</x:v>
@@ -5914,16 +6001,16 @@
     </x:row>
     <x:row r="264" spans="1:5">
       <x:c r="A264" s="0" t="n">
-        <x:v>549000</x:v>
+        <x:v>235000</x:v>
       </x:c>
       <x:c r="B264" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C264" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D264" s="0" t="n">
-        <x:v>2265</x:v>
+        <x:v>2528</x:v>
       </x:c>
       <x:c r="E264" s="0" t="s">
         <x:v>267</x:v>
@@ -5931,16 +6018,16 @@
     </x:row>
     <x:row r="265" spans="1:5">
       <x:c r="A265" s="0" t="n">
-        <x:v>549000</x:v>
+        <x:v>235000</x:v>
       </x:c>
       <x:c r="B265" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C265" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D265" s="0" t="n">
-        <x:v>1714</x:v>
+        <x:v>1568</x:v>
       </x:c>
       <x:c r="E265" s="0" t="s">
         <x:v>268</x:v>
@@ -5948,16 +6035,16 @@
     </x:row>
     <x:row r="266" spans="1:5">
       <x:c r="A266" s="0" t="n">
-        <x:v>549000</x:v>
+        <x:v>235000</x:v>
       </x:c>
       <x:c r="B266" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C266" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D266" s="0" t="n">
-        <x:v>1734</x:v>
+        <x:v>1759</x:v>
       </x:c>
       <x:c r="E266" s="0" t="s">
         <x:v>269</x:v>
@@ -5965,16 +6052,16 @@
     </x:row>
     <x:row r="267" spans="1:5">
       <x:c r="A267" s="0" t="n">
-        <x:v>549999</x:v>
+        <x:v>237500</x:v>
       </x:c>
       <x:c r="B267" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C267" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D267" s="0" t="n">
-        <x:v>1899</x:v>
+        <x:v>2343</x:v>
       </x:c>
       <x:c r="E267" s="0" t="s">
         <x:v>270</x:v>
@@ -5982,16 +6069,16 @@
     </x:row>
     <x:row r="268" spans="1:5">
       <x:c r="A268" s="0" t="n">
-        <x:v>559000</x:v>
+        <x:v>238000</x:v>
       </x:c>
       <x:c r="B268" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C268" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D268" s="0" t="n">
-        <x:v>1259</x:v>
+        <x:v>1990</x:v>
       </x:c>
       <x:c r="E268" s="0" t="s">
         <x:v>271</x:v>
@@ -5999,24 +6086,24 @@
     </x:row>
     <x:row r="269" spans="1:5">
       <x:c r="A269" s="0" t="n">
-        <x:v>560000</x:v>
+        <x:v>239000</x:v>
       </x:c>
       <x:c r="B269" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C269" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D269" s="0" t="n">
-        <x:v>1250</x:v>
+        <x:v>1965</x:v>
       </x:c>
       <x:c r="E269" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:5">
       <x:c r="A270" s="0" t="n">
-        <x:v>560000</x:v>
+        <x:v>239000</x:v>
       </x:c>
       <x:c r="B270" s="0" t="n">
         <x:v>2</x:v>
@@ -6025,202 +6112,202 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D270" s="0" t="n">
-        <x:v>1300</x:v>
+        <x:v>1449</x:v>
       </x:c>
       <x:c r="E270" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:5">
       <x:c r="A271" s="0" t="n">
-        <x:v>560000</x:v>
+        <x:v>239900</x:v>
       </x:c>
       <x:c r="B271" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C271" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D271" s="0" t="n">
-        <x:v>1285</x:v>
+        <x:v>1722</x:v>
       </x:c>
       <x:c r="E271" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:5">
       <x:c r="A272" s="0" t="n">
-        <x:v>569000</x:v>
+        <x:v>239900</x:v>
       </x:c>
       <x:c r="B272" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C272" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D272" s="0" t="n">
-        <x:v>1600</x:v>
+        <x:v>1764</x:v>
       </x:c>
       <x:c r="E272" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:5">
       <x:c r="A273" s="0" t="n">
-        <x:v>569000</x:v>
+        <x:v>239900</x:v>
       </x:c>
       <x:c r="B273" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C273" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D273" s="0" t="n">
-        <x:v>1440</x:v>
+        <x:v>2038</x:v>
       </x:c>
       <x:c r="E273" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:5">
       <x:c r="A274" s="0" t="n">
-        <x:v>569000</x:v>
+        <x:v>239900</x:v>
       </x:c>
       <x:c r="B274" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C274" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D274" s="0" t="n">
-        <x:v>1865</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="E274" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:5">
       <x:c r="A275" s="0" t="n">
-        <x:v>569999</x:v>
+        <x:v>239900</x:v>
       </x:c>
       <x:c r="B275" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C275" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D275" s="0" t="n">
-        <x:v>1540</x:v>
+        <x:v>2038</x:v>
       </x:c>
       <x:c r="E275" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:5">
       <x:c r="A276" s="0" t="n">
-        <x:v>574999</x:v>
+        <x:v>242230</x:v>
       </x:c>
       <x:c r="B276" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C276" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D276" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>1782</x:v>
       </x:c>
       <x:c r="E276" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:5">
       <x:c r="A277" s="0" t="n">
-        <x:v>575000</x:v>
+        <x:v>245000</x:v>
       </x:c>
       <x:c r="B277" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C277" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D277" s="0" t="n">
-        <x:v>2300</x:v>
+        <x:v>2045</x:v>
       </x:c>
       <x:c r="E277" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:5">
       <x:c r="A278" s="0" t="n">
-        <x:v>575000</x:v>
+        <x:v>245000</x:v>
       </x:c>
       <x:c r="B278" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C278" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D278" s="0" t="n">
-        <x:v>1522</x:v>
+        <x:v>1520</x:v>
       </x:c>
       <x:c r="E278" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:5">
       <x:c r="A279" s="0" t="n">
-        <x:v>579000</x:v>
+        <x:v>247500</x:v>
       </x:c>
       <x:c r="B279" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C279" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D279" s="0" t="n">
-        <x:v>2331</x:v>
+        <x:v>1241</x:v>
       </x:c>
       <x:c r="E279" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:5">
       <x:c r="A280" s="0" t="n">
-        <x:v>579000</x:v>
+        <x:v>247775</x:v>
       </x:c>
       <x:c r="B280" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C280" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D280" s="0" t="n">
-        <x:v>2142</x:v>
+        <x:v>1241</x:v>
       </x:c>
       <x:c r="E280" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:5">
       <x:c r="A281" s="0" t="n">
-        <x:v>579000</x:v>
+        <x:v>248500</x:v>
       </x:c>
       <x:c r="B281" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C281" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D281" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>1470</x:v>
       </x:c>
       <x:c r="E281" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:5">
       <x:c r="A282" s="0" t="n">
-        <x:v>579000</x:v>
+        <x:v>249000</x:v>
       </x:c>
       <x:c r="B282" s="0" t="n">
         <x:v>4</x:v>
@@ -6229,15 +6316,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D282" s="0" t="n">
-        <x:v>1810</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="E282" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:5">
       <x:c r="A283" s="0" t="n">
-        <x:v>579900</x:v>
+        <x:v>249000</x:v>
       </x:c>
       <x:c r="B283" s="0" t="n">
         <x:v>4</x:v>
@@ -6246,168 +6333,168 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D283" s="0" t="n">
-        <x:v>1896</x:v>
+        <x:v>2028</x:v>
       </x:c>
       <x:c r="E283" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:5">
       <x:c r="A284" s="0" t="n">
-        <x:v>580000</x:v>
+        <x:v>249900</x:v>
       </x:c>
       <x:c r="B284" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C284" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D284" s="0" t="n">
-        <x:v>1385</x:v>
+        <x:v>2519</x:v>
       </x:c>
       <x:c r="E284" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:5">
       <x:c r="A285" s="0" t="n">
-        <x:v>585000</x:v>
+        <x:v>249900</x:v>
       </x:c>
       <x:c r="B285" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C285" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D285" s="0" t="n">
-        <x:v>2566</x:v>
+        <x:v>1762</x:v>
       </x:c>
       <x:c r="E285" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:5">
       <x:c r="A286" s="0" t="n">
-        <x:v>589000</x:v>
+        <x:v>249900</x:v>
       </x:c>
       <x:c r="B286" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C286" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D286" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>3460</x:v>
       </x:c>
       <x:c r="E286" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:5">
       <x:c r="A287" s="0" t="n">
-        <x:v>589000</x:v>
+        <x:v>249900</x:v>
       </x:c>
       <x:c r="B287" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C287" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D287" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>1429</x:v>
       </x:c>
       <x:c r="E287" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:5">
       <x:c r="A288" s="0" t="n">
-        <x:v>595000</x:v>
+        <x:v>249900</x:v>
       </x:c>
       <x:c r="B288" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C288" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D288" s="0" t="n">
-        <x:v>1631</x:v>
+        <x:v>1509</x:v>
       </x:c>
       <x:c r="E288" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:5">
       <x:c r="A289" s="0" t="n">
-        <x:v>595000</x:v>
+        <x:v>250000</x:v>
       </x:c>
       <x:c r="B289" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C289" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D289" s="0" t="n">
-        <x:v>1770</x:v>
+        <x:v>1624</x:v>
       </x:c>
       <x:c r="E289" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:5">
       <x:c r="A290" s="0" t="n">
-        <x:v>599000</x:v>
+        <x:v>250000</x:v>
       </x:c>
       <x:c r="B290" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C290" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D290" s="0" t="n">
-        <x:v>1208</x:v>
+        <x:v>1382</x:v>
       </x:c>
       <x:c r="E290" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:5">
       <x:c r="A291" s="0" t="n">
-        <x:v>599000</x:v>
+        <x:v>250000</x:v>
       </x:c>
       <x:c r="B291" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C291" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D291" s="0" t="n">
-        <x:v>1600</x:v>
+        <x:v>2097</x:v>
       </x:c>
       <x:c r="E291" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:5">
       <x:c r="A292" s="0" t="n">
-        <x:v>599000</x:v>
+        <x:v>250000</x:v>
       </x:c>
       <x:c r="B292" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C292" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D292" s="0" t="n">
-        <x:v>1890</x:v>
+        <x:v>1878</x:v>
       </x:c>
       <x:c r="E292" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:5">
       <x:c r="A293" s="0" t="n">
-        <x:v>599000</x:v>
+        <x:v>250000</x:v>
       </x:c>
       <x:c r="B293" s="0" t="n">
         <x:v>3</x:v>
@@ -6416,117 +6503,117 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D293" s="0" t="n">
-        <x:v>1393</x:v>
+        <x:v>1774</x:v>
       </x:c>
       <x:c r="E293" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:5">
       <x:c r="A294" s="0" t="n">
-        <x:v>599000</x:v>
+        <x:v>257500</x:v>
       </x:c>
       <x:c r="B294" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C294" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D294" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>2000</x:v>
       </x:c>
       <x:c r="E294" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:5">
       <x:c r="A295" s="0" t="n">
-        <x:v>599888</x:v>
+        <x:v>259000</x:v>
       </x:c>
       <x:c r="B295" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C295" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D295" s="0" t="n">
-        <x:v>1476</x:v>
+        <x:v>1856</x:v>
       </x:c>
       <x:c r="E295" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:5">
       <x:c r="A296" s="0" t="n">
-        <x:v>599900</x:v>
+        <x:v>259900</x:v>
       </x:c>
       <x:c r="B296" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C296" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D296" s="0" t="n">
-        <x:v>1664</x:v>
+        <x:v>1371</x:v>
       </x:c>
       <x:c r="E296" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:5">
       <x:c r="A297" s="0" t="n">
-        <x:v>599900</x:v>
+        <x:v>259900</x:v>
       </x:c>
       <x:c r="B297" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C297" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D297" s="0" t="n">
-        <x:v>1582</x:v>
+        <x:v>2491</x:v>
       </x:c>
       <x:c r="E297" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:5">
       <x:c r="A298" s="0" t="n">
-        <x:v>599900</x:v>
+        <x:v>260000</x:v>
       </x:c>
       <x:c r="B298" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C298" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D298" s="0" t="n">
-        <x:v>1280</x:v>
+        <x:v>1588</x:v>
       </x:c>
       <x:c r="E298" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:5">
       <x:c r="A299" s="0" t="n">
-        <x:v>599999</x:v>
+        <x:v>260000</x:v>
       </x:c>
       <x:c r="B299" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C299" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D299" s="0" t="n">
-        <x:v>1466</x:v>
+        <x:v>2308</x:v>
       </x:c>
       <x:c r="E299" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:5">
       <x:c r="A300" s="0" t="n">
-        <x:v>599999</x:v>
+        <x:v>261654</x:v>
       </x:c>
       <x:c r="B300" s="0" t="n">
         <x:v>3</x:v>
@@ -6535,219 +6622,219 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D300" s="0" t="n">
-        <x:v>1536</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="E300" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:5">
       <x:c r="A301" s="0" t="n">
-        <x:v>608888</x:v>
+        <x:v>262500</x:v>
       </x:c>
       <x:c r="B301" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C301" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D301" s="0" t="n">
-        <x:v>1066</x:v>
+        <x:v>2154</x:v>
       </x:c>
       <x:c r="E301" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:5">
       <x:c r="A302" s="0" t="n">
-        <x:v>610000</x:v>
+        <x:v>263575</x:v>
       </x:c>
       <x:c r="B302" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C302" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D302" s="0" t="n">
-        <x:v>1775</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="E302" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:5">
       <x:c r="A303" s="0" t="n">
-        <x:v>610000</x:v>
+        <x:v>265000</x:v>
       </x:c>
       <x:c r="B303" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C303" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D303" s="0" t="n">
-        <x:v>1368</x:v>
+        <x:v>2500</x:v>
       </x:c>
       <x:c r="E303" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:5">
       <x:c r="A304" s="0" t="n">
-        <x:v>615000</x:v>
+        <x:v>265000</x:v>
       </x:c>
       <x:c r="B304" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C304" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D304" s="0" t="n">
-        <x:v>1140</x:v>
+        <x:v>2600</x:v>
       </x:c>
       <x:c r="E304" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:5">
       <x:c r="A305" s="0" t="n">
-        <x:v>619000</x:v>
+        <x:v>265000</x:v>
       </x:c>
       <x:c r="B305" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C305" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D305" s="0" t="n">
-        <x:v>1872</x:v>
+        <x:v>2481</x:v>
       </x:c>
       <x:c r="E305" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:5">
       <x:c r="A306" s="0" t="n">
-        <x:v>620000</x:v>
+        <x:v>267500</x:v>
       </x:c>
       <x:c r="B306" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C306" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D306" s="0" t="n">
-        <x:v>1850</x:v>
+        <x:v>1552</x:v>
       </x:c>
       <x:c r="E306" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:5">
       <x:c r="A307" s="0" t="n">
-        <x:v>625000</x:v>
+        <x:v>268000</x:v>
       </x:c>
       <x:c r="B307" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C307" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D307" s="0" t="n">
-        <x:v>2050</x:v>
+        <x:v>1903</x:v>
       </x:c>
       <x:c r="E307" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:5">
       <x:c r="A308" s="0" t="n">
-        <x:v>634000</x:v>
+        <x:v>269000</x:v>
       </x:c>
       <x:c r="B308" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C308" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D308" s="0" t="n">
-        <x:v>2060</x:v>
+        <x:v>2425</x:v>
       </x:c>
       <x:c r="E308" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:5">
       <x:c r="A309" s="0" t="n">
-        <x:v>638888</x:v>
+        <x:v>275000</x:v>
       </x:c>
       <x:c r="B309" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C309" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D309" s="0" t="n">
-        <x:v>2574</x:v>
+        <x:v>2481</x:v>
       </x:c>
       <x:c r="E309" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:5">
       <x:c r="A310" s="0" t="n">
-        <x:v>639000</x:v>
+        <x:v>275000</x:v>
       </x:c>
       <x:c r="B310" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C310" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D310" s="0" t="n">
-        <x:v>1665</x:v>
+        <x:v>2428</x:v>
       </x:c>
       <x:c r="E310" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:5">
       <x:c r="A311" s="0" t="n">
-        <x:v>645000</x:v>
+        <x:v>275000</x:v>
       </x:c>
       <x:c r="B311" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C311" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D311" s="0" t="n">
-        <x:v>1620</x:v>
+        <x:v>2366</x:v>
       </x:c>
       <x:c r="E311" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="312" spans="1:5">
       <x:c r="A312" s="0" t="n">
-        <x:v>649000</x:v>
+        <x:v>275000</x:v>
       </x:c>
       <x:c r="B312" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C312" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D312" s="0" t="n">
-        <x:v>2366</x:v>
+        <x:v>2136</x:v>
       </x:c>
       <x:c r="E312" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:5">
       <x:c r="A313" s="0" t="n">
-        <x:v>649000</x:v>
+        <x:v>279900</x:v>
       </x:c>
       <x:c r="B313" s="0" t="n">
         <x:v>3</x:v>
@@ -6756,15 +6843,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D313" s="0" t="n">
-        <x:v>1987</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="E313" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:5">
       <x:c r="A314" s="0" t="n">
-        <x:v>659900</x:v>
+        <x:v>279900</x:v>
       </x:c>
       <x:c r="B314" s="0" t="n">
         <x:v>4</x:v>
@@ -6773,15 +6860,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D314" s="0" t="n">
-        <x:v>1851</x:v>
+        <x:v>2481</x:v>
       </x:c>
       <x:c r="E314" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:5">
       <x:c r="A315" s="0" t="n">
-        <x:v>665000</x:v>
+        <x:v>280000</x:v>
       </x:c>
       <x:c r="B315" s="0" t="n">
         <x:v>3</x:v>
@@ -6790,151 +6877,151 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D315" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>2542</x:v>
       </x:c>
       <x:c r="E315" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:5">
       <x:c r="A316" s="0" t="n">
-        <x:v>675000</x:v>
+        <x:v>285000</x:v>
       </x:c>
       <x:c r="B316" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C316" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D316" s="0" t="n">
-        <x:v>1650</x:v>
+        <x:v>2396</x:v>
       </x:c>
       <x:c r="E316" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:5">
       <x:c r="A317" s="0" t="n">
-        <x:v>675000</x:v>
+        <x:v>285000</x:v>
       </x:c>
       <x:c r="B317" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C317" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D317" s="0" t="n">
-        <x:v>4400</x:v>
+        <x:v>1203</x:v>
       </x:c>
       <x:c r="E317" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:5">
       <x:c r="A318" s="0" t="n">
-        <x:v>675000</x:v>
+        <x:v>286000</x:v>
       </x:c>
       <x:c r="B318" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C318" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D318" s="0" t="n">
-        <x:v>2300</x:v>
+        <x:v>2820</x:v>
       </x:c>
       <x:c r="E318" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:5">
       <x:c r="A319" s="0" t="n">
-        <x:v>679000</x:v>
+        <x:v>287000</x:v>
       </x:c>
       <x:c r="B319" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C319" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D319" s="0" t="n">
-        <x:v>2200</x:v>
+        <x:v>2385</x:v>
       </x:c>
       <x:c r="E319" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:5">
       <x:c r="A320" s="0" t="n">
-        <x:v>695000</x:v>
+        <x:v>289000</x:v>
       </x:c>
       <x:c r="B320" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C320" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D320" s="0" t="n">
-        <x:v>2070</x:v>
+        <x:v>2640</x:v>
       </x:c>
       <x:c r="E320" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:5">
       <x:c r="A321" s="0" t="n">
-        <x:v>699000</x:v>
+        <x:v>289900</x:v>
       </x:c>
       <x:c r="B321" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C321" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D321" s="0" t="n">
-        <x:v>1952</x:v>
+        <x:v>1648</x:v>
       </x:c>
       <x:c r="E321" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:5">
       <x:c r="A322" s="0" t="n">
-        <x:v>699000</x:v>
+        <x:v>289900</x:v>
       </x:c>
       <x:c r="B322" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C322" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D322" s="0" t="n">
-        <x:v>1824</x:v>
+        <x:v>1469</x:v>
       </x:c>
       <x:c r="E322" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:5">
       <x:c r="A323" s="0" t="n">
-        <x:v>699999</x:v>
+        <x:v>290000</x:v>
       </x:c>
       <x:c r="B323" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C323" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D323" s="0" t="n">
-        <x:v>1655</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="E323" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:5">
       <x:c r="A324" s="0" t="n">
-        <x:v>715000</x:v>
+        <x:v>294900</x:v>
       </x:c>
       <x:c r="B324" s="0" t="n">
         <x:v>3</x:v>
@@ -6943,15 +7030,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D324" s="0" t="n">
-        <x:v>2179</x:v>
+        <x:v>2178</x:v>
       </x:c>
       <x:c r="E324" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:5">
       <x:c r="A325" s="0" t="n">
-        <x:v>724899</x:v>
+        <x:v>294900</x:v>
       </x:c>
       <x:c r="B325" s="0" t="n">
         <x:v>3</x:v>
@@ -6960,219 +7047,219 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D325" s="0" t="n">
-        <x:v>3044</x:v>
+        <x:v>2139</x:v>
       </x:c>
       <x:c r="E325" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:5">
       <x:c r="A326" s="0" t="n">
-        <x:v>725000</x:v>
+        <x:v>296775</x:v>
       </x:c>
       <x:c r="B326" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C326" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D326" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>1843</x:v>
       </x:c>
       <x:c r="E326" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:5">
       <x:c r="A327" s="0" t="n">
-        <x:v>729000</x:v>
+        <x:v>298500</x:v>
       </x:c>
       <x:c r="B327" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C327" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D327" s="0" t="n">
-        <x:v>1560</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="E327" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:5">
       <x:c r="A328" s="0" t="n">
-        <x:v>729000</x:v>
+        <x:v>299000</x:v>
       </x:c>
       <x:c r="B328" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C328" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D328" s="0" t="n">
-        <x:v>3000</x:v>
+        <x:v>2268</x:v>
       </x:c>
       <x:c r="E328" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:5">
       <x:c r="A329" s="0" t="n">
-        <x:v>729900</x:v>
+        <x:v>299000</x:v>
       </x:c>
       <x:c r="B329" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C329" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D329" s="0" t="n">
-        <x:v>2160</x:v>
+        <x:v>1581</x:v>
       </x:c>
       <x:c r="E329" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:5">
       <x:c r="A330" s="0" t="n">
-        <x:v>749000</x:v>
+        <x:v>299500</x:v>
       </x:c>
       <x:c r="B330" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C330" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D330" s="0" t="n">
-        <x:v>1700</x:v>
+        <x:v>3192</x:v>
       </x:c>
       <x:c r="E330" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:5">
       <x:c r="A331" s="0" t="n">
-        <x:v>749000</x:v>
+        <x:v>299500</x:v>
       </x:c>
       <x:c r="B331" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C331" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D331" s="0" t="n">
-        <x:v>3060</x:v>
+        <x:v>2134</x:v>
       </x:c>
       <x:c r="E331" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:5">
       <x:c r="A332" s="0" t="n">
-        <x:v>749000</x:v>
+        <x:v>299900</x:v>
       </x:c>
       <x:c r="B332" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C332" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D332" s="0" t="n">
-        <x:v>2374</x:v>
+        <x:v>2248</x:v>
       </x:c>
       <x:c r="E332" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:5">
       <x:c r="A333" s="0" t="n">
-        <x:v>750000</x:v>
+        <x:v>300000</x:v>
       </x:c>
       <x:c r="B333" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C333" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D333" s="0" t="n">
-        <x:v>1312</x:v>
+        <x:v>2107</x:v>
       </x:c>
       <x:c r="E333" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:5">
       <x:c r="A334" s="0" t="n">
-        <x:v>750000</x:v>
+        <x:v>304950</x:v>
       </x:c>
       <x:c r="B334" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C334" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D334" s="0" t="n">
-        <x:v>8484</x:v>
+        <x:v>1922</x:v>
       </x:c>
       <x:c r="E334" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:5">
       <x:c r="A335" s="0" t="n">
-        <x:v>759000</x:v>
+        <x:v>305000</x:v>
       </x:c>
       <x:c r="B335" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C335" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D335" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="E335" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="336" spans="1:5">
       <x:c r="A336" s="0" t="n">
-        <x:v>765000</x:v>
+        <x:v>309900</x:v>
       </x:c>
       <x:c r="B336" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C336" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D336" s="0" t="n">
-        <x:v>1728</x:v>
+        <x:v>3324</x:v>
       </x:c>
       <x:c r="E336" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="337" spans="1:5">
       <x:c r="A337" s="0" t="n">
-        <x:v>769000</x:v>
+        <x:v>309999</x:v>
       </x:c>
       <x:c r="B337" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C337" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D337" s="0" t="n">
-        <x:v>2200</x:v>
+        <x:v>2190</x:v>
       </x:c>
       <x:c r="E337" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:5">
       <x:c r="A338" s="0" t="n">
-        <x:v>799000</x:v>
+        <x:v>314900</x:v>
       </x:c>
       <x:c r="B338" s="0" t="n">
         <x:v>3</x:v>
@@ -7181,202 +7268,202 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D338" s="0" t="n">
-        <x:v>1716</x:v>
+        <x:v>1742</x:v>
       </x:c>
       <x:c r="E338" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="1:5">
       <x:c r="A339" s="0" t="n">
-        <x:v>799000</x:v>
+        <x:v>317500</x:v>
       </x:c>
       <x:c r="B339" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C339" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D339" s="0" t="n">
-        <x:v>2500</x:v>
+        <x:v>1838</x:v>
       </x:c>
       <x:c r="E339" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:5">
       <x:c r="A340" s="0" t="n">
-        <x:v>799000</x:v>
+        <x:v>320000</x:v>
       </x:c>
       <x:c r="B340" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C340" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D340" s="0" t="n">
-        <x:v>2200</x:v>
+        <x:v>1504</x:v>
       </x:c>
       <x:c r="E340" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:5">
       <x:c r="A341" s="0" t="n">
-        <x:v>849000</x:v>
+        <x:v>320000</x:v>
       </x:c>
       <x:c r="B341" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C341" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D341" s="0" t="n">
-        <x:v>2600</x:v>
+        <x:v>1423</x:v>
       </x:c>
       <x:c r="E341" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="1:5">
       <x:c r="A342" s="0" t="n">
-        <x:v>849000</x:v>
+        <x:v>322166</x:v>
       </x:c>
       <x:c r="B342" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C342" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D342" s="0" t="n">
-        <x:v>1661</x:v>
+        <x:v>2254</x:v>
       </x:c>
       <x:c r="E342" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="1:5">
       <x:c r="A343" s="0" t="n">
-        <x:v>850000</x:v>
+        <x:v>324900</x:v>
       </x:c>
       <x:c r="B343" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C343" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D343" s="0" t="n">
-        <x:v>3300</x:v>
+        <x:v>1716</x:v>
       </x:c>
       <x:c r="E343" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="344" spans="1:5">
       <x:c r="A344" s="0" t="n">
-        <x:v>899000</x:v>
+        <x:v>324900</x:v>
       </x:c>
       <x:c r="B344" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C344" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D344" s="0" t="n">
-        <x:v>1640</x:v>
+        <x:v>1716</x:v>
       </x:c>
       <x:c r="E344" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:5">
       <x:c r="A345" s="0" t="n">
-        <x:v>925000</x:v>
+        <x:v>327000</x:v>
       </x:c>
       <x:c r="B345" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C345" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D345" s="0" t="n">
-        <x:v>4100</x:v>
+        <x:v>1668</x:v>
       </x:c>
       <x:c r="E345" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="346" spans="1:5">
       <x:c r="A346" s="0" t="n">
-        <x:v>940000</x:v>
+        <x:v>327500</x:v>
       </x:c>
       <x:c r="B346" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C346" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D346" s="0" t="n">
-        <x:v>3300</x:v>
+        <x:v>1938</x:v>
       </x:c>
       <x:c r="E346" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="347" spans="1:5">
       <x:c r="A347" s="0" t="n">
-        <x:v>948000</x:v>
+        <x:v>328000</x:v>
       </x:c>
       <x:c r="B347" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C347" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D347" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>3328</x:v>
       </x:c>
       <x:c r="E347" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:5">
       <x:c r="A348" s="0" t="n">
-        <x:v>1050000</x:v>
+        <x:v>329000</x:v>
       </x:c>
       <x:c r="B348" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C348" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D348" s="0" t="n">
-        <x:v>2487</x:v>
+        <x:v>1826</x:v>
       </x:c>
       <x:c r="E348" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="1:5">
       <x:c r="A349" s="0" t="n">
-        <x:v>1050000</x:v>
+        <x:v>329000</x:v>
       </x:c>
       <x:c r="B349" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C349" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D349" s="0" t="n">
-        <x:v>1086</x:v>
+        <x:v>2435</x:v>
       </x:c>
       <x:c r="E349" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="350" spans="1:5">
       <x:c r="A350" s="0" t="n">
-        <x:v>1095000</x:v>
+        <x:v>329493</x:v>
       </x:c>
       <x:c r="B350" s="0" t="n">
         <x:v>3</x:v>
@@ -7385,61 +7472,571 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D350" s="0" t="n">
-        <x:v>1700</x:v>
+        <x:v>1538</x:v>
       </x:c>
       <x:c r="E350" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="351" spans="1:5">
       <x:c r="A351" s="0" t="n">
-        <x:v>1100000</x:v>
+        <x:v>330000</x:v>
       </x:c>
       <x:c r="B351" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C351" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D351" s="0" t="n">
-        <x:v>3240</x:v>
+        <x:v>2054</x:v>
       </x:c>
       <x:c r="E351" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="352" spans="1:5">
       <x:c r="A352" s="0" t="n">
-        <x:v>1250000</x:v>
+        <x:v>334900</x:v>
       </x:c>
       <x:c r="B352" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C352" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D352" s="0" t="n">
-        <x:v>3000</x:v>
+        <x:v>3432</x:v>
       </x:c>
       <x:c r="E352" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="353" spans="1:5">
       <x:c r="A353" s="0" t="n">
-        <x:v>1398888</x:v>
+        <x:v>334950</x:v>
       </x:c>
       <x:c r="B353" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C353" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D353" s="0" t="n">
+        <x:v>2265</x:v>
+      </x:c>
+      <x:c r="E353" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="354" spans="1:5">
+      <x:c r="A354" s="0" t="n">
+        <x:v>335000</x:v>
+      </x:c>
+      <x:c r="B354" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C354" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D354" s="0" t="n">
+        <x:v>2375</x:v>
+      </x:c>
+      <x:c r="E354" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="355" spans="1:5">
+      <x:c r="A355" s="0" t="n">
+        <x:v>345000</x:v>
+      </x:c>
+      <x:c r="B355" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C355" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D355" s="0" t="n">
+        <x:v>2287</x:v>
+      </x:c>
+      <x:c r="E355" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="356" spans="1:5">
+      <x:c r="A356" s="0" t="n">
+        <x:v>347170</x:v>
+      </x:c>
+      <x:c r="B356" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C356" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D356" s="0" t="n">
+        <x:v>2445</x:v>
+      </x:c>
+      <x:c r="E356" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="357" spans="1:5">
+      <x:c r="A357" s="0" t="n">
+        <x:v>349840</x:v>
+      </x:c>
+      <x:c r="B357" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C357" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D357" s="0" t="n">
+        <x:v>2428</x:v>
+      </x:c>
+      <x:c r="E357" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="358" spans="1:5">
+      <x:c r="A358" s="0" t="n">
+        <x:v>349900</x:v>
+      </x:c>
+      <x:c r="B358" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C358" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D358" s="0" t="n">
+        <x:v>1600</x:v>
+      </x:c>
+      <x:c r="E358" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="359" spans="1:5">
+      <x:c r="A359" s="0" t="n">
+        <x:v>350000</x:v>
+      </x:c>
+      <x:c r="B359" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C359" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D359" s="0" t="n">
+        <x:v>2070</x:v>
+      </x:c>
+      <x:c r="E359" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="360" spans="1:5">
+      <x:c r="A360" s="0" t="n">
+        <x:v>369000</x:v>
+      </x:c>
+      <x:c r="B360" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C360" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D360" s="0" t="n">
+        <x:v>2391</x:v>
+      </x:c>
+      <x:c r="E360" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="361" spans="1:5">
+      <x:c r="A361" s="0" t="n">
+        <x:v>369900</x:v>
+      </x:c>
+      <x:c r="B361" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C361" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D361" s="0" t="n">
+        <x:v>2965</x:v>
+      </x:c>
+      <x:c r="E361" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="362" spans="1:5">
+      <x:c r="A362" s="0" t="n">
+        <x:v>379900</x:v>
+      </x:c>
+      <x:c r="B362" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C362" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D362" s="0" t="n">
+        <x:v>1866</x:v>
+      </x:c>
+      <x:c r="E362" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="363" spans="1:5">
+      <x:c r="A363" s="0" t="n">
+        <x:v>379900</x:v>
+      </x:c>
+      <x:c r="B363" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C363" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D363" s="0" t="n">
+        <x:v>2744</x:v>
+      </x:c>
+      <x:c r="E363" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="364" spans="1:5">
+      <x:c r="A364" s="0" t="n">
+        <x:v>385000</x:v>
+      </x:c>
+      <x:c r="B364" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C364" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D364" s="0" t="n">
+        <x:v>2741</x:v>
+      </x:c>
+      <x:c r="E364" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="365" spans="1:5">
+      <x:c r="A365" s="0" t="n">
+        <x:v>389000</x:v>
+      </x:c>
+      <x:c r="B365" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C365" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D365" s="0" t="n">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="E365" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="366" spans="1:5">
+      <x:c r="A366" s="0" t="n">
+        <x:v>395000</x:v>
+      </x:c>
+      <x:c r="B366" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C366" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D366" s="0" t="n">
+        <x:v>2104</x:v>
+      </x:c>
+      <x:c r="E366" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="367" spans="1:5">
+      <x:c r="A367" s="0" t="n">
+        <x:v>399500</x:v>
+      </x:c>
+      <x:c r="B367" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C367" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D367" s="0" t="n">
+        <x:v>2542</x:v>
+      </x:c>
+      <x:c r="E367" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="368" spans="1:5">
+      <x:c r="A368" s="0" t="n">
+        <x:v>399900</x:v>
+      </x:c>
+      <x:c r="B368" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C353" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D353" s="0" t="n">
-        <x:v>3640</x:v>
-      </x:c>
-      <x:c r="E353" s="0" t="s">
-        <x:v>356</x:v>
+      <x:c r="C368" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D368" s="0" t="n">
+        <x:v>2293</x:v>
+      </x:c>
+      <x:c r="E368" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="369" spans="1:5">
+      <x:c r="A369" s="0" t="n">
+        <x:v>405000</x:v>
+      </x:c>
+      <x:c r="B369" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C369" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D369" s="0" t="n">
+        <x:v>2596</x:v>
+      </x:c>
+      <x:c r="E369" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="370" spans="1:5">
+      <x:c r="A370" s="0" t="n">
+        <x:v>419000</x:v>
+      </x:c>
+      <x:c r="B370" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C370" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D370" s="0" t="n">
+        <x:v>3355</x:v>
+      </x:c>
+      <x:c r="E370" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="371" spans="1:5">
+      <x:c r="A371" s="0" t="n">
+        <x:v>425000</x:v>
+      </x:c>
+      <x:c r="B371" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C371" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D371" s="0" t="n">
+        <x:v>2658</x:v>
+      </x:c>
+      <x:c r="E371" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="372" spans="1:5">
+      <x:c r="A372" s="0" t="n">
+        <x:v>426600</x:v>
+      </x:c>
+      <x:c r="B372" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C372" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D372" s="0" t="n">
+        <x:v>2769</x:v>
+      </x:c>
+      <x:c r="E372" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="373" spans="1:5">
+      <x:c r="A373" s="0" t="n">
+        <x:v>429900</x:v>
+      </x:c>
+      <x:c r="B373" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C373" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D373" s="0" t="n">
+        <x:v>2560</x:v>
+      </x:c>
+      <x:c r="E373" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="374" spans="1:5">
+      <x:c r="A374" s="0" t="n">
+        <x:v>429950</x:v>
+      </x:c>
+      <x:c r="B374" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C374" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D374" s="0" t="n">
+        <x:v>2715</x:v>
+      </x:c>
+      <x:c r="E374" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="375" spans="1:5">
+      <x:c r="A375" s="0" t="n">
+        <x:v>459900</x:v>
+      </x:c>
+      <x:c r="B375" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C375" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D375" s="0" t="n">
+        <x:v>1884</x:v>
+      </x:c>
+      <x:c r="E375" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="376" spans="1:5">
+      <x:c r="A376" s="0" t="n">
+        <x:v>475000</x:v>
+      </x:c>
+      <x:c r="B376" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C376" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D376" s="0" t="n">
+        <x:v>4704</x:v>
+      </x:c>
+      <x:c r="E376" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="377" spans="1:5">
+      <x:c r="A377" s="0" t="n">
+        <x:v>488000</x:v>
+      </x:c>
+      <x:c r="B377" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C377" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D377" s="0" t="n">
+        <x:v>2123</x:v>
+      </x:c>
+      <x:c r="E377" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="378" spans="1:5">
+      <x:c r="A378" s="0" t="n">
+        <x:v>595000</x:v>
+      </x:c>
+      <x:c r="B378" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C378" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D378" s="0" t="n">
+        <x:v>4000</x:v>
+      </x:c>
+      <x:c r="E378" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="379" spans="1:5">
+      <x:c r="A379" s="0" t="n">
+        <x:v>599000</x:v>
+      </x:c>
+      <x:c r="B379" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C379" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D379" s="0" t="n">
+        <x:v>2943</x:v>
+      </x:c>
+      <x:c r="E379" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="380" spans="1:5">
+      <x:c r="A380" s="0" t="n">
+        <x:v>599000</x:v>
+      </x:c>
+      <x:c r="B380" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C380" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D380" s="0" t="n">
+        <x:v>5010</x:v>
+      </x:c>
+      <x:c r="E380" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="381" spans="1:5">
+      <x:c r="A381" s="0" t="n">
+        <x:v>600000</x:v>
+      </x:c>
+      <x:c r="B381" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C381" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D381" s="0" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+      <x:c r="E381" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="382" spans="1:5">
+      <x:c r="A382" s="0" t="n">
+        <x:v>689000</x:v>
+      </x:c>
+      <x:c r="B382" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C382" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D382" s="0" t="n">
+        <x:v>4415</x:v>
+      </x:c>
+      <x:c r="E382" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="383" spans="1:5">
+      <x:c r="A383" s="0" t="n">
+        <x:v>999900</x:v>
+      </x:c>
+      <x:c r="B383" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C383" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D383" s="0" t="n">
+        <x:v>5736</x:v>
+      </x:c>
+      <x:c r="E383" s="0" t="s">
+        <x:v>385</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Robot4-RealEstateWebScraping/output.xlsx
+++ b/Robot4-RealEstateWebScraping/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <x:si>
     <x:t>Price</x:t>
   </x:si>
@@ -31,1123 +31,1132 @@
     <x:t>Address</x:t>
   </x:si>
   <x:si>
-    <x:t>360 Newbury St UNIT 808, Boston, MA 02115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62-64 Bracewell Ave, North Adams, MA 01247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 Franklin St, North Adams, MA 01247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51 Washington Ave, North Adams, MA 01247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 Phelps St #1, Marlborough, MA 01752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81 Summit Ave, North Adams, MA 01247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 9th Ave, Montague, MA 01351</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 Northridge Rd #16, Beverly, MA 01915</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181 Boston Post Rd #63, Marlborough, MA 01752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739 Daniel Shays Hwy #138, Athol, MA 01331</x:t>
-  </x:si>
-  <x:si>
-    <x:t>347 E Main St, North Adams, MA 01247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30 Dalton Ave, Pittsfield, MA 01201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-15 Chestnut St, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>272 Drury Ave, Athol, MA 01331</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181 River Rd, Clarksburg, MA 01247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>328 Linden St, Holyoke, MA 01040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>380 Front St, Winchendon, MA 01475</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116 Us Highway 20, Chester, MA 01011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66 Estabrook St, Athol, MA 01331</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29 Alden Ave, Pittsfield, MA 01201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26 Ryan Rd APT 3, North Brookfield, MA 01535</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-29 Noel St, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65 Cabot St, Chicopee, MA 01013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170 High St, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93 Woodbridge Rd #93, Chicopee, MA 01022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32 Randall Pl, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42 Tucker Ter, Raynham, MA 02767</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90 Pleasant St, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146 Temby St, Springfield, MA 01119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25 Century Way #25, Gardner, MA 01440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42 Ashley St, Pittsfield, MA 01201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205 Beech St, Holyoke, MA 01040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113 Sunrise Ln, Chicopee, MA 01020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84 Beverly St #84, Chicopee, MA 01013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22 Griffin St, Palmer, MA 01069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144 Lamont St, Springfield, MA 01119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 Otis St, Westfield, MA 01085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Princess Ave, Attleboro, MA 02703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28 Pine St #C, Attleboro, MA 02703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 Drake Rd UNIT 17, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28 Congress St, Pittsfield, MA 01201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>590 White St, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121 Camp St UNIT 114, West Yarmouth, MA 02673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36 Water Street Ln, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49 Oakland St #49, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78-80 Apsley St #3, Hudson, MA 01749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366 County St, New Bedford, MA 02740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170 Paridon St, Springfield, MA 01118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163 Providence St #B, Millville, MA 01529</x:t>
-  </x:si>
-  <x:si>
-    <x:t>541 Chicopee St, Chicopee, MA 01013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149 Rolf Ave, Chicopee, MA 01020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46 Johnson St, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 Central Ave, Dudley, MA 01571</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208 Wrentham Rd, Springfield, MA 01119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 Pickett Pl, Springfield, MA 01109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13 Mansion Woods Dr #B, Agawam, MA 01001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>215 Holyoke St, Ludlow, MA 01056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>369 Aiken Ave APT 9, Lowell, MA 01850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41 W Meadow Estates Dr #41, West Townsend, MA 01474</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62 Mechanic St, Shelburne Falls, MA 01370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>855 W Main St APT 12, Hyannis, MA 02601</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30 Imperial St, Pittsfield, MA 01201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62 Main St #54, Hatfield, MA 01038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 Brooks Ave, Pittsfield, MA 01201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>293 Abbott St, Springfield, MA 01118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>419 Southwick Rd APT C12, Westfield, MA 01085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95 Campechi St, Springfield, MA 01104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133 Nijal Ct #133, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40 Pipers Way, Carver, MA 02330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 Melanie Ln, Carver, MA 02330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36 James St, New Bedford, MA 02740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>308 East St, Chicopee, MA 01020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25 Eton St, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33 Petticoat Hill Rd #B, Williamsburg, MA 01096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62 Kenwood Park, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22 Moseley Ave, Westfield, MA 01085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46 Pointe Rok Dr #46, Worcester, MA 01604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45 Elm Hill Ave, Leominster, MA 01453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 Vincent St, Dartmouth, MA 02747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55 Tabor Xing UNIT 55, Longmeadow, MA 01106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>168 Hart St APT 73, Taunton, MA 02780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>230 Gosnold St #15ABC, Hyannis, MA 02601</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 Parker Ct, Attleboro, MA 02703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>234 Carver St, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>441 Buck Island Rd APT F2, West Yarmouth, MA 02673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 Tremont St, Oxford, MA 01540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 Christian Way, West Bridgewater, MA 02379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 Shea St, Dracut, MA 01826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 Sachem St, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>385 Orchard St, New Bedford, MA 02740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86 Granby St, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 Green Briar Rd #9, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141 Dorset St, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182 Tarkiln Hill Rd, New Bedford, MA 02745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68 Pleasant St UNIT 28, Oxford, MA 01537</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27 Falmouth St, Attleboro, MA 02703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 Maries Way, Raynham, MA 02767</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1191 Nantasket Ave APT 1, Hull, MA 02045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114 1/2 Southgate St, Worcester, MA 01603</x:t>
-  </x:si>
-  <x:si>
-    <x:t>295 Lynnfield St, Lynn, MA 01904</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 Margin St, New Bedford, MA 02744</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41-43 Farmer Ave, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 Salem St, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>741 Washington St APT 7, South Easton, MA 02375</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 Maynard Ave, Webster, MA 01570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 William St, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132 Hartwell St, Southbridge, MA 01550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 Summer St #12, Amesbury, MA 01913</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Junior St, New Bedford, MA 02740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218 Longhill St, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45 Fremont St, Lowell, MA 01850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27 Hickory Ln, South Dennis, MA 02660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 Ripley St, Somerset, MA 02725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28 Beverly Ave, Uxbridge, MA 01569</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181 Littleton Rd UNIT 221, Chelmsford, MA 01824</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Huntington Ave, Worcester, MA 01606</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 Kennedy Dr UNIT 31, North Chelmsford, MA 01863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>404 Blueberry Cir, Middleboro, MA 02346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Acadia Kimball Rd UNIT 6, Amesbury, MA 01913</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91 Frederick St APT 77, Dracut, MA 01826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 Pine St, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 Exchange St, Holliston, MA 01746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212 Elm St, Marlborough, MA 01752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30 Highwood Dr, Franklin, MA 02038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 Felton St #3, Lowell, MA 01852</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6-8 Chestnut St #4, Gloucester, MA 01930</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 Greybert Ln, Worcester, MA 01602</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 Elm St, Lenox, MA 01240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1451 Read St, Somerset, MA 02726</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56 Bay St, Hull, MA 02045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35 Marsh Dr #A, Taunton, MA 02780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 River St, Salem, MA 01970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 Alden Dr #11, Berlin, MA 01503</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 Frank St, Middleboro, MA 02346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 Marcam Village Rd #20, North Oxford, MA 01537</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84 Pacific St, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181 Littleton Rd UNIT 139, Chelmsford, MA 01824</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5006 Island Dr, Middleboro, MA 02346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>901 Pouliot Pl, Wilmington, MA 01887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163 Pineywoods Ave, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91 Sanford Ave, Somerset, MA 02726</x:t>
-  </x:si>
-  <x:si>
-    <x:t>535 Converse St, Longmeadow, MA 01106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 Carver Square Blvd UNIT 11, Carver, MA 02330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25 Virginia St, Springfield, MA 01108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40 Calumet St, Revere, MA 02151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91 Mountain Gate Rd #91, Ashland, MA 01721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187 Green St, Fairhaven, MA 02719</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 Village Ln UNIT 11, Berlin, MA 01503</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30 Water St APT 9, Attleboro, MA 02703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Van St, Worcester, MA 01602</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107 Wightman St, North Chelmsford, MA 01863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>386 Brown St UNIT 3, Attleboro, MA 02703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 Oak Ridge Dr UNIT 3, Maynard, MA 01754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22 Mid Iron Way #7522, Mashpee, MA 02649</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 Belvoir Ave #A, Taunton, MA 02780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33 Olde Canal Way #33, Uxbridge, MA 01569</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Skyline Heights, Braintree, MA 02184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121 Camp St UNIT 125, West Yarmouth, MA 02673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>501 Commerce Dr UNIT 3113, Braintree, MA 02184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 Marston St #2A, Amesbury, MA 01913</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36-38 North St, Great Barrington, MA 01230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80 1/2 Essex St UNIT 80H, Beverly, MA 01915</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 May St, Lowell, MA 01850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 Country Hill Rd #7, Jefferson, MA 01522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 Clairmont St, Longmeadow, MA 01106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71 Lafayette St #73, New Bedford, MA 02745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 Robert Cir UNIT 23, North Grafton, MA 01536</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27 Marion Ave, Brockton, MA 02301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253 Coburn Ave, Worcester, MA 01604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35 Holyoke St, Northampton, MA 01060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>360 Doherty St, Fall River, MA 02720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>428 Lowell St, Lawrence, MA 01841</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132-134 West St, Leominster, MA 01453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 A Rudolph St, Worcester, MA 01604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>501 Commerce Dr UNIT 2307, Braintree, MA 02184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43 Lincoln St, Medway, MA 02053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 1/2 Hampden St #1, Gloucester, MA 01930</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60 Southpoint Dr #J, Sandwich, MA 02563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 Green St #1, Salem, MA 01970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123 Elm St APT A-12, Quincy, MA 02169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 Voyagers Ln UNIT 11, Ashland, MA 01721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70 Auburn St, Brockton, MA 02302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 Chesterfield Ave, Billerica, MA 01821</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40 N End Blvd, Salisbury, MA 01952</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 South St, Great Barrington, MA 01230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 Summer St, Fairhaven, MA 02719</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55 E Bluff Rd UNIT 55, Ashland, MA 01721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 Pearl Ave, Revere, MA 02151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5109 Green St, Middleboro, MA 02346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 Elaine Cir, Springfield, MA 01109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 Fairview St, Leominster, MA 01453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105 Clarendon St, Fitchburg, MA 01420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32 Lewis Ave, Somerset, MA 02726</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119 Afra Dr #119, West Boylston, MA 01583</x:t>
-  </x:si>
-  <x:si>
-    <x:t>800 Main St, Lancaster, MA 01523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93 Trailside Way UNIT 93, Ashland, MA 01721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 Parks St #A19, Duxbury, MA 02332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22 Fearless Ave, Lynn, MA 01902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134 Dorwin Dr, West Springfield, MA 01089</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 Howland St, Marlborough, MA 01752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107 Kernwood Dr, Lynn, MA 01904</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Concord St, Maynard, MA 01754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29 Westchester Dr, Lawrence, MA 01843</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 Pictun Rd, Randolph, MA 02368</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37 Constitution Ln #58, Danvers, MA 01923</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1400 Gorham St #25, Lowell, MA 01852</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Waushakum Ave, Ashland, MA 01721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 Coe St, Fairhaven, MA 02719</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 Meringo Ave, Webster, MA 01570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>288 Montvale Ave, Woburn, MA 01801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76 William Onthank Ln #76, Southborough, MA 01772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 Edgewood Rd, Holbrook, MA 02343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 S Williams St, Haverhill, MA 01835</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187 Atlantic Ave, Salisbury, MA 01952</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71 Pilgrim Rd, Weymouth, MA 02191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30 Glen Echo Shore Rd, Charlton, MA 01507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36 Cambridge Rd APT 17, Woburn, MA 01801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37 Rockland St, Quincy, MA 02169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93 Puritan Ave, Worcester, MA 01604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 Shennen St, Quincy, MA 02169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82-84 Belleville Rd, New Bedford, MA 02745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43 Elaine Cir, Springfield, MA 01109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 Central St, Hudson, MA 01749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69 Grant Rd, Devens, MA 01434</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 Nickerson St, Brockton, MA 02302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>207 Jefferson Ave, Salem, MA 01970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 Northern Lights Way, Bellingham, MA 02019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184 Mill St #184, Stoughton, MA 02072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1124 Bedford St, Fall River, MA 02723</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 Clear Pond Dr #32, Walpole, MA 02081</x:t>
-  </x:si>
-  <x:si>
-    <x:t>229 Long Pond Dr, Dracut, MA 01826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73 Broad Reach UNIT T123C, Weymouth, MA 02191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85-87 Fellsway W #1, Medford, MA 02155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 Belmont St, North Andover, MA 01845</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 Marina Dr #12, Hull, MA 02045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38 Hudson St, Lynn, MA 01904</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137 Atlantic Ave, Hull, MA 02045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83 Sunnyside Ave, Arlington, MA 02474</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 Drum Dr #24, Plymouth, MA 02360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>233 Beach Rd UNIT 12, Salisbury, MA 01952</x:t>
-  </x:si>
-  <x:si>
-    <x:t>273 Cambridge Rd APT 706, Woburn, MA 01801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 Abington Ave, Peabody, MA 01960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>255 North Rd UNIT 110, Chelmsford, MA 01824</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 Turtle Brook Rd #192, Canton, MA 02021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169 Western Ave, Lynn, MA 01904</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 Cottage St #B, Chelsea, MA 02150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>247 Park Ave, Revere, MA 02151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28 Manitou Rd, Canton, MA 02021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75 Abruzzi St #1, Revere, MA 02151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 Woodside St, Salem, MA 01970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39 Saville St, Saugus, MA 01906</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69 Endicott St, Peabody, MA 01960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52 High St #2, Woburn, MA 01801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40 Crestview Dr UNIT 40, Malden, MA 02148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 Kosciusko St, Peabody, MA 01960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42 Wyman Ave, Bourne, MA 02532</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1097 Ocean St, Marshfield, MA 02050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26 High St, Haverhill, MA 01832</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 Market St, Northampton, MA 01060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 Saint James Pl, Boston, MA 02119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 Baby Beach Rd, Groton, MA 01450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Roslyn St #3, Salem, MA 01970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>289 Elm St #11, Medford, MA 02155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>382 Ocean Ave APT 1801, Revere, MA 02151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81 Ash St #81, Reading, MA 01867</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 Pine St, Stoneham, MA 02180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 Hutchinson St, Franklin, MA 02038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50 Turner St, Quincy, MA 02169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 Newbury St, Revere, MA 02151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 Cummings St, Billerica, MA 01821</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 Hartland Way #12, Acton, MA 01720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Pleasant Street Ct, Medford, MA 02155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 Lyons St, Haverhill, MA 01832</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 Nancy Ann Ln LOT 14, Merrimac, MA 01860</x:t>
-  </x:si>
-  <x:si>
-    <x:t>909 Washington St UNIT 3, Norwood, MA 02062</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95 Brown Ave #1, Boston, MA 02131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 Morton St, Quincy, MA 02169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>943 Broadway, Chelsea, MA 02150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112 Glenwood Ave, Boston, MA 02136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>602 South Street, Quincy, MA 02169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29 Partridge Ln UNIT 29, Lynnfield, MA 01940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29 Merrill St, Newburyport, MA 01950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 Mceachern Pl, Gloucester, MA 01930</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Marina Dr UNIT 15, Hull, MA 02045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70 Washington Ave, Natick, MA 01760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 Mason St #2, Salem, MA 01970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 Northwood Dr UNIT 302, Sudbury, MA 01776</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Orange St, Chelsea, MA 02150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Pocahontas Rd, Pocasset, MA 02559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 Harlem St FLOOR 2, Dorchester, MA 02121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121 Wason St, Medford, MA 02155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 Warner St #A, Dorchester Center, MA 02124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51 Montmorenci Ave, East Boston, MA 02128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-15 Conn St, Woburn, MA 01801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175 North Ave #316, Wakefield, MA 01880</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43 Valley Rd, Milton, MA 02186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 Peabody St #9, Newton, MA 02458</x:t>
-  </x:si>
-  <x:si>
-    <x:t>584 Hale St, Beverly, MA 01915</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283 Sutton St, North Andover, MA 01845</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 Bellevue Ave #1, Revere, MA 02151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81 Grove St, Boston, MA 02132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Foster Ave, Woburn, MA 01801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108 Stetson Ave, Swampscott, MA 01907</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 Bellevue Ave #1, Winthrop, MA 02152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43 Merrymount Rd UNIT 5, Quincy, MA 02169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104 Coolidge Hill Rd APT 15, Watertown, MA 02472</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38 Clinton Ave, Oak Bluffs, MA 02557</x:t>
-  </x:si>
-  <x:si>
-    <x:t>536 Park St, Boston, MA 02124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 Bellevue Ave #2, Revere, MA 02151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 Juniper Trl #17, Hopkinton, MA 01748</x:t>
-  </x:si>
-  <x:si>
-    <x:t>386 Lawrence Rd, Medford, MA 02155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>692 Warren Ave, Brockton, MA 02301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57 Standish Way, West Yarmouth, MA 02673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 Mutton Ln, Weymouth, MA 02189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 Sheffield Dr, Peabody, MA 01960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 Ten Hills Rd UNIT 16, Somerville, MA 02145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Franklin Ter, Melrose, MA 02176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200 Webster Ave, Chelsea, MA 02150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 Prentice St, Waltham, MA 02451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121 North St, Salem, MA 01970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 Beechwood Rd, Lynnfield, MA 01940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86 Standish Way, West Yarmouth, MA 02673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162 Elliot Ave, Quincy, MA 02171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45-47 Madison St, Weymouth, MA 02189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211 Willow Brook Dr #211, Wayland, MA 01778</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54 Quimby St #54, Watertown, MA 02472</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41 Berlin Ave, Milton, MA 02186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68 Charles St, Arlington, MA 02474</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34 Landon Rd, Milton, MA 02186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 Claremont St, Waltham, MA 02451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>399 Hudson St #A, Northborough, MA 01532</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 Telegraph Ave, Hull, MA 02045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45 Peirce St #2, Waltham, MA 02453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 Franklin Pl UNIT 12, Acton, MA 01720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29 Lothrop Ave, Milton, MA 02186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60 Potomac St, Boston, MA 02132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65 Lincoln St, Norwood, MA 02062</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39 Bradwood St, Boston, MA 02131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 Clematis Rd, Medford, MA 02155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 Sharon St, Medford, MA 02155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>515 State Rd #0, Aquinnah, MA 02535</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 Vokes Ter, Lynnfield, MA 01940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78 Ash St #1, Waltham, MA 02453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 Chester St, Melrose, MA 02176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 Walker Way, Vineyard Haven, MA 02568</x:t>
-  </x:si>
-  <x:si>
-    <x:t>277-279 Roslindale Ave, Boston, MA 02131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>675 Hammond St #3, Chestnut Hill, MA 02467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210 Palfrey St, Watertown, MA 02472</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125 Washington St, Winchester, MA 01890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 Tonawanda St, Boston, MA 02124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>257 Main St, Wellfleet, MA 02667</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 Squanto Rd, Weymouth, MA 02191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149 Church St, Boston, MA 02132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>240-242 White St, Belmont, MA 02478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 John St, Chelsea, MA 02150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-30 Morton St, Lawrence, MA 01841</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117 Varnum St UNIT 117, Arlington, MA 02474</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 Wolcott Rd, Chestnut Hill, MA 02467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32 Massachusetts Ave #2, Lexington, MA 02420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>676 Worcester St, Wellesley, MA 02482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 Fife Rd, Wellesley, MA 02481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48-50 Whitfield Rd, Somerville, MA 02144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>254-256 Tremont St, Newton, MA 02458</x:t>
-  </x:si>
-  <x:si>
-    <x:t>324 Clyde St #324, Chestnut Hill, MA 02467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 Durant Rd, Wellesley, MA 02482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>269 Bonad Rd, Chestnut Hill, MA 02467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>580 Washington St #405, Boston, MA 02111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 Kinikinnik Way, Nantucket, MA 02554</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184 Washington St, Winchester, MA 01890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 Falcon Ct, Nantucket, MA 02554</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 Brucewood St, West Roxbury, MA 02132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155 Brookline St APT 13, Cambridge, MA 02139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55 Union St, Cambridge, MA 02141</x:t>
+    <x:t>17 West St, New Berlin, NY 13411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4967 State Highway 7, Hoosick, NY 12089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 Smith St, Johnstown, NY 12095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123 White Birch Trl, Bloomingburg, NY 12721</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184 Remington St, Rochester, NY 14621</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 Domedion Ave, Buffalo, NY 14211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69 Clinton St, Gouverneur, NY 13642</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125 Crown St, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>239 Mckinley Ave, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 Gilbert St, Johnstown, NY 12095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148 Country Meadow Dr, Frankfort, NY 13340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 Zoa Ave, Johnson City, NY 13790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35 Woodworth Ave, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>236 Nowlan Rd, Binghamton, NY 13904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 Willets Ave, Belmont, NY 14813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107 S Market St, Johnstown, NY 12095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 Grant Ave, Amsterdam, NY 12010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117 Stowe St, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 W Main St, Port Jervis, NY 12771</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215 N Lake Rd, Haines Falls, NY 12436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121 Bowen St, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 Cushman Ave, Earlville, NY 13332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109 Oakleaf Dr, Weedsport, NY 13166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>306 Dorf St, Herkimer, NY 13350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60 W 11th Ave, Gloversville, NY 12078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>399 Fairmount Ave, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 Royal Ave, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13 Hummingbird Ln, Keeseville, NY 12972</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76 Mcdaniel Ave, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123 S 7th St, Olean, NY 14760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>628 Ford St, Ogdensburg, NY 13669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29 Calla Way, Buffalo, NY 14225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 Woodard Ave, Hadley, NY 12835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118 Vedder Rd, Catskill, NY 12414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29 S Alleghany Ave, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 Massachusetts Ave, Johnson City, NY 13790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203 Cole Ave, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80 Dickinson St, Binghamton, NY 13905</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196 Ackley Ave, Johnson City, NY 13790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42 Martin Ave, Johnson City, NY 13790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54 Broome St, Catskill, NY 12414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142 Hallock St, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 Cady St, Johnstown, NY 12095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57 High St, Johnson City, NY 13790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2353 Seneca St, Binghamton, NY 13903</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440 Front St, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6341 Shore Acres Dr, Hilton, NY 14468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>463 Main St, Johnson City, NY 13790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4096 W Shore Dr, Bethel, NY 12786</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2007 Colvin Blvd, Tonawanda, NY 14150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297 Chelsea St, Buffalo, NY 14223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>607 Calvert St, Rome, NY 13440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>909 Park St, Endicott, NY 13760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 Beechview Ave, Jamestown, NY 14701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 Fox Run, Woodridge, NY 12789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1504 Davis Ave, Endwell, NY 13760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11559 Route 9w #1, Coxsackie, NY 12051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>225 N Baldwin St, Johnson City, NY 13790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39 Center Road High Falls Park, High Falls, NY 12440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 1st Dr, Hyde Park, NY 12538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29 Dennison Ave, Binghamton, NY 13901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 Lake St, Bethel, NY 12720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26 1st St, Hoosick Falls, NY 12090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025 Route 9 N LOT 159, Greenfield Center, NY 12833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 Wilbur Rd, New Hartford, NY 13413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>419 Riverside Dr, Johnson City, NY 13790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 Crestwood Pl, Cheektowaga, NY 14225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>977 Stone Rd, Rochester, NY 14616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>505 W Washington Ave, Elmira, NY 14901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 Parkwood Ave, Johnstown, NY 12095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5475 E Washington St, Brewerton, NY 13029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226 Norwood Ave, Liverpool, NY 13088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74 Water St #6, Mayville, NY 14757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1149 Taylor Ave, Utica, NY 13501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103 Winding Wood Rd, East Fishkill, NY 12533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>260 Gatewood Ave, Rochester, NY 14624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>515 E Garden St, Rome, NY 13440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4912 Mount Vernon Blvd, Hamburg, NY 14075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154 Overlook Ave APT 2H, Peekskill, NY 10566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 Idyllwood Ln, Rochester, NY 14617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3014 Lakeshore Dr #24-D, Lake George, NY 12845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/2 Crary Ave, Binghamton, NY 13905</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 Scenic Dr APT U, Croton On Hudson, NY 10520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 Marigold Dr #7, Highland Mills, NY 10930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 Kendall Ave, Binghamton, NY 13903</x:t>
+  </x:si>
+  <x:si>
+    <x:t>942 Central Pkwy, Schenectady, NY 12309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67 Heather Rd, Cheektowaga, NY 14225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>451 Van Roen Rd, Utica, NY 13502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220 Highland Ave, Tonawanda, NY 14150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3053 State Route 4, Hudson Falls, NY 12839</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69 Linden Ave, Middletown, NY 10940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 Zane Rd, Binghamton, NY 13903</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107 Grant Ct, Olean, NY 14760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 Mahoney Rd, Stuyvesant, NY 12173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 Chestnut St, South Glens Falls, NY 12803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 Marion Ave, Glens Falls, NY 12801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 Smith Ct, Wynantskill, NY 12198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36 Westerlo St #2, Albany, NY 12202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321 Harry L Dr, Johnson City, NY 13790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188 Broadway, Fort Edward, NY 12828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 Catherine St, South Glens Falls, NY 12803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 Pleasant St, Utica, NY 13501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250 Kings Ferry Rd #13, Montrose, NY 10548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102 Woods Edge Dr, Clinton, NY 13323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 Genesee Ave, Binghamton, NY 13903</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 Norton St, Newburgh, NY 12550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98 Burns St, Tonawanda, NY 14150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 Beverly Pl, Utica, NY 13501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 Erie St, Rotterdam Junction, NY 12150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 Prospect Ave, Colonie, NY 12205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>402 Lamarck Dr, Cheektowaga, NY 14225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1353 Howard St, Peekskill, NY 10566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78 Fiero Rd, Saugerties, NY 12477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91 Willow Breeze Rd, Buffalo, NY 14223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 Jewett Pl, Utica, NY 13501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>360 Floradale Ave, Tonawanda, NY 14150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>491 Niagara St, Tonawanda, NY 14150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 Brookline Dr, Utica, NY 13501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 Taft Ave, Newburgh, NY 12550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107 Spring St, Catskill, NY 12414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 Carrie Ln, Middletown, NY 10940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 Overlook Ln N #B/D, Chestertown, NY 12817</x:t>
+  </x:si>
+  <x:si>
+    <x:t>607 Farmers Ave, Bellmore, NY 11710</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 Fieldstone Dr APT B2, Hartsdale, NY 10530</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2985 State Highway 29a, Caroga Lake, NY 12032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 South St, Beacon, NY 12508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85 Grand Ave, Middletown, NY 10940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143 Windham Ridge Rd, Windham, NY 12496</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1331 Broadway #P21-22, Hewlett, NY 11557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126 Manhattan Ave, White Plains, NY 10603</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74 Water St PENTHOUSE 400-2, Mayville, NY 14757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67 Whitetail Dr, Ithaca, NY 14850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153-13 121st Ave, Jamaica, NY 11434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109 Jackson Ave, Nyack, NY 10960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>628 New Hague Rd, Hague, NY 12836</x:t>
+  </x:si>
+  <x:si>
+    <x:t>267 E Main St, Middletown, NY 10940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13355 Hook Creek Blvd, Valley Stream, NY 11580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 Otter Way, Lake Placid, NY 12946</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88 Woodmere Dr, Tonawanda, NY 14150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34 Sunset Island Rd, Wilson, NY 14172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26 Hudson Ave, Colonie, NY 12205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 Leaf Rd, Delmar, NY 12054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8829 183rd St, Jamaica, NY 11423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150-79 Village Rd #58C, Kew Gardens, NY 11415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71 Saint George Dr, Shirley, NY 11967</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106 Main St, Hudson Falls, NY 12839</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 Lincoln St, Haverstraw, NY 10927</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219 W 2nd Ave, Johnstown, NY 12095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39 Webster Ave, Glens Falls, NY 12801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89 Deseyn Dr, Canandaigua, NY 14424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 Darrow Pl, Poughkeepsie, NY 12603</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1325 Ackerson Blvd, Bay Shore, NY 11706</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166 Breezewood Cmn, East Amherst, NY 14051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2666 Miles Ave #P1, Bronx, NY 10465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 Greenport Pkwy, Hudson, NY 12534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230 Feller Dr, Central Islip, NY 11722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2679 State Route 28, Thendara, NY 13472</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 E Smith St, Amityville, NY 11701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9934 Bellaire Pl, Jamaica, NY 11429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4075 W Shore Dr, White Lake, NY 12786</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 Topland Rd, Mahopac, NY 10541</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141 S Melcher St, Johnstown, NY 12095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 Terra Ct, Highland Mills, NY 10930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>740 Washington St, Baldwin, NY 11510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>405 W Main St, Sackets Harbor, NY 13685</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 Kless Ct, Middletown, NY 10940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98 State St, Ossining, NY 10562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28 Hilltop Cir, Fishkill, NY 12524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1131 Orchard St, Peekskill, NY 10566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 Maplewood Dr, Mount Kisco, NY 10549</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1865 Oliver Ave, Valley Stream, NY 11580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79 Cromwell Hill Rd, Monroe, NY 10950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>574 Rye Ct, Valley Stream, NY 11580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41 Morris St, New Rochelle, NY 10801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298 N Shore Rd, Gloversville, NY 12078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151 Lincoln Ave, Mineola, NY 11501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279 Maplewood Rd, Huntington Station, NY 11746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40 Muncy Ave, West Babylon, NY 11704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3267 Wolfson Dr, Baldwin, NY 11510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13 Wellsboro Rd, Valley Stream, NY 11580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 Golden Ave, Greenwood Lake, NY 10925</x:t>
+  </x:si>
+  <x:si>
+    <x:t>431 Willow Grove Rd, Stony Point, NY 10980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 Dakota Ct, Suffern, NY 10901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167 Lake Shore Dr, Mahopac, NY 10541</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 Long St, Lake Grove, NY 11755</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2955 N Wading River Rd, Wading River, NY 11792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124 Foxhall Ave, Kingston, NY 12401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 Harriman Ave, Sloatsburg, NY 10974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216 California Dr, Williamsville, NY 14221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208 Centre Ave APT 3C, New Rochelle, NY 10805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86 Crystal Hill Dr, Pomona, NY 10970</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212 N State Rd, Briarcliff Manor, NY 10510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 Hollyhock Rd, Levittown, NY 11756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182 Mill Rd, Ronkonkoma, NY 11779</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 Wyndham Ct, Nanuet, NY 10954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14270 W Lake Rd, Hammondsport, NY 14840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4228 Gunther Ave, Bronx, NY 10466</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 Forest Ave, Ossining, NY 10562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166 Baur St, West Babylon, NY 11704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29 Nelson St, Farmingdale, NY 11735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241 W 2nd St, Deer Park, NY 11729</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241 6th St, Lindenhurst, NY 11757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218-14 99th Ave, Queens Village, NY 11429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197 Lawrence St, Uniondale, NY 11553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>538 Beach 69th St, Far Rockaway, NY 11692</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100 W 141st St APT 52, New York, NY 10030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>433 S 1st Ave, Mount Vernon, NY 10550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 Knoll Vw, Ossining, NY 10562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 Marionette Walk, Lindenhurst, NY 11757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 S Lawn Ave, Elmsford, NY 10523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63 Meridian Rd, Levittown, NY 11756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13 Spring St, Tarrytown, NY 10591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1094 N Broadway, Massapequa, NY 11758</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49 Colonial Ave, Freeport, NY 11520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>311 Blacksmith Rd W, Levittown, NY 11756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57 W Hampton Rd, Lindenhurst, NY 11757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50 Tower Ln, Levittown, NY 11756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87 Kensico Ave, Valhalla, NY 10595</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 Tower Ln, Levittown, NY 11756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1060 Woodfield Rd, West Hempstead, NY 11552</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 Arcade Pl, Elmont, NY 11003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57 President St, Hempstead, NY 11550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133 Giller Ave, Holbrook, NY 11741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28 Carl St, Valley Stream, NY 11580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11620 Van Wyck Expy, Jamaica, NY 11420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 Ellwood St, Glen Cove, NY 11542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1149 Honoco Rd, Aurora, NY 13026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>242 E Hampton Rd, Lindenhurst, NY 11757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117 E Cabot Ln, Westbury, NY 11590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201 E 15th St APT 3E, New York, NY 10003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25 Goodwin Ave, White Plains, NY 10607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201 E 15th St APT 5E, New York, NY 10003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 Wilshire Ct, Freeport, NY 11520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109 N Montague St, Valley Stream, NY 11580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32 Ward Pl, Ossining, NY 10562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2357 Volante Pl, Westbury, NY 11590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 Winthrop Ave, New Rochelle, NY 10801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26 Green St #0, Beacon, NY 12508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226 S 10th Ave, Mount Vernon, NY 10550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7467 W Murray Dr, Cicero, NY 13039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 Horizon Ln, Levittown, NY 11756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 Birchbrook Dr, Smithtown, NY 11787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144 Broadway, Valley Stream, NY 11580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 Davison Pl, Freeport, NY 11520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81 Milford St, Brooklyn, NY 11208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>800 Chess Dr, Baldwin, NY 11510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67 Green Ave, Hempstead, NY 11550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1380 Surprise St, Elmont, NY 11003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>266 Duckpond Dr S, Wantagh, NY 11793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130 W 7th St, Deer Park, NY 11729</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303 E 57th St APT 6D, New York, NY 10022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1526 Westervelt Ave, North Baldwin, NY 11510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1642 Arkansas Dr, Valley Stream, NY 11580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 Maple Rd, Inwood, NY 11096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>290 41st St, Lindenhurst, NY 11757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>536 Commerce St, Hawthorne, NY 10532</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46 Howard Pkwy, New Rochelle, NY 10801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2351 Penatiquit Ave, Seaford, NY 11783</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3857 Mill Rd, Seaford, NY 11783</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2815 Decatur Ave, Bronx, NY 10458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45 Payne St, Elmsford, NY 10523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>323 State St, Hudson, NY 12534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70 Eimer St, Tappan, NY 10983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34 College Ln, Westbury, NY 11590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1826 Gormley Ave, Merrick, NY 11566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240 Sheldon Ave, Tarrytown, NY 10591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77 Beaumont Dr, Plainview, NY 11803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>459 S 1st Ave, Mount Vernon, NY 10550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1032 Mile Square Rd, Yonkers, NY 10704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150 Lenox Rd, West Babylon, NY 11704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>411 N Newbridge Rd, Levittown, NY 11756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32 Wandel Ave, Staten Island, NY 10304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>397 California Rd, Bronxville, NY 10708</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119 Hitching Post Ln, Yorktown Heights, NY 10598</x:t>
+  </x:si>
+  <x:si>
+    <x:t>541 Jefferson Ave, Mamaroneck, NY 10543</x:t>
+  </x:si>
+  <x:si>
+    <x:t>270 Piermont Ave, Nyack, NY 10960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 Hayward St, Yonkers, NY 10704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 Homewood Rd, Mount Vernon, NY 10553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33 Petersville Rd, New Rochelle, NY 10801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 Church St, Cold Spring, NY 10516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1101 Brentwood Dr, Tarrytown, NY 10591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17314 108th Ave, Jamaica, NY 11433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1526 Debra Pl, Valley Stream, NY 11580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 Stone Creek Ln, Briarcliff Manor, NY 10510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192 Chatterton Pkwy, White Plains, NY 10606</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 Lincoln St, New Rochelle, NY 10801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>261 Friends Ln, Westbury, NY 11590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303 E 57th St #17CD, New York, NY 10022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190 E 72nd St APT 26B, New York, NY 10021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226 E 38th St, Brooklyn, NY 11203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140 Park Dr, Eastchester, NY 10709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1019 Washington Ave, Westbury, NY 11590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90 Grand St, Croton On Hudson, NY 10520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3852 Harbor Blvd, Seaford, NY 11783</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 Grange Ave, Yonkers, NY 10710</x:t>
+  </x:si>
+  <x:si>
+    <x:t>643 State Route 9p, Saratoga Springs, NY 12866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3833 Bayberry Ln, Seaford, NY 11783</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120 Kingdom Ave, Staten Island, NY 10312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13449 161st St, Jamaica, NY 11434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26 Bainton St, Yonkers, NY 10704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232 Cypress Ln W, Westbury, NY 11590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2250 Croydon Dr, Baldwin, NY 11510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>502 Helen Rd, Mineola, NY 11501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 Locust St, Valley Stream, NY 11581</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 Blanchard Ave, Dobbs Ferry, NY 10522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>428 6th St, Greenport, NY 11944</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 Sherman Ave, Plainview, NY 11803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303 E 57th St #20JK, New York, NY 10022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97 Estate Dr, Jericho, NY 11753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 Park Ave, Tarrytown, NY 10591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9807 Avenue L, Brooklyn, NY 11236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 Rex Pl, Yonkers, NY 10704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>504 Maitland St, East Meadow, NY 11554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1352 Estelle Ct, Seaford, NY 11783</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53 Greenvale Cir, White Plains, NY 10607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 Rosalie Dr, Plainview, NY 11803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40-42 S Front St, Hudson, NY 12534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>325 Paul Pl, West Hempstead, NY 11552</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79 Berry St, Valley Stream, NY 11580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15905 134th Ave, Jamaica, NY 11434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>758 Mamaroneck Ave, White Plains, NY 10605</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140 Bismark Ave, Valley Stream, NY 11581</x:t>
+  </x:si>
+  <x:si>
+    <x:t>601 Lakeview Ave, Rockville Centre, NY 11570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 Thornton Hl, Ossining, NY 10562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113-34 200th St, Saint Albans, NY 11412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15153 17th Rd, Whitestone, NY 11357</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88-26 204th St, Hollis, NY 11423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 Walnut St, Greenvale, NY 11548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303 E 57th St #17GH, New York, NY 10022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110 E Shore Dr, Babylon, NY 11702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36 Keen Ct, Brooklyn, NY 11229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93 Joyce Rd, Eastchester, NY 10709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 Roy Pl, Eastchester, NY 10709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 Brier Ln, Pelham, NY 10803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90 Penfield Ave, Croton On Hudson, NY 10520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>637 Clove Rd, Staten Island, NY 10310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1011 Dartmouth Ln, Woodmere, NY 11598</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48 Dawes Ave, Syosset, NY 11791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3910 Clarendon Rd, Brooklyn, NY 11203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9104 Lakeshore Dr, Hague, NY 12836</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109 Narwood Rd, Massapequa, NY 11758</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 Linden Ave, Floral Park, NY 11001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1611 Plymouth Ave #A, Bronx, NY 10461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>437 Arbuckle Ave, Cedarhurst, NY 11516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>634 Meryl Dr, Westbury, NY 11590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>945 Split Rock Rd, Pelham, NY 10803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4-74 48th Ave APT 33A, Long Island City, NY 11109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>459 E 93rd St, Brooklyn, NY 11212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35 Friendly Ln, Jericho, NY 11753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100 Leahy St, Jericho, NY 11753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46 Flower Ln, Jericho, NY 11753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 Andrew Rd, Eastchester, NY 10709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1357 California Rd, Eastchester, NY 10709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41 Bellair Dr, Dobbs Ferry, NY 10522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305 Carvel Ave, Cedarhurst, NY 11516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100 W 57th St UNIT 4JK, New York, NY 10019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 Leslie Rd, Eastchester, NY 10709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 Waterside Close, Eastchester, NY 10709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25 Beechwood Way, Briarcliff Manor, NY 10510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 The Ter, Katonah, NY 10536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211 4th Ave, Pelham, NY 10803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 Nethermont Ave, N White Plains, NY 10603</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41 Stewart Ave, Tuckahoe, NY 10709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37 Prince Ln, Westbury, NY 11590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110 Highland Pl, Brooklyn, NY 11208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>533 11th St, Cedarhurst, NY 11516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 Weyburn Rd, Scarsdale, NY 10583</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144 Lindberg St, Manhasset, NY 11030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>557 Cedarwood Dr, Cedarhurst, NY 11516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29 Holly Pl, Larchmont, NY 10538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2801 161st St, Flushing, NY 11358</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9813 Graphite Mountain Rd, Hague, NY 12836</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124 Bayview Ave, Manhasset, NY 11030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35 S 5th St, Hudson, NY 12534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148 Shoreview Rd, Manhasset, NY 11030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14009 14th Ave, Flushing, NY 11357</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1523,16 +1532,16 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="n">
-        <x:v>8000</x:v>
+        <x:v>10000</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>1850</x:v>
+        <x:v>1512</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>5</x:v>
@@ -1540,16 +1549,16 @@
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="n">
-        <x:v>40000</x:v>
+        <x:v>14900</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>2628</x:v>
+        <x:v>1310</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>6</x:v>
@@ -1557,16 +1566,16 @@
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="n">
-        <x:v>44900</x:v>
+        <x:v>15000</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>2749</x:v>
+        <x:v>1563</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>7</x:v>
@@ -1574,16 +1583,16 @@
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="n">
-        <x:v>52000</x:v>
+        <x:v>16000</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>2528</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>8</x:v>
@@ -1591,16 +1600,16 @@
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="n">
-        <x:v>55000</x:v>
+        <x:v>19000</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>1152</x:v>
+        <x:v>1768</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>9</x:v>
@@ -1608,16 +1617,16 @@
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="n">
-        <x:v>59900</x:v>
+        <x:v>29900</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>1385</x:v>
+        <x:v>1331</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>10</x:v>
@@ -1625,7 +1634,7 @@
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="n">
-        <x:v>60000</x:v>
+        <x:v>30000</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
         <x:v>4</x:v>
@@ -1634,7 +1643,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>1132</x:v>
+        <x:v>1656</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>11</x:v>
@@ -1642,16 +1651,16 @@
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="n">
-        <x:v>63000</x:v>
+        <x:v>34900</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>1300</x:v>
+        <x:v>1938</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>12</x:v>
@@ -1659,16 +1668,16 @@
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="n">
-        <x:v>79000</x:v>
+        <x:v>37500</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>1100</x:v>
+        <x:v>1512</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>13</x:v>
@@ -1676,16 +1685,16 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="n">
-        <x:v>80275</x:v>
+        <x:v>39900</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>1344</x:v>
+        <x:v>2048</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>14</x:v>
@@ -1693,16 +1702,16 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="n">
-        <x:v>82000</x:v>
+        <x:v>39900</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>1291</x:v>
+        <x:v>1344</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>15</x:v>
@@ -1710,16 +1719,16 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="n">
-        <x:v>89900</x:v>
+        <x:v>43900</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>1312</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>16</x:v>
@@ -1727,16 +1736,16 @@
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="n">
-        <x:v>96000</x:v>
+        <x:v>49000</x:v>
       </x:c>
       <x:c r="B14" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>5976</x:v>
+        <x:v>1549</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>17</x:v>
@@ -1744,16 +1753,16 @@
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="n">
-        <x:v>99850</x:v>
+        <x:v>49900</x:v>
       </x:c>
       <x:c r="B15" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>1765</x:v>
+        <x:v>1510</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>18</x:v>
@@ -1761,16 +1770,16 @@
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="n">
-        <x:v>109900</x:v>
+        <x:v>49900</x:v>
       </x:c>
       <x:c r="B16" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>1350</x:v>
+        <x:v>2756</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>19</x:v>
@@ -1778,16 +1787,16 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="n">
-        <x:v>139500</x:v>
+        <x:v>49900</x:v>
       </x:c>
       <x:c r="B17" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>1104</x:v>
+        <x:v>1746</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>20</x:v>
@@ -1795,16 +1804,16 @@
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="n">
-        <x:v>139900</x:v>
+        <x:v>49900</x:v>
       </x:c>
       <x:c r="B18" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>1614</x:v>
+        <x:v>2222</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>21</x:v>
@@ -1812,16 +1821,16 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="n">
-        <x:v>139900</x:v>
+        <x:v>54500</x:v>
       </x:c>
       <x:c r="B19" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>1880</x:v>
+        <x:v>1689</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>22</x:v>
@@ -1829,16 +1838,16 @@
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="n">
-        <x:v>149900</x:v>
+        <x:v>54900</x:v>
       </x:c>
       <x:c r="B20" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>1077</x:v>
+        <x:v>2084</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>23</x:v>
@@ -1846,16 +1855,16 @@
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="n">
-        <x:v>152900</x:v>
+        <x:v>55000</x:v>
       </x:c>
       <x:c r="B21" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>1112</x:v>
+        <x:v>4440</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>24</x:v>
@@ -1863,16 +1872,16 @@
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="n">
-        <x:v>157900</x:v>
+        <x:v>57000</x:v>
       </x:c>
       <x:c r="B22" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>1168</x:v>
+        <x:v>1421</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>25</x:v>
@@ -1880,16 +1889,16 @@
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="n">
-        <x:v>159900</x:v>
+        <x:v>62500</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>2769</x:v>
+        <x:v>2568</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>26</x:v>
@@ -1897,16 +1906,16 @@
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="n">
-        <x:v>164000</x:v>
+        <x:v>63450</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>27</x:v>
@@ -1914,16 +1923,16 @@
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="n">
-        <x:v>164900</x:v>
+        <x:v>63900</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>1698</x:v>
+        <x:v>1356</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>28</x:v>
@@ -1931,16 +1940,16 @@
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="n">
-        <x:v>164900</x:v>
+        <x:v>64900</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>1050</x:v>
+        <x:v>1982</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>29</x:v>
@@ -1948,16 +1957,16 @@
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="n">
-        <x:v>164999</x:v>
+        <x:v>65000</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>1148</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>30</x:v>
@@ -1965,16 +1974,16 @@
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="n">
-        <x:v>165750</x:v>
+        <x:v>69000</x:v>
       </x:c>
       <x:c r="B28" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>1008</x:v>
+        <x:v>1688</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>31</x:v>
@@ -1982,16 +1991,16 @@
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="n">
-        <x:v>165900</x:v>
+        <x:v>69900</x:v>
       </x:c>
       <x:c r="B29" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>2090</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>32</x:v>
@@ -1999,7 +2008,7 @@
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="n">
-        <x:v>165900</x:v>
+        <x:v>69900</x:v>
       </x:c>
       <x:c r="B30" s="0" t="n">
         <x:v>3</x:v>
@@ -2008,7 +2017,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>1603</x:v>
+        <x:v>1240</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>33</x:v>
@@ -2016,16 +2025,16 @@
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="n">
-        <x:v>169000</x:v>
+        <x:v>69900</x:v>
       </x:c>
       <x:c r="B31" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>1484</x:v>
+        <x:v>1418</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>34</x:v>
@@ -2033,7 +2042,7 @@
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="n">
-        <x:v>169900</x:v>
+        <x:v>72500</x:v>
       </x:c>
       <x:c r="B32" s="0" t="n">
         <x:v>3</x:v>
@@ -2042,7 +2051,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>1242</x:v>
+        <x:v>1726</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>35</x:v>
@@ -2050,7 +2059,7 @@
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="n">
-        <x:v>174900</x:v>
+        <x:v>74900</x:v>
       </x:c>
       <x:c r="B33" s="0" t="n">
         <x:v>3</x:v>
@@ -2059,7 +2068,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>1526</x:v>
+        <x:v>1680</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>36</x:v>
@@ -2067,16 +2076,16 @@
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="n">
-        <x:v>175000</x:v>
+        <x:v>79000</x:v>
       </x:c>
       <x:c r="B34" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>1362</x:v>
+        <x:v>1664</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>37</x:v>
@@ -2084,7 +2093,7 @@
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="n">
-        <x:v>179900</x:v>
+        <x:v>79900</x:v>
       </x:c>
       <x:c r="B35" s="0" t="n">
         <x:v>3</x:v>
@@ -2093,7 +2102,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>1120</x:v>
+        <x:v>1968</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>38</x:v>
@@ -2101,7 +2110,7 @@
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="n">
-        <x:v>179900</x:v>
+        <x:v>79900</x:v>
       </x:c>
       <x:c r="B36" s="0" t="n">
         <x:v>3</x:v>
@@ -2110,7 +2119,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>1104</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>39</x:v>
@@ -2118,16 +2127,16 @@
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="n">
-        <x:v>179900</x:v>
+        <x:v>80000</x:v>
       </x:c>
       <x:c r="B37" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>1458</x:v>
+        <x:v>1612</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>40</x:v>
@@ -2135,16 +2144,16 @@
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="n">
-        <x:v>179900</x:v>
+        <x:v>80000</x:v>
       </x:c>
       <x:c r="B38" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>1372</x:v>
+        <x:v>2066</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>41</x:v>
@@ -2152,16 +2161,16 @@
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="n">
-        <x:v>184000</x:v>
+        <x:v>84900</x:v>
       </x:c>
       <x:c r="B39" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>1152</x:v>
+        <x:v>1872</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>42</x:v>
@@ -2169,16 +2178,16 @@
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="n">
-        <x:v>184900</x:v>
+        <x:v>87500</x:v>
       </x:c>
       <x:c r="B40" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>1461</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>43</x:v>
@@ -2186,16 +2195,16 @@
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="n">
-        <x:v>185000</x:v>
+        <x:v>89000</x:v>
       </x:c>
       <x:c r="B41" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>1093</x:v>
+        <x:v>1134</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>44</x:v>
@@ -2203,16 +2212,16 @@
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="0" t="n">
-        <x:v>185000</x:v>
+        <x:v>89500</x:v>
       </x:c>
       <x:c r="B42" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>2132</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>45</x:v>
@@ -2220,16 +2229,16 @@
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="0" t="n">
-        <x:v>190000</x:v>
+        <x:v>95000</x:v>
       </x:c>
       <x:c r="B43" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>3342</x:v>
+        <x:v>1292</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>46</x:v>
@@ -2237,16 +2246,16 @@
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="0" t="n">
-        <x:v>190572</x:v>
+        <x:v>98500</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>1330</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>47</x:v>
@@ -2254,7 +2263,7 @@
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" s="0" t="n">
-        <x:v>199900</x:v>
+        <x:v>99000</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
         <x:v>3</x:v>
@@ -2263,7 +2272,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>1259</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>48</x:v>
@@ -2271,16 +2280,16 @@
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="0" t="n">
-        <x:v>199900</x:v>
+        <x:v>99500</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>1102</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>49</x:v>
@@ -2288,16 +2297,16 @@
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="0" t="n">
-        <x:v>199900</x:v>
+        <x:v>99900</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>1065</x:v>
+        <x:v>1616</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>50</x:v>
@@ -2305,16 +2314,16 @@
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" s="0" t="n">
-        <x:v>199900</x:v>
+        <x:v>99900</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>2123</x:v>
+        <x:v>2287</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>51</x:v>
@@ -2322,16 +2331,16 @@
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" s="0" t="n">
-        <x:v>199987</x:v>
+        <x:v>99900</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>1116</x:v>
+        <x:v>2699</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>52</x:v>
@@ -2339,16 +2348,16 @@
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="A50" s="0" t="n">
-        <x:v>199999</x:v>
+        <x:v>101999</x:v>
       </x:c>
       <x:c r="B50" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
-        <x:v>1379</x:v>
+        <x:v>1444</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>53</x:v>
@@ -2356,7 +2365,7 @@
     </x:row>
     <x:row r="51" spans="1:5">
       <x:c r="A51" s="0" t="n">
-        <x:v>200000</x:v>
+        <x:v>109900</x:v>
       </x:c>
       <x:c r="B51" s="0" t="n">
         <x:v>3</x:v>
@@ -2365,7 +2374,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
-        <x:v>1248</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>54</x:v>
@@ -2373,16 +2382,16 @@
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" s="0" t="n">
-        <x:v>200000</x:v>
+        <x:v>110000</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
-        <x:v>1102</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>55</x:v>
@@ -2390,16 +2399,16 @@
     </x:row>
     <x:row r="53" spans="1:5">
       <x:c r="A53" s="0" t="n">
-        <x:v>209900</x:v>
+        <x:v>112900</x:v>
       </x:c>
       <x:c r="B53" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
-        <x:v>1588</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>56</x:v>
@@ -2407,16 +2416,16 @@
     </x:row>
     <x:row r="54" spans="1:5">
       <x:c r="A54" s="0" t="n">
-        <x:v>210000</x:v>
+        <x:v>114000</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
-        <x:v>1484</x:v>
+        <x:v>1716</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>57</x:v>
@@ -2424,16 +2433,16 @@
     </x:row>
     <x:row r="55" spans="1:5">
       <x:c r="A55" s="0" t="n">
-        <x:v>212777</x:v>
+        <x:v>114900</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
-        <x:v>1372</x:v>
+        <x:v>2245</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>58</x:v>
@@ -2441,16 +2450,16 @@
     </x:row>
     <x:row r="56" spans="1:5">
       <x:c r="A56" s="0" t="n">
-        <x:v>214900</x:v>
+        <x:v>114900</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
-        <x:v>1165</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>59</x:v>
@@ -2458,16 +2467,16 @@
     </x:row>
     <x:row r="57" spans="1:5">
       <x:c r="A57" s="0" t="n">
-        <x:v>214900</x:v>
+        <x:v>115900</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
-        <x:v>1428</x:v>
+        <x:v>1254</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>60</x:v>
@@ -2475,16 +2484,16 @@
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="0" t="n">
-        <x:v>214900</x:v>
+        <x:v>119000</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
-        <x:v>1100</x:v>
+        <x:v>1333</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
         <x:v>61</x:v>
@@ -2492,7 +2501,7 @@
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="0" t="n">
-        <x:v>215000</x:v>
+        <x:v>119900</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
         <x:v>2</x:v>
@@ -2501,7 +2510,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
-        <x:v>1100</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>62</x:v>
@@ -2509,16 +2518,16 @@
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="0" t="n">
-        <x:v>215000</x:v>
+        <x:v>120000</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
-        <x:v>1971</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>63</x:v>
@@ -2526,16 +2535,16 @@
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="0" t="n">
-        <x:v>219000</x:v>
+        <x:v>124900</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
-        <x:v>2320</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>64</x:v>
@@ -2543,16 +2552,16 @@
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="0" t="n">
-        <x:v>219000</x:v>
+        <x:v>128900</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
-        <x:v>1040</x:v>
+        <x:v>1456</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>65</x:v>
@@ -2560,16 +2569,16 @@
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="0" t="n">
-        <x:v>219900</x:v>
+        <x:v>129000</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
-        <x:v>1728</x:v>
+        <x:v>1404</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>66</x:v>
@@ -2577,16 +2586,16 @@
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="0" t="n">
-        <x:v>219900</x:v>
+        <x:v>129000</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
-        <x:v>1049</x:v>
+        <x:v>2020</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>67</x:v>
@@ -2594,16 +2603,16 @@
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="0" t="n">
-        <x:v>219900</x:v>
+        <x:v>129900</x:v>
       </x:c>
       <x:c r="B65" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
-        <x:v>1636</x:v>
+        <x:v>1736</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>68</x:v>
@@ -2611,16 +2620,16 @@
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="0" t="n">
-        <x:v>224900</x:v>
+        <x:v>129900</x:v>
       </x:c>
       <x:c r="B66" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
-        <x:v>1414</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>69</x:v>
@@ -2628,16 +2637,16 @@
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="0" t="n">
-        <x:v>225000</x:v>
+        <x:v>134900</x:v>
       </x:c>
       <x:c r="B67" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>1232</x:v>
+        <x:v>1802</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>70</x:v>
@@ -2645,16 +2654,16 @@
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="0" t="n">
-        <x:v>225000</x:v>
+        <x:v>135000</x:v>
       </x:c>
       <x:c r="B68" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
-        <x:v>1053</x:v>
+        <x:v>1354</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>71</x:v>
@@ -2662,16 +2671,16 @@
     </x:row>
     <x:row r="69" spans="1:5">
       <x:c r="A69" s="0" t="n">
-        <x:v>229900</x:v>
+        <x:v>138800</x:v>
       </x:c>
       <x:c r="B69" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>1493</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>72</x:v>
@@ -2679,16 +2688,16 @@
     </x:row>
     <x:row r="70" spans="1:5">
       <x:c r="A70" s="0" t="n">
-        <x:v>230000</x:v>
+        <x:v>139000</x:v>
       </x:c>
       <x:c r="B70" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
-        <x:v>1392</x:v>
+        <x:v>1878</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>73</x:v>
@@ -2696,16 +2705,16 @@
     </x:row>
     <x:row r="71" spans="1:5">
       <x:c r="A71" s="0" t="n">
-        <x:v>230000</x:v>
+        <x:v>139900</x:v>
       </x:c>
       <x:c r="B71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
-        <x:v>1500</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>74</x:v>
@@ -2713,16 +2722,16 @@
     </x:row>
     <x:row r="72" spans="1:5">
       <x:c r="A72" s="0" t="n">
-        <x:v>230000</x:v>
+        <x:v>139900</x:v>
       </x:c>
       <x:c r="B72" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>1480</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>75</x:v>
@@ -2730,16 +2739,16 @@
     </x:row>
     <x:row r="73" spans="1:5">
       <x:c r="A73" s="0" t="n">
-        <x:v>235000</x:v>
+        <x:v>139900</x:v>
       </x:c>
       <x:c r="B73" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
-        <x:v>1251</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
         <x:v>76</x:v>
@@ -2747,16 +2756,16 @@
     </x:row>
     <x:row r="74" spans="1:5">
       <x:c r="A74" s="0" t="n">
-        <x:v>235000</x:v>
+        <x:v>142900</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>1395</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>77</x:v>
@@ -2764,16 +2773,16 @@
     </x:row>
     <x:row r="75" spans="1:5">
       <x:c r="A75" s="0" t="n">
-        <x:v>235500</x:v>
+        <x:v>145000</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
-        <x:v>1250</x:v>
+        <x:v>1930</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
         <x:v>78</x:v>
@@ -2781,16 +2790,16 @@
     </x:row>
     <x:row r="76" spans="1:5">
       <x:c r="A76" s="0" t="n">
-        <x:v>237900</x:v>
+        <x:v>149000</x:v>
       </x:c>
       <x:c r="B76" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
-        <x:v>3551</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>79</x:v>
@@ -2798,7 +2807,7 @@
     </x:row>
     <x:row r="77" spans="1:5">
       <x:c r="A77" s="0" t="n">
-        <x:v>239500</x:v>
+        <x:v>149900</x:v>
       </x:c>
       <x:c r="B77" s="0" t="n">
         <x:v>4</x:v>
@@ -2807,7 +2816,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
-        <x:v>1632</x:v>
+        <x:v>1869</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>80</x:v>
@@ -2815,16 +2824,16 @@
     </x:row>
     <x:row r="78" spans="1:5">
       <x:c r="A78" s="0" t="n">
-        <x:v>239900</x:v>
+        <x:v>149900</x:v>
       </x:c>
       <x:c r="B78" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C78" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
-        <x:v>1955</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>81</x:v>
@@ -2832,16 +2841,16 @@
     </x:row>
     <x:row r="79" spans="1:5">
       <x:c r="A79" s="0" t="n">
-        <x:v>239900</x:v>
+        <x:v>149900</x:v>
       </x:c>
       <x:c r="B79" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C79" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
-        <x:v>1198</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>82</x:v>
@@ -2849,16 +2858,16 @@
     </x:row>
     <x:row r="80" spans="1:5">
       <x:c r="A80" s="0" t="n">
-        <x:v>239900</x:v>
+        <x:v>150000</x:v>
       </x:c>
       <x:c r="B80" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C80" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
-        <x:v>1241</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>83</x:v>
@@ -2866,16 +2875,16 @@
     </x:row>
     <x:row r="81" spans="1:5">
       <x:c r="A81" s="0" t="n">
-        <x:v>239900</x:v>
+        <x:v>150000</x:v>
       </x:c>
       <x:c r="B81" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C81" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
-        <x:v>1150</x:v>
+        <x:v>1576</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>84</x:v>
@@ -2883,16 +2892,16 @@
     </x:row>
     <x:row r="82" spans="1:5">
       <x:c r="A82" s="0" t="n">
-        <x:v>239900</x:v>
+        <x:v>150000</x:v>
       </x:c>
       <x:c r="B82" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C82" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
-        <x:v>1242</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>85</x:v>
@@ -2900,16 +2909,16 @@
     </x:row>
     <x:row r="83" spans="1:5">
       <x:c r="A83" s="0" t="n">
-        <x:v>239900</x:v>
+        <x:v>152000</x:v>
       </x:c>
       <x:c r="B83" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C83" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>1180</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>86</x:v>
@@ -2917,16 +2926,16 @@
     </x:row>
     <x:row r="84" spans="1:5">
       <x:c r="A84" s="0" t="n">
-        <x:v>239900</x:v>
+        <x:v>158500</x:v>
       </x:c>
       <x:c r="B84" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C84" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
-        <x:v>1444</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>87</x:v>
@@ -2934,7 +2943,7 @@
     </x:row>
     <x:row r="85" spans="1:5">
       <x:c r="A85" s="0" t="n">
-        <x:v>239987</x:v>
+        <x:v>159000</x:v>
       </x:c>
       <x:c r="B85" s="0" t="n">
         <x:v>3</x:v>
@@ -2943,7 +2952,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
-        <x:v>1497</x:v>
+        <x:v>1369</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
         <x:v>88</x:v>
@@ -2951,16 +2960,16 @@
     </x:row>
     <x:row r="86" spans="1:5">
       <x:c r="A86" s="0" t="n">
-        <x:v>244900</x:v>
+        <x:v>159000</x:v>
       </x:c>
       <x:c r="B86" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C86" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>1080</x:v>
+        <x:v>2020</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>89</x:v>
@@ -2968,16 +2977,16 @@
     </x:row>
     <x:row r="87" spans="1:5">
       <x:c r="A87" s="0" t="n">
-        <x:v>245000</x:v>
+        <x:v>159900</x:v>
       </x:c>
       <x:c r="B87" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C87" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
-        <x:v>1064</x:v>
+        <x:v>2383</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
         <x:v>90</x:v>
@@ -2985,7 +2994,7 @@
     </x:row>
     <x:row r="88" spans="1:5">
       <x:c r="A88" s="0" t="n">
-        <x:v>245000</x:v>
+        <x:v>159900</x:v>
       </x:c>
       <x:c r="B88" s="0" t="n">
         <x:v>3</x:v>
@@ -2994,7 +3003,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
-        <x:v>1494</x:v>
+        <x:v>1554</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>91</x:v>
@@ -3002,7 +3011,7 @@
     </x:row>
     <x:row r="89" spans="1:5">
       <x:c r="A89" s="0" t="n">
-        <x:v>249000</x:v>
+        <x:v>159900</x:v>
       </x:c>
       <x:c r="B89" s="0" t="n">
         <x:v>4</x:v>
@@ -3011,7 +3020,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
-        <x:v>1530</x:v>
+        <x:v>1636</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>92</x:v>
@@ -3019,16 +3028,16 @@
     </x:row>
     <x:row r="90" spans="1:5">
       <x:c r="A90" s="0" t="n">
-        <x:v>249000</x:v>
+        <x:v>159900</x:v>
       </x:c>
       <x:c r="B90" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C90" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D90" s="0" t="n">
-        <x:v>3317</x:v>
+        <x:v>1430</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>93</x:v>
@@ -3036,16 +3045,16 @@
     </x:row>
     <x:row r="91" spans="1:5">
       <x:c r="A91" s="0" t="n">
-        <x:v>249700</x:v>
+        <x:v>160000</x:v>
       </x:c>
       <x:c r="B91" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C91" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D91" s="0" t="n">
-        <x:v>1321</x:v>
+        <x:v>1525</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>94</x:v>
@@ -3053,16 +3062,16 @@
     </x:row>
     <x:row r="92" spans="1:5">
       <x:c r="A92" s="0" t="n">
-        <x:v>249900</x:v>
+        <x:v>160000</x:v>
       </x:c>
       <x:c r="B92" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C92" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
-        <x:v>1516</x:v>
+        <x:v>1640</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>95</x:v>
@@ -3070,16 +3079,16 @@
     </x:row>
     <x:row r="93" spans="1:5">
       <x:c r="A93" s="0" t="n">
-        <x:v>249900</x:v>
+        <x:v>162500</x:v>
       </x:c>
       <x:c r="B93" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C93" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
-        <x:v>1325</x:v>
+        <x:v>2030</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>96</x:v>
@@ -3087,16 +3096,16 @@
     </x:row>
     <x:row r="94" spans="1:5">
       <x:c r="A94" s="0" t="n">
-        <x:v>249900</x:v>
+        <x:v>162999</x:v>
       </x:c>
       <x:c r="B94" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C94" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D94" s="0" t="n">
-        <x:v>1562</x:v>
+        <x:v>1816</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>97</x:v>
@@ -3104,16 +3113,16 @@
     </x:row>
     <x:row r="95" spans="1:5">
       <x:c r="A95" s="0" t="n">
-        <x:v>249900</x:v>
+        <x:v>164000</x:v>
       </x:c>
       <x:c r="B95" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C95" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
-        <x:v>1700</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
         <x:v>98</x:v>
@@ -3121,16 +3130,16 @@
     </x:row>
     <x:row r="96" spans="1:5">
       <x:c r="A96" s="0" t="n">
-        <x:v>249900</x:v>
+        <x:v>164900</x:v>
       </x:c>
       <x:c r="B96" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C96" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D96" s="0" t="n">
-        <x:v>1246</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>99</x:v>
@@ -3138,16 +3147,16 @@
     </x:row>
     <x:row r="97" spans="1:5">
       <x:c r="A97" s="0" t="n">
-        <x:v>249900</x:v>
+        <x:v>164900</x:v>
       </x:c>
       <x:c r="B97" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C97" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
-        <x:v>1008</x:v>
+        <x:v>2106</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>100</x:v>
@@ -3155,16 +3164,16 @@
     </x:row>
     <x:row r="98" spans="1:5">
       <x:c r="A98" s="0" t="n">
-        <x:v>249900</x:v>
+        <x:v>165000</x:v>
       </x:c>
       <x:c r="B98" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C98" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D98" s="0" t="n">
-        <x:v>1680</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>101</x:v>
@@ -3172,7 +3181,7 @@
     </x:row>
     <x:row r="99" spans="1:5">
       <x:c r="A99" s="0" t="n">
-        <x:v>250000</x:v>
+        <x:v>169000</x:v>
       </x:c>
       <x:c r="B99" s="0" t="n">
         <x:v>2</x:v>
@@ -3181,7 +3190,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D99" s="0" t="n">
-        <x:v>1175</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>102</x:v>
@@ -3189,16 +3198,16 @@
     </x:row>
     <x:row r="100" spans="1:5">
       <x:c r="A100" s="0" t="n">
-        <x:v>250000</x:v>
+        <x:v>169900</x:v>
       </x:c>
       <x:c r="B100" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C100" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
-        <x:v>2232</x:v>
+        <x:v>2243</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>103</x:v>
@@ -3206,16 +3215,16 @@
     </x:row>
     <x:row r="101" spans="1:5">
       <x:c r="A101" s="0" t="n">
-        <x:v>250000</x:v>
+        <x:v>169900</x:v>
       </x:c>
       <x:c r="B101" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C101" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
-        <x:v>1144</x:v>
+        <x:v>3114</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
         <x:v>104</x:v>
@@ -3223,16 +3232,16 @@
     </x:row>
     <x:row r="102" spans="1:5">
       <x:c r="A102" s="0" t="n">
-        <x:v>250000</x:v>
+        <x:v>175000</x:v>
       </x:c>
       <x:c r="B102" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C102" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
-        <x:v>2096</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
         <x:v>105</x:v>
@@ -3240,16 +3249,16 @@
     </x:row>
     <x:row r="103" spans="1:5">
       <x:c r="A103" s="0" t="n">
-        <x:v>259900</x:v>
+        <x:v>179000</x:v>
       </x:c>
       <x:c r="B103" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C103" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D103" s="0" t="n">
-        <x:v>2160</x:v>
+        <x:v>2416</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
         <x:v>106</x:v>
@@ -3257,16 +3266,16 @@
     </x:row>
     <x:row r="104" spans="1:5">
       <x:c r="A104" s="0" t="n">
-        <x:v>259900</x:v>
+        <x:v>179999</x:v>
       </x:c>
       <x:c r="B104" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C104" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D104" s="0" t="n">
-        <x:v>1496</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
         <x:v>107</x:v>
@@ -3274,16 +3283,16 @@
     </x:row>
     <x:row r="105" spans="1:5">
       <x:c r="A105" s="0" t="n">
-        <x:v>259900</x:v>
+        <x:v>180000</x:v>
       </x:c>
       <x:c r="B105" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C105" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D105" s="0" t="n">
-        <x:v>1052</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
         <x:v>108</x:v>
@@ -3291,16 +3300,16 @@
     </x:row>
     <x:row r="106" spans="1:5">
       <x:c r="A106" s="0" t="n">
-        <x:v>259999</x:v>
+        <x:v>184900</x:v>
       </x:c>
       <x:c r="B106" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C106" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D106" s="0" t="n">
-        <x:v>1568</x:v>
+        <x:v>4780</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
         <x:v>109</x:v>
@@ -3308,7 +3317,7 @@
     </x:row>
     <x:row r="107" spans="1:5">
       <x:c r="A107" s="0" t="n">
-        <x:v>269900</x:v>
+        <x:v>185000</x:v>
       </x:c>
       <x:c r="B107" s="0" t="n">
         <x:v>3</x:v>
@@ -3317,7 +3326,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D107" s="0" t="n">
-        <x:v>1231</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>110</x:v>
@@ -3325,16 +3334,16 @@
     </x:row>
     <x:row r="108" spans="1:5">
       <x:c r="A108" s="0" t="n">
-        <x:v>269900</x:v>
+        <x:v>190000</x:v>
       </x:c>
       <x:c r="B108" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C108" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D108" s="0" t="n">
-        <x:v>1728</x:v>
+        <x:v>1900</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
         <x:v>111</x:v>
@@ -3342,16 +3351,16 @@
     </x:row>
     <x:row r="109" spans="1:5">
       <x:c r="A109" s="0" t="n">
-        <x:v>269900</x:v>
+        <x:v>194500</x:v>
       </x:c>
       <x:c r="B109" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C109" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D109" s="0" t="n">
-        <x:v>1325</x:v>
+        <x:v>2771</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
         <x:v>112</x:v>
@@ -3359,16 +3368,16 @@
     </x:row>
     <x:row r="110" spans="1:5">
       <x:c r="A110" s="0" t="n">
-        <x:v>269900</x:v>
+        <x:v>194900</x:v>
       </x:c>
       <x:c r="B110" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C110" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D110" s="0" t="n">
-        <x:v>1266</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
         <x:v>113</x:v>
@@ -3376,16 +3385,16 @@
     </x:row>
     <x:row r="111" spans="1:5">
       <x:c r="A111" s="0" t="n">
-        <x:v>269987</x:v>
+        <x:v>195000</x:v>
       </x:c>
       <x:c r="B111" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C111" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D111" s="0" t="n">
-        <x:v>2928</x:v>
+        <x:v>1432</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>114</x:v>
@@ -3393,16 +3402,16 @@
     </x:row>
     <x:row r="112" spans="1:5">
       <x:c r="A112" s="0" t="n">
-        <x:v>270000</x:v>
+        <x:v>199000</x:v>
       </x:c>
       <x:c r="B112" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C112" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D112" s="0" t="n">
-        <x:v>1760</x:v>
+        <x:v>1608</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
         <x:v>115</x:v>
@@ -3410,16 +3419,16 @@
     </x:row>
     <x:row r="113" spans="1:5">
       <x:c r="A113" s="0" t="n">
-        <x:v>274900</x:v>
+        <x:v>199000</x:v>
       </x:c>
       <x:c r="B113" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C113" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D113" s="0" t="n">
-        <x:v>1272</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
         <x:v>116</x:v>
@@ -3427,16 +3436,16 @@
     </x:row>
     <x:row r="114" spans="1:5">
       <x:c r="A114" s="0" t="n">
-        <x:v>275000</x:v>
+        <x:v>199000</x:v>
       </x:c>
       <x:c r="B114" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C114" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
-        <x:v>1596</x:v>
+        <x:v>1536</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
         <x:v>117</x:v>
@@ -3444,16 +3453,16 @@
     </x:row>
     <x:row r="115" spans="1:5">
       <x:c r="A115" s="0" t="n">
-        <x:v>275000</x:v>
+        <x:v>199500</x:v>
       </x:c>
       <x:c r="B115" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C115" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D115" s="0" t="n">
-        <x:v>1170</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
         <x:v>118</x:v>
@@ -3461,16 +3470,16 @@
     </x:row>
     <x:row r="116" spans="1:5">
       <x:c r="A116" s="0" t="n">
-        <x:v>279900</x:v>
+        <x:v>199900</x:v>
       </x:c>
       <x:c r="B116" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C116" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
-        <x:v>1097</x:v>
+        <x:v>2598</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
         <x:v>119</x:v>
@@ -3478,7 +3487,7 @@
     </x:row>
     <x:row r="117" spans="1:5">
       <x:c r="A117" s="0" t="n">
-        <x:v>279900</x:v>
+        <x:v>199900</x:v>
       </x:c>
       <x:c r="B117" s="0" t="n">
         <x:v>3</x:v>
@@ -3487,7 +3496,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
-        <x:v>1528</x:v>
+        <x:v>1538</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
         <x:v>120</x:v>
@@ -3495,16 +3504,16 @@
     </x:row>
     <x:row r="118" spans="1:5">
       <x:c r="A118" s="0" t="n">
-        <x:v>279900</x:v>
+        <x:v>199900</x:v>
       </x:c>
       <x:c r="B118" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C118" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>1746</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
         <x:v>121</x:v>
@@ -3512,16 +3521,16 @@
     </x:row>
     <x:row r="119" spans="1:5">
       <x:c r="A119" s="0" t="n">
-        <x:v>280000</x:v>
+        <x:v>199900</x:v>
       </x:c>
       <x:c r="B119" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C119" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
-        <x:v>1904</x:v>
+        <x:v>1944</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
         <x:v>122</x:v>
@@ -3529,16 +3538,16 @@
     </x:row>
     <x:row r="120" spans="1:5">
       <x:c r="A120" s="0" t="n">
-        <x:v>284900</x:v>
+        <x:v>205000</x:v>
       </x:c>
       <x:c r="B120" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C120" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D120" s="0" t="n">
-        <x:v>1314</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
         <x:v>123</x:v>
@@ -3546,16 +3555,16 @@
     </x:row>
     <x:row r="121" spans="1:5">
       <x:c r="A121" s="0" t="n">
-        <x:v>289900</x:v>
+        <x:v>209000</x:v>
       </x:c>
       <x:c r="B121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C121" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D121" s="0" t="n">
-        <x:v>1280</x:v>
+        <x:v>1457</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
         <x:v>124</x:v>
@@ -3563,16 +3572,16 @@
     </x:row>
     <x:row r="122" spans="1:5">
       <x:c r="A122" s="0" t="n">
-        <x:v>289900</x:v>
+        <x:v>209000</x:v>
       </x:c>
       <x:c r="B122" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C122" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
-        <x:v>1675</x:v>
+        <x:v>1184</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
         <x:v>125</x:v>
@@ -3580,16 +3589,16 @@
     </x:row>
     <x:row r="123" spans="1:5">
       <x:c r="A123" s="0" t="n">
-        <x:v>290000</x:v>
+        <x:v>209900</x:v>
       </x:c>
       <x:c r="B123" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C123" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D123" s="0" t="n">
-        <x:v>1619</x:v>
+        <x:v>1758</x:v>
       </x:c>
       <x:c r="E123" s="0" t="s">
         <x:v>126</x:v>
@@ -3597,16 +3606,16 @@
     </x:row>
     <x:row r="124" spans="1:5">
       <x:c r="A124" s="0" t="n">
-        <x:v>293900</x:v>
+        <x:v>215000</x:v>
       </x:c>
       <x:c r="B124" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C124" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
-        <x:v>1128</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
         <x:v>127</x:v>
@@ -3614,16 +3623,16 @@
     </x:row>
     <x:row r="125" spans="1:5">
       <x:c r="A125" s="0" t="n">
-        <x:v>294900</x:v>
+        <x:v>220000</x:v>
       </x:c>
       <x:c r="B125" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C125" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D125" s="0" t="n">
-        <x:v>1423</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
         <x:v>128</x:v>
@@ -3631,16 +3640,16 @@
     </x:row>
     <x:row r="126" spans="1:5">
       <x:c r="A126" s="0" t="n">
-        <x:v>294900</x:v>
+        <x:v>225000</x:v>
       </x:c>
       <x:c r="B126" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C126" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D126" s="0" t="n">
-        <x:v>1094</x:v>
+        <x:v>2560</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
         <x:v>129</x:v>
@@ -3648,16 +3657,16 @@
     </x:row>
     <x:row r="127" spans="1:5">
       <x:c r="A127" s="0" t="n">
-        <x:v>298000</x:v>
+        <x:v>225000</x:v>
       </x:c>
       <x:c r="B127" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C127" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D127" s="0" t="n">
-        <x:v>1030</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
         <x:v>130</x:v>
@@ -3665,16 +3674,16 @@
     </x:row>
     <x:row r="128" spans="1:5">
       <x:c r="A128" s="0" t="n">
-        <x:v>299000</x:v>
+        <x:v>225000</x:v>
       </x:c>
       <x:c r="B128" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C128" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D128" s="0" t="n">
-        <x:v>1425</x:v>
+        <x:v>1762</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
         <x:v>131</x:v>
@@ -3682,16 +3691,16 @@
     </x:row>
     <x:row r="129" spans="1:5">
       <x:c r="A129" s="0" t="n">
-        <x:v>299000</x:v>
+        <x:v>226000</x:v>
       </x:c>
       <x:c r="B129" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C129" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D129" s="0" t="n">
-        <x:v>1481</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="E129" s="0" t="s">
         <x:v>132</x:v>
@@ -3699,16 +3708,16 @@
     </x:row>
     <x:row r="130" spans="1:5">
       <x:c r="A130" s="0" t="n">
-        <x:v>299900</x:v>
+        <x:v>228000</x:v>
       </x:c>
       <x:c r="B130" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C130" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D130" s="0" t="n">
-        <x:v>1224</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
         <x:v>133</x:v>
@@ -3716,7 +3725,7 @@
     </x:row>
     <x:row r="131" spans="1:5">
       <x:c r="A131" s="0" t="n">
-        <x:v>299900</x:v>
+        <x:v>230000</x:v>
       </x:c>
       <x:c r="B131" s="0" t="n">
         <x:v>3</x:v>
@@ -3725,7 +3734,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D131" s="0" t="n">
-        <x:v>1301</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
         <x:v>134</x:v>
@@ -3733,16 +3742,16 @@
     </x:row>
     <x:row r="132" spans="1:5">
       <x:c r="A132" s="0" t="n">
-        <x:v>299999</x:v>
+        <x:v>235000</x:v>
       </x:c>
       <x:c r="B132" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C132" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D132" s="0" t="n">
-        <x:v>1712</x:v>
+        <x:v>1877</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
         <x:v>135</x:v>
@@ -3750,16 +3759,16 @@
     </x:row>
     <x:row r="133" spans="1:5">
       <x:c r="A133" s="0" t="n">
-        <x:v>304500</x:v>
+        <x:v>235000</x:v>
       </x:c>
       <x:c r="B133" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C133" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D133" s="0" t="n">
-        <x:v>1546</x:v>
+        <x:v>1496</x:v>
       </x:c>
       <x:c r="E133" s="0" t="s">
         <x:v>136</x:v>
@@ -3767,16 +3776,16 @@
     </x:row>
     <x:row r="134" spans="1:5">
       <x:c r="A134" s="0" t="n">
-        <x:v>304900</x:v>
+        <x:v>235000</x:v>
       </x:c>
       <x:c r="B134" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C134" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D134" s="0" t="n">
-        <x:v>1619</x:v>
+        <x:v>1650</x:v>
       </x:c>
       <x:c r="E134" s="0" t="s">
         <x:v>137</x:v>
@@ -3784,16 +3793,16 @@
     </x:row>
     <x:row r="135" spans="1:5">
       <x:c r="A135" s="0" t="n">
-        <x:v>309900</x:v>
+        <x:v>237500</x:v>
       </x:c>
       <x:c r="B135" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C135" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D135" s="0" t="n">
-        <x:v>1103</x:v>
+        <x:v>2149</x:v>
       </x:c>
       <x:c r="E135" s="0" t="s">
         <x:v>138</x:v>
@@ -3801,7 +3810,7 @@
     </x:row>
     <x:row r="136" spans="1:5">
       <x:c r="A136" s="0" t="n">
-        <x:v>309900</x:v>
+        <x:v>239900</x:v>
       </x:c>
       <x:c r="B136" s="0" t="n">
         <x:v>2</x:v>
@@ -3810,7 +3819,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1575</x:v>
       </x:c>
       <x:c r="E136" s="0" t="s">
         <x:v>139</x:v>
@@ -3818,16 +3827,16 @@
     </x:row>
     <x:row r="137" spans="1:5">
       <x:c r="A137" s="0" t="n">
-        <x:v>314900</x:v>
+        <x:v>239900</x:v>
       </x:c>
       <x:c r="B137" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C137" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
-        <x:v>2388</x:v>
+        <x:v>1292</x:v>
       </x:c>
       <x:c r="E137" s="0" t="s">
         <x:v>140</x:v>
@@ -3835,16 +3844,16 @@
     </x:row>
     <x:row r="138" spans="1:5">
       <x:c r="A138" s="0" t="n">
-        <x:v>314900</x:v>
+        <x:v>240000</x:v>
       </x:c>
       <x:c r="B138" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C138" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D138" s="0" t="n">
-        <x:v>1229</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="E138" s="0" t="s">
         <x:v>141</x:v>
@@ -3852,7 +3861,7 @@
     </x:row>
     <x:row r="139" spans="1:5">
       <x:c r="A139" s="0" t="n">
-        <x:v>315000</x:v>
+        <x:v>240000</x:v>
       </x:c>
       <x:c r="B139" s="0" t="n">
         <x:v>3</x:v>
@@ -3861,7 +3870,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D139" s="0" t="n">
-        <x:v>1456</x:v>
+        <x:v>1760</x:v>
       </x:c>
       <x:c r="E139" s="0" t="s">
         <x:v>142</x:v>
@@ -3869,16 +3878,16 @@
     </x:row>
     <x:row r="140" spans="1:5">
       <x:c r="A140" s="0" t="n">
-        <x:v>317985</x:v>
+        <x:v>242900</x:v>
       </x:c>
       <x:c r="B140" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C140" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D140" s="0" t="n">
-        <x:v>1392</x:v>
+        <x:v>1324</x:v>
       </x:c>
       <x:c r="E140" s="0" t="s">
         <x:v>143</x:v>
@@ -3886,16 +3895,16 @@
     </x:row>
     <x:row r="141" spans="1:5">
       <x:c r="A141" s="0" t="n">
-        <x:v>319000</x:v>
+        <x:v>247900</x:v>
       </x:c>
       <x:c r="B141" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C141" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D141" s="0" t="n">
-        <x:v>2641</x:v>
+        <x:v>1337</x:v>
       </x:c>
       <x:c r="E141" s="0" t="s">
         <x:v>144</x:v>
@@ -3903,16 +3912,16 @@
     </x:row>
     <x:row r="142" spans="1:5">
       <x:c r="A142" s="0" t="n">
-        <x:v>319900</x:v>
+        <x:v>249900</x:v>
       </x:c>
       <x:c r="B142" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D142" s="0" t="n">
-        <x:v>1296</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="E142" s="0" t="s">
         <x:v>145</x:v>
@@ -3920,7 +3929,7 @@
     </x:row>
     <x:row r="143" spans="1:5">
       <x:c r="A143" s="0" t="n">
-        <x:v>319900</x:v>
+        <x:v>249900</x:v>
       </x:c>
       <x:c r="B143" s="0" t="n">
         <x:v>3</x:v>
@@ -3929,7 +3938,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D143" s="0" t="n">
-        <x:v>1286</x:v>
+        <x:v>1568</x:v>
       </x:c>
       <x:c r="E143" s="0" t="s">
         <x:v>146</x:v>
@@ -3937,16 +3946,16 @@
     </x:row>
     <x:row r="144" spans="1:5">
       <x:c r="A144" s="0" t="n">
-        <x:v>319900</x:v>
+        <x:v>250000</x:v>
       </x:c>
       <x:c r="B144" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C144" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D144" s="0" t="n">
-        <x:v>1351</x:v>
+        <x:v>1632</x:v>
       </x:c>
       <x:c r="E144" s="0" t="s">
         <x:v>147</x:v>
@@ -3954,16 +3963,16 @@
     </x:row>
     <x:row r="145" spans="1:5">
       <x:c r="A145" s="0" t="n">
-        <x:v>320000</x:v>
+        <x:v>250000</x:v>
       </x:c>
       <x:c r="B145" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C145" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D145" s="0" t="n">
-        <x:v>2642</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="E145" s="0" t="s">
         <x:v>148</x:v>
@@ -3971,16 +3980,16 @@
     </x:row>
     <x:row r="146" spans="1:5">
       <x:c r="A146" s="0" t="n">
-        <x:v>324900</x:v>
+        <x:v>250000</x:v>
       </x:c>
       <x:c r="B146" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C146" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D146" s="0" t="n">
-        <x:v>1080</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="E146" s="0" t="s">
         <x:v>149</x:v>
@@ -3988,16 +3997,16 @@
     </x:row>
     <x:row r="147" spans="1:5">
       <x:c r="A147" s="0" t="n">
-        <x:v>325000</x:v>
+        <x:v>250000</x:v>
       </x:c>
       <x:c r="B147" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C147" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D147" s="0" t="n">
-        <x:v>1759</x:v>
+        <x:v>2968</x:v>
       </x:c>
       <x:c r="E147" s="0" t="s">
         <x:v>150</x:v>
@@ -4005,7 +4014,7 @@
     </x:row>
     <x:row r="148" spans="1:5">
       <x:c r="A148" s="0" t="n">
-        <x:v>325000</x:v>
+        <x:v>250000</x:v>
       </x:c>
       <x:c r="B148" s="0" t="n">
         <x:v>3</x:v>
@@ -4014,7 +4023,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D148" s="0" t="n">
-        <x:v>1397</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="E148" s="0" t="s">
         <x:v>151</x:v>
@@ -4022,16 +4031,16 @@
     </x:row>
     <x:row r="149" spans="1:5">
       <x:c r="A149" s="0" t="n">
-        <x:v>325000</x:v>
+        <x:v>255000</x:v>
       </x:c>
       <x:c r="B149" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C149" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D149" s="0" t="n">
-        <x:v>1205</x:v>
+        <x:v>2650</x:v>
       </x:c>
       <x:c r="E149" s="0" t="s">
         <x:v>152</x:v>
@@ -4039,7 +4048,7 @@
     </x:row>
     <x:row r="150" spans="1:5">
       <x:c r="A150" s="0" t="n">
-        <x:v>325000</x:v>
+        <x:v>259000</x:v>
       </x:c>
       <x:c r="B150" s="0" t="n">
         <x:v>4</x:v>
@@ -4048,7 +4057,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D150" s="0" t="n">
-        <x:v>1758</x:v>
+        <x:v>1538</x:v>
       </x:c>
       <x:c r="E150" s="0" t="s">
         <x:v>153</x:v>
@@ -4056,16 +4065,16 @@
     </x:row>
     <x:row r="151" spans="1:5">
       <x:c r="A151" s="0" t="n">
-        <x:v>329900</x:v>
+        <x:v>259900</x:v>
       </x:c>
       <x:c r="B151" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C151" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
-        <x:v>1788</x:v>
+        <x:v>1836</x:v>
       </x:c>
       <x:c r="E151" s="0" t="s">
         <x:v>154</x:v>
@@ -4073,16 +4082,16 @@
     </x:row>
     <x:row r="152" spans="1:5">
       <x:c r="A152" s="0" t="n">
-        <x:v>329900</x:v>
+        <x:v>275000</x:v>
       </x:c>
       <x:c r="B152" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C152" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D152" s="0" t="n">
-        <x:v>1613</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="E152" s="0" t="s">
         <x:v>155</x:v>
@@ -4090,16 +4099,16 @@
     </x:row>
     <x:row r="153" spans="1:5">
       <x:c r="A153" s="0" t="n">
-        <x:v>329900</x:v>
+        <x:v>275000</x:v>
       </x:c>
       <x:c r="B153" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C153" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D153" s="0" t="n">
-        <x:v>1578</x:v>
+        <x:v>1279</x:v>
       </x:c>
       <x:c r="E153" s="0" t="s">
         <x:v>156</x:v>
@@ -4107,16 +4116,16 @@
     </x:row>
     <x:row r="154" spans="1:5">
       <x:c r="A154" s="0" t="n">
-        <x:v>329900</x:v>
+        <x:v>279900</x:v>
       </x:c>
       <x:c r="B154" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C154" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D154" s="0" t="n">
-        <x:v>1930</x:v>
+        <x:v>1853</x:v>
       </x:c>
       <x:c r="E154" s="0" t="s">
         <x:v>157</x:v>
@@ -4124,7 +4133,7 @@
     </x:row>
     <x:row r="155" spans="1:5">
       <x:c r="A155" s="0" t="n">
-        <x:v>329900</x:v>
+        <x:v>289000</x:v>
       </x:c>
       <x:c r="B155" s="0" t="n">
         <x:v>2</x:v>
@@ -4133,7 +4142,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D155" s="0" t="n">
-        <x:v>1034</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="E155" s="0" t="s">
         <x:v>158</x:v>
@@ -4141,16 +4150,16 @@
     </x:row>
     <x:row r="156" spans="1:5">
       <x:c r="A156" s="0" t="n">
-        <x:v>329900</x:v>
+        <x:v>289000</x:v>
       </x:c>
       <x:c r="B156" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C156" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D156" s="0" t="n">
-        <x:v>1580</x:v>
+        <x:v>1422</x:v>
       </x:c>
       <x:c r="E156" s="0" t="s">
         <x:v>159</x:v>
@@ -4158,16 +4167,16 @@
     </x:row>
     <x:row r="157" spans="1:5">
       <x:c r="A157" s="0" t="n">
-        <x:v>330000</x:v>
+        <x:v>289900</x:v>
       </x:c>
       <x:c r="B157" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C157" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D157" s="0" t="n">
-        <x:v>1398</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="E157" s="0" t="s">
         <x:v>160</x:v>
@@ -4175,16 +4184,16 @@
     </x:row>
     <x:row r="158" spans="1:5">
       <x:c r="A158" s="0" t="n">
-        <x:v>330000</x:v>
+        <x:v>289900</x:v>
       </x:c>
       <x:c r="B158" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C158" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
-        <x:v>1117</x:v>
+        <x:v>1728</x:v>
       </x:c>
       <x:c r="E158" s="0" t="s">
         <x:v>161</x:v>
@@ -4192,7 +4201,7 @@
     </x:row>
     <x:row r="159" spans="1:5">
       <x:c r="A159" s="0" t="n">
-        <x:v>332900</x:v>
+        <x:v>295000</x:v>
       </x:c>
       <x:c r="B159" s="0" t="n">
         <x:v>3</x:v>
@@ -4201,7 +4210,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
-        <x:v>1253</x:v>
+        <x:v>1296</x:v>
       </x:c>
       <x:c r="E159" s="0" t="s">
         <x:v>162</x:v>
@@ -4209,16 +4218,16 @@
     </x:row>
     <x:row r="160" spans="1:5">
       <x:c r="A160" s="0" t="n">
-        <x:v>333000</x:v>
+        <x:v>295000</x:v>
       </x:c>
       <x:c r="B160" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C160" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D160" s="0" t="n">
-        <x:v>1023</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
         <x:v>163</x:v>
@@ -4226,16 +4235,16 @@
     </x:row>
     <x:row r="161" spans="1:5">
       <x:c r="A161" s="0" t="n">
-        <x:v>334900</x:v>
+        <x:v>299000</x:v>
       </x:c>
       <x:c r="B161" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C161" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D161" s="0" t="n">
-        <x:v>2187</x:v>
+        <x:v>2300</x:v>
       </x:c>
       <x:c r="E161" s="0" t="s">
         <x:v>164</x:v>
@@ -4243,16 +4252,16 @@
     </x:row>
     <x:row r="162" spans="1:5">
       <x:c r="A162" s="0" t="n">
-        <x:v>335000</x:v>
+        <x:v>299900</x:v>
       </x:c>
       <x:c r="B162" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C162" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D162" s="0" t="n">
-        <x:v>2637</x:v>
+        <x:v>1388</x:v>
       </x:c>
       <x:c r="E162" s="0" t="s">
         <x:v>165</x:v>
@@ -4260,7 +4269,7 @@
     </x:row>
     <x:row r="163" spans="1:5">
       <x:c r="A163" s="0" t="n">
-        <x:v>339000</x:v>
+        <x:v>299900</x:v>
       </x:c>
       <x:c r="B163" s="0" t="n">
         <x:v>3</x:v>
@@ -4269,7 +4278,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D163" s="0" t="n">
-        <x:v>1422</x:v>
+        <x:v>2606</x:v>
       </x:c>
       <x:c r="E163" s="0" t="s">
         <x:v>166</x:v>
@@ -4277,16 +4286,16 @@
     </x:row>
     <x:row r="164" spans="1:5">
       <x:c r="A164" s="0" t="n">
-        <x:v>339000</x:v>
+        <x:v>299900</x:v>
       </x:c>
       <x:c r="B164" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C164" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D164" s="0" t="n">
-        <x:v>1723</x:v>
+        <x:v>3089</x:v>
       </x:c>
       <x:c r="E164" s="0" t="s">
         <x:v>167</x:v>
@@ -4294,16 +4303,16 @@
     </x:row>
     <x:row r="165" spans="1:5">
       <x:c r="A165" s="0" t="n">
-        <x:v>339900</x:v>
+        <x:v>300000</x:v>
       </x:c>
       <x:c r="B165" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C165" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
-        <x:v>1970</x:v>
+        <x:v>3116</x:v>
       </x:c>
       <x:c r="E165" s="0" t="s">
         <x:v>168</x:v>
@@ -4311,16 +4320,16 @@
     </x:row>
     <x:row r="166" spans="1:5">
       <x:c r="A166" s="0" t="n">
-        <x:v>344000</x:v>
+        <x:v>300000</x:v>
       </x:c>
       <x:c r="B166" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C166" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
-        <x:v>2101</x:v>
+        <x:v>1672</x:v>
       </x:c>
       <x:c r="E166" s="0" t="s">
         <x:v>169</x:v>
@@ -4328,16 +4337,16 @@
     </x:row>
     <x:row r="167" spans="1:5">
       <x:c r="A167" s="0" t="n">
-        <x:v>344000</x:v>
+        <x:v>315000</x:v>
       </x:c>
       <x:c r="B167" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C167" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D167" s="0" t="n">
-        <x:v>2220</x:v>
+        <x:v>2097</x:v>
       </x:c>
       <x:c r="E167" s="0" t="s">
         <x:v>170</x:v>
@@ -4345,16 +4354,16 @@
     </x:row>
     <x:row r="168" spans="1:5">
       <x:c r="A168" s="0" t="n">
-        <x:v>344900</x:v>
+        <x:v>322400</x:v>
       </x:c>
       <x:c r="B168" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C168" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>1208</x:v>
+        <x:v>1360</x:v>
       </x:c>
       <x:c r="E168" s="0" t="s">
         <x:v>171</x:v>
@@ -4362,16 +4371,16 @@
     </x:row>
     <x:row r="169" spans="1:5">
       <x:c r="A169" s="0" t="n">
-        <x:v>349000</x:v>
+        <x:v>325000</x:v>
       </x:c>
       <x:c r="B169" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C169" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>1184</x:v>
+        <x:v>1334</x:v>
       </x:c>
       <x:c r="E169" s="0" t="s">
         <x:v>172</x:v>
@@ -4379,16 +4388,16 @@
     </x:row>
     <x:row r="170" spans="1:5">
       <x:c r="A170" s="0" t="n">
-        <x:v>349900</x:v>
+        <x:v>325000</x:v>
       </x:c>
       <x:c r="B170" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C170" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D170" s="0" t="n">
-        <x:v>2678</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E170" s="0" t="s">
         <x:v>173</x:v>
@@ -4396,16 +4405,16 @@
     </x:row>
     <x:row r="171" spans="1:5">
       <x:c r="A171" s="0" t="n">
-        <x:v>349900</x:v>
+        <x:v>325000</x:v>
       </x:c>
       <x:c r="B171" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C171" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>1738</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="E171" s="0" t="s">
         <x:v>174</x:v>
@@ -4413,16 +4422,16 @@
     </x:row>
     <x:row r="172" spans="1:5">
       <x:c r="A172" s="0" t="n">
-        <x:v>349900</x:v>
+        <x:v>330000</x:v>
       </x:c>
       <x:c r="B172" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C172" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
-        <x:v>1599</x:v>
+        <x:v>1640</x:v>
       </x:c>
       <x:c r="E172" s="0" t="s">
         <x:v>175</x:v>
@@ -4430,16 +4439,16 @@
     </x:row>
     <x:row r="173" spans="1:5">
       <x:c r="A173" s="0" t="n">
-        <x:v>349900</x:v>
+        <x:v>330000</x:v>
       </x:c>
       <x:c r="B173" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C173" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D173" s="0" t="n">
-        <x:v>1022</x:v>
+        <x:v>1586</x:v>
       </x:c>
       <x:c r="E173" s="0" t="s">
         <x:v>176</x:v>
@@ -4447,16 +4456,16 @@
     </x:row>
     <x:row r="174" spans="1:5">
       <x:c r="A174" s="0" t="n">
-        <x:v>349997</x:v>
+        <x:v>340000</x:v>
       </x:c>
       <x:c r="B174" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C174" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D174" s="0" t="n">
-        <x:v>2194</x:v>
+        <x:v>1499</x:v>
       </x:c>
       <x:c r="E174" s="0" t="s">
         <x:v>177</x:v>
@@ -4464,16 +4473,16 @@
     </x:row>
     <x:row r="175" spans="1:5">
       <x:c r="A175" s="0" t="n">
-        <x:v>350000</x:v>
+        <x:v>340000</x:v>
       </x:c>
       <x:c r="B175" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C175" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D175" s="0" t="n">
-        <x:v>1664</x:v>
+        <x:v>1700</x:v>
       </x:c>
       <x:c r="E175" s="0" t="s">
         <x:v>178</x:v>
@@ -4481,16 +4490,16 @@
     </x:row>
     <x:row r="176" spans="1:5">
       <x:c r="A176" s="0" t="n">
-        <x:v>350000</x:v>
+        <x:v>345000</x:v>
       </x:c>
       <x:c r="B176" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C176" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
-        <x:v>1053</x:v>
+        <x:v>1896</x:v>
       </x:c>
       <x:c r="E176" s="0" t="s">
         <x:v>179</x:v>
@@ -4498,16 +4507,16 @@
     </x:row>
     <x:row r="177" spans="1:5">
       <x:c r="A177" s="0" t="n">
-        <x:v>350000</x:v>
+        <x:v>349000</x:v>
       </x:c>
       <x:c r="B177" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
-        <x:v>1675</x:v>
+        <x:v>1786</x:v>
       </x:c>
       <x:c r="E177" s="0" t="s">
         <x:v>180</x:v>
@@ -4515,16 +4524,16 @@
     </x:row>
     <x:row r="178" spans="1:5">
       <x:c r="A178" s="0" t="n">
-        <x:v>350000</x:v>
+        <x:v>349850</x:v>
       </x:c>
       <x:c r="B178" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D178" s="0" t="n">
-        <x:v>1108</x:v>
+        <x:v>1650</x:v>
       </x:c>
       <x:c r="E178" s="0" t="s">
         <x:v>181</x:v>
@@ -4532,7 +4541,7 @@
     </x:row>
     <x:row r="179" spans="1:5">
       <x:c r="A179" s="0" t="n">
-        <x:v>350000</x:v>
+        <x:v>349900</x:v>
       </x:c>
       <x:c r="B179" s="0" t="n">
         <x:v>2</x:v>
@@ -4541,7 +4550,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D179" s="0" t="n">
-        <x:v>1424</x:v>
+        <x:v>1314</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
         <x:v>182</x:v>
@@ -4549,16 +4558,16 @@
     </x:row>
     <x:row r="180" spans="1:5">
       <x:c r="A180" s="0" t="n">
-        <x:v>359000</x:v>
+        <x:v>350000</x:v>
       </x:c>
       <x:c r="B180" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
-        <x:v>1079</x:v>
+        <x:v>2163</x:v>
       </x:c>
       <x:c r="E180" s="0" t="s">
         <x:v>183</x:v>
@@ -4566,16 +4575,16 @@
     </x:row>
     <x:row r="181" spans="1:5">
       <x:c r="A181" s="0" t="n">
-        <x:v>359000</x:v>
+        <x:v>350000</x:v>
       </x:c>
       <x:c r="B181" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C181" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
-        <x:v>1031</x:v>
+        <x:v>1526</x:v>
       </x:c>
       <x:c r="E181" s="0" t="s">
         <x:v>184</x:v>
@@ -4583,16 +4592,16 @@
     </x:row>
     <x:row r="182" spans="1:5">
       <x:c r="A182" s="0" t="n">
-        <x:v>359900</x:v>
+        <x:v>350000</x:v>
       </x:c>
       <x:c r="B182" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C182" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D182" s="0" t="n">
-        <x:v>1814</x:v>
+        <x:v>1920</x:v>
       </x:c>
       <x:c r="E182" s="0" t="s">
         <x:v>185</x:v>
@@ -4600,7 +4609,7 @@
     </x:row>
     <x:row r="183" spans="1:5">
       <x:c r="A183" s="0" t="n">
-        <x:v>359900</x:v>
+        <x:v>350000</x:v>
       </x:c>
       <x:c r="B183" s="0" t="n">
         <x:v>4</x:v>
@@ -4609,7 +4618,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D183" s="0" t="n">
-        <x:v>1539</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="E183" s="0" t="s">
         <x:v>186</x:v>
@@ -4617,16 +4626,16 @@
     </x:row>
     <x:row r="184" spans="1:5">
       <x:c r="A184" s="0" t="n">
-        <x:v>360000</x:v>
+        <x:v>350000</x:v>
       </x:c>
       <x:c r="B184" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C184" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D184" s="0" t="n">
-        <x:v>1140</x:v>
+        <x:v>2632</x:v>
       </x:c>
       <x:c r="E184" s="0" t="s">
         <x:v>187</x:v>
@@ -4634,16 +4643,16 @@
     </x:row>
     <x:row r="185" spans="1:5">
       <x:c r="A185" s="0" t="n">
-        <x:v>364000</x:v>
+        <x:v>355000</x:v>
       </x:c>
       <x:c r="B185" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C185" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
-        <x:v>1943</x:v>
+        <x:v>1768</x:v>
       </x:c>
       <x:c r="E185" s="0" t="s">
         <x:v>188</x:v>
@@ -4651,16 +4660,16 @@
     </x:row>
     <x:row r="186" spans="1:5">
       <x:c r="A186" s="0" t="n">
-        <x:v>365000</x:v>
+        <x:v>364900</x:v>
       </x:c>
       <x:c r="B186" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C186" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
-        <x:v>3060</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="E186" s="0" t="s">
         <x:v>189</x:v>
@@ -4668,16 +4677,16 @@
     </x:row>
     <x:row r="187" spans="1:5">
       <x:c r="A187" s="0" t="n">
-        <x:v>365000</x:v>
+        <x:v>369000</x:v>
       </x:c>
       <x:c r="B187" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C187" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
-        <x:v>1401</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="E187" s="0" t="s">
         <x:v>190</x:v>
@@ -4685,16 +4694,16 @@
     </x:row>
     <x:row r="188" spans="1:5">
       <x:c r="A188" s="0" t="n">
-        <x:v>369900</x:v>
+        <x:v>375000</x:v>
       </x:c>
       <x:c r="B188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C188" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>1812</x:v>
+        <x:v>1989</x:v>
       </x:c>
       <x:c r="E188" s="0" t="s">
         <x:v>191</x:v>
@@ -4702,16 +4711,16 @@
     </x:row>
     <x:row r="189" spans="1:5">
       <x:c r="A189" s="0" t="n">
-        <x:v>369900</x:v>
+        <x:v>375000</x:v>
       </x:c>
       <x:c r="B189" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
-        <x:v>1016</x:v>
+        <x:v>1715</x:v>
       </x:c>
       <x:c r="E189" s="0" t="s">
         <x:v>192</x:v>
@@ -4719,16 +4728,16 @@
     </x:row>
     <x:row r="190" spans="1:5">
       <x:c r="A190" s="0" t="n">
-        <x:v>369900</x:v>
+        <x:v>380000</x:v>
       </x:c>
       <x:c r="B190" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C190" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D190" s="0" t="n">
-        <x:v>1680</x:v>
+        <x:v>2208</x:v>
       </x:c>
       <x:c r="E190" s="0" t="s">
         <x:v>193</x:v>
@@ -4736,16 +4745,16 @@
     </x:row>
     <x:row r="191" spans="1:5">
       <x:c r="A191" s="0" t="n">
-        <x:v>369900</x:v>
+        <x:v>386000</x:v>
       </x:c>
       <x:c r="B191" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C191" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>2800</x:v>
+        <x:v>2000</x:v>
       </x:c>
       <x:c r="E191" s="0" t="s">
         <x:v>194</x:v>
@@ -4753,16 +4762,16 @@
     </x:row>
     <x:row r="192" spans="1:5">
       <x:c r="A192" s="0" t="n">
-        <x:v>369900</x:v>
+        <x:v>389000</x:v>
       </x:c>
       <x:c r="B192" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C192" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D192" s="0" t="n">
-        <x:v>1695</x:v>
+        <x:v>2634</x:v>
       </x:c>
       <x:c r="E192" s="0" t="s">
         <x:v>195</x:v>
@@ -4770,16 +4779,16 @@
     </x:row>
     <x:row r="193" spans="1:5">
       <x:c r="A193" s="0" t="n">
-        <x:v>370000</x:v>
+        <x:v>398000</x:v>
       </x:c>
       <x:c r="B193" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C193" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D193" s="0" t="n">
-        <x:v>3168</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="E193" s="0" t="s">
         <x:v>196</x:v>
@@ -4787,16 +4796,16 @@
     </x:row>
     <x:row r="194" spans="1:5">
       <x:c r="A194" s="0" t="n">
-        <x:v>374900</x:v>
+        <x:v>399000</x:v>
       </x:c>
       <x:c r="B194" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C194" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D194" s="0" t="n">
-        <x:v>1596</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
         <x:v>197</x:v>
@@ -4804,16 +4813,16 @@
     </x:row>
     <x:row r="195" spans="1:5">
       <x:c r="A195" s="0" t="n">
-        <x:v>374900</x:v>
+        <x:v>399000</x:v>
       </x:c>
       <x:c r="B195" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C195" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>2082</x:v>
+        <x:v>3102</x:v>
       </x:c>
       <x:c r="E195" s="0" t="s">
         <x:v>198</x:v>
@@ -4821,16 +4830,16 @@
     </x:row>
     <x:row r="196" spans="1:5">
       <x:c r="A196" s="0" t="n">
-        <x:v>374900</x:v>
+        <x:v>399000</x:v>
       </x:c>
       <x:c r="B196" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C196" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>2200</x:v>
+        <x:v>1653</x:v>
       </x:c>
       <x:c r="E196" s="0" t="s">
         <x:v>199</x:v>
@@ -4838,16 +4847,16 @@
     </x:row>
     <x:row r="197" spans="1:5">
       <x:c r="A197" s="0" t="n">
-        <x:v>379000</x:v>
+        <x:v>399000</x:v>
       </x:c>
       <x:c r="B197" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C197" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>1805</x:v>
+        <x:v>1664</x:v>
       </x:c>
       <x:c r="E197" s="0" t="s">
         <x:v>200</x:v>
@@ -4855,16 +4864,16 @@
     </x:row>
     <x:row r="198" spans="1:5">
       <x:c r="A198" s="0" t="n">
-        <x:v>379000</x:v>
+        <x:v>399000</x:v>
       </x:c>
       <x:c r="B198" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C198" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>1424</x:v>
+        <x:v>1208</x:v>
       </x:c>
       <x:c r="E198" s="0" t="s">
         <x:v>201</x:v>
@@ -4872,16 +4881,16 @@
     </x:row>
     <x:row r="199" spans="1:5">
       <x:c r="A199" s="0" t="n">
-        <x:v>379900</x:v>
+        <x:v>399900</x:v>
       </x:c>
       <x:c r="B199" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C199" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D199" s="0" t="n">
-        <x:v>2287</x:v>
+        <x:v>2597</x:v>
       </x:c>
       <x:c r="E199" s="0" t="s">
         <x:v>202</x:v>
@@ -4889,16 +4898,16 @@
     </x:row>
     <x:row r="200" spans="1:5">
       <x:c r="A200" s="0" t="n">
-        <x:v>379900</x:v>
+        <x:v>399990</x:v>
       </x:c>
       <x:c r="B200" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C200" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D200" s="0" t="n">
-        <x:v>2814</x:v>
+        <x:v>1325</x:v>
       </x:c>
       <x:c r="E200" s="0" t="s">
         <x:v>203</x:v>
@@ -4906,16 +4915,16 @@
     </x:row>
     <x:row r="201" spans="1:5">
       <x:c r="A201" s="0" t="n">
-        <x:v>384900</x:v>
+        <x:v>399990</x:v>
       </x:c>
       <x:c r="B201" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C201" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
-        <x:v>1521</x:v>
+        <x:v>1473</x:v>
       </x:c>
       <x:c r="E201" s="0" t="s">
         <x:v>204</x:v>
@@ -4923,16 +4932,16 @@
     </x:row>
     <x:row r="202" spans="1:5">
       <x:c r="A202" s="0" t="n">
-        <x:v>388000</x:v>
+        <x:v>399990</x:v>
       </x:c>
       <x:c r="B202" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C202" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D202" s="0" t="n">
-        <x:v>1104</x:v>
+        <x:v>1481</x:v>
       </x:c>
       <x:c r="E202" s="0" t="s">
         <x:v>205</x:v>
@@ -4940,16 +4949,16 @@
     </x:row>
     <x:row r="203" spans="1:5">
       <x:c r="A203" s="0" t="n">
-        <x:v>389900</x:v>
+        <x:v>399999</x:v>
       </x:c>
       <x:c r="B203" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C203" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D203" s="0" t="n">
-        <x:v>1586</x:v>
+        <x:v>1327</x:v>
       </x:c>
       <x:c r="E203" s="0" t="s">
         <x:v>206</x:v>
@@ -4957,7 +4966,7 @@
     </x:row>
     <x:row r="204" spans="1:5">
       <x:c r="A204" s="0" t="n">
-        <x:v>389900</x:v>
+        <x:v>399999</x:v>
       </x:c>
       <x:c r="B204" s="0" t="n">
         <x:v>3</x:v>
@@ -4966,7 +4975,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D204" s="0" t="n">
-        <x:v>1296</x:v>
+        <x:v>2692</x:v>
       </x:c>
       <x:c r="E204" s="0" t="s">
         <x:v>207</x:v>
@@ -4974,16 +4983,16 @@
     </x:row>
     <x:row r="205" spans="1:5">
       <x:c r="A205" s="0" t="n">
-        <x:v>389999</x:v>
+        <x:v>400000</x:v>
       </x:c>
       <x:c r="B205" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D205" s="0" t="n">
-        <x:v>1548</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="E205" s="0" t="s">
         <x:v>208</x:v>
@@ -4991,16 +5000,16 @@
     </x:row>
     <x:row r="206" spans="1:5">
       <x:c r="A206" s="0" t="n">
-        <x:v>390000</x:v>
+        <x:v>400000</x:v>
       </x:c>
       <x:c r="B206" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C206" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D206" s="0" t="n">
-        <x:v>1925</x:v>
+        <x:v>1313</x:v>
       </x:c>
       <x:c r="E206" s="0" t="s">
         <x:v>209</x:v>
@@ -5008,16 +5017,16 @@
     </x:row>
     <x:row r="207" spans="1:5">
       <x:c r="A207" s="0" t="n">
-        <x:v>394900</x:v>
+        <x:v>408000</x:v>
       </x:c>
       <x:c r="B207" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C207" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D207" s="0" t="n">
-        <x:v>1610</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="E207" s="0" t="s">
         <x:v>210</x:v>
@@ -5025,16 +5034,16 @@
     </x:row>
     <x:row r="208" spans="1:5">
       <x:c r="A208" s="0" t="n">
-        <x:v>395000</x:v>
+        <x:v>409000</x:v>
       </x:c>
       <x:c r="B208" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C208" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D208" s="0" t="n">
-        <x:v>1468</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
         <x:v>211</x:v>
@@ -5042,16 +5051,16 @@
     </x:row>
     <x:row r="209" spans="1:5">
       <x:c r="A209" s="0" t="n">
-        <x:v>395000</x:v>
+        <x:v>429900</x:v>
       </x:c>
       <x:c r="B209" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C209" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D209" s="0" t="n">
-        <x:v>1806</x:v>
+        <x:v>2360</x:v>
       </x:c>
       <x:c r="E209" s="0" t="s">
         <x:v>212</x:v>
@@ -5059,7 +5068,7 @@
     </x:row>
     <x:row r="210" spans="1:5">
       <x:c r="A210" s="0" t="n">
-        <x:v>399000</x:v>
+        <x:v>430000</x:v>
       </x:c>
       <x:c r="B210" s="0" t="n">
         <x:v>4</x:v>
@@ -5068,7 +5077,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D210" s="0" t="n">
-        <x:v>2350</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="E210" s="0" t="s">
         <x:v>213</x:v>
@@ -5076,16 +5085,16 @@
     </x:row>
     <x:row r="211" spans="1:5">
       <x:c r="A211" s="0" t="n">
-        <x:v>399000</x:v>
+        <x:v>430000</x:v>
       </x:c>
       <x:c r="B211" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D211" s="0" t="n">
-        <x:v>1320</x:v>
+        <x:v>1332</x:v>
       </x:c>
       <x:c r="E211" s="0" t="s">
         <x:v>214</x:v>
@@ -5093,16 +5102,16 @@
     </x:row>
     <x:row r="212" spans="1:5">
       <x:c r="A212" s="0" t="n">
-        <x:v>399000</x:v>
+        <x:v>437500</x:v>
       </x:c>
       <x:c r="B212" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C212" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D212" s="0" t="n">
-        <x:v>1080</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="E212" s="0" t="s">
         <x:v>215</x:v>
@@ -5110,16 +5119,16 @@
     </x:row>
     <x:row r="213" spans="1:5">
       <x:c r="A213" s="0" t="n">
-        <x:v>399500</x:v>
+        <x:v>439000</x:v>
       </x:c>
       <x:c r="B213" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C213" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D213" s="0" t="n">
-        <x:v>1825</x:v>
+        <x:v>1288</x:v>
       </x:c>
       <x:c r="E213" s="0" t="s">
         <x:v>216</x:v>
@@ -5127,16 +5136,16 @@
     </x:row>
     <x:row r="214" spans="1:5">
       <x:c r="A214" s="0" t="n">
-        <x:v>399900</x:v>
+        <x:v>439000</x:v>
       </x:c>
       <x:c r="B214" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C214" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D214" s="0" t="n">
-        <x:v>1640</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="E214" s="0" t="s">
         <x:v>217</x:v>
@@ -5144,16 +5153,16 @@
     </x:row>
     <x:row r="215" spans="1:5">
       <x:c r="A215" s="0" t="n">
-        <x:v>399900</x:v>
+        <x:v>439999</x:v>
       </x:c>
       <x:c r="B215" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C215" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D215" s="0" t="n">
-        <x:v>2744</x:v>
+        <x:v>1900</x:v>
       </x:c>
       <x:c r="E215" s="0" t="s">
         <x:v>218</x:v>
@@ -5161,16 +5170,16 @@
     </x:row>
     <x:row r="216" spans="1:5">
       <x:c r="A216" s="0" t="n">
-        <x:v>399900</x:v>
+        <x:v>439999</x:v>
       </x:c>
       <x:c r="B216" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C216" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D216" s="0" t="n">
-        <x:v>1329</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E216" s="0" t="s">
         <x:v>219</x:v>
@@ -5178,16 +5187,16 @@
     </x:row>
     <x:row r="217" spans="1:5">
       <x:c r="A217" s="0" t="n">
-        <x:v>399900</x:v>
+        <x:v>445000</x:v>
       </x:c>
       <x:c r="B217" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C217" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D217" s="0" t="n">
-        <x:v>2184</x:v>
+        <x:v>1104</x:v>
       </x:c>
       <x:c r="E217" s="0" t="s">
         <x:v>220</x:v>
@@ -5195,16 +5204,16 @@
     </x:row>
     <x:row r="218" spans="1:5">
       <x:c r="A218" s="0" t="n">
-        <x:v>399900</x:v>
+        <x:v>449999</x:v>
       </x:c>
       <x:c r="B218" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C218" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D218" s="0" t="n">
-        <x:v>1040</x:v>
+        <x:v>1345</x:v>
       </x:c>
       <x:c r="E218" s="0" t="s">
         <x:v>221</x:v>
@@ -5212,16 +5221,16 @@
     </x:row>
     <x:row r="219" spans="1:5">
       <x:c r="A219" s="0" t="n">
-        <x:v>399900</x:v>
+        <x:v>455000</x:v>
       </x:c>
       <x:c r="B219" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D219" s="0" t="n">
-        <x:v>1053</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="E219" s="0" t="s">
         <x:v>222</x:v>
@@ -5229,16 +5238,16 @@
     </x:row>
     <x:row r="220" spans="1:5">
       <x:c r="A220" s="0" t="n">
-        <x:v>399900</x:v>
+        <x:v>455000</x:v>
       </x:c>
       <x:c r="B220" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C220" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D220" s="0" t="n">
-        <x:v>3483</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="E220" s="0" t="s">
         <x:v>223</x:v>
@@ -5246,16 +5255,16 @@
     </x:row>
     <x:row r="221" spans="1:5">
       <x:c r="A221" s="0" t="n">
-        <x:v>405000</x:v>
+        <x:v>459000</x:v>
       </x:c>
       <x:c r="B221" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D221" s="0" t="n">
-        <x:v>1024</x:v>
+        <x:v>2000</x:v>
       </x:c>
       <x:c r="E221" s="0" t="s">
         <x:v>224</x:v>
@@ -5263,16 +5272,16 @@
     </x:row>
     <x:row r="222" spans="1:5">
       <x:c r="A222" s="0" t="n">
-        <x:v>409900</x:v>
+        <x:v>459900</x:v>
       </x:c>
       <x:c r="B222" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C222" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D222" s="0" t="n">
-        <x:v>3600</x:v>
+        <x:v>2425</x:v>
       </x:c>
       <x:c r="E222" s="0" t="s">
         <x:v>225</x:v>
@@ -5280,16 +5289,16 @@
     </x:row>
     <x:row r="223" spans="1:5">
       <x:c r="A223" s="0" t="n">
-        <x:v>409900</x:v>
+        <x:v>459995</x:v>
       </x:c>
       <x:c r="B223" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C223" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D223" s="0" t="n">
-        <x:v>2600</x:v>
+        <x:v>1254</x:v>
       </x:c>
       <x:c r="E223" s="0" t="s">
         <x:v>226</x:v>
@@ -5297,16 +5306,16 @@
     </x:row>
     <x:row r="224" spans="1:5">
       <x:c r="A224" s="0" t="n">
-        <x:v>410000</x:v>
+        <x:v>459995</x:v>
       </x:c>
       <x:c r="B224" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C224" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D224" s="0" t="n">
-        <x:v>2252</x:v>
+        <x:v>1700</x:v>
       </x:c>
       <x:c r="E224" s="0" t="s">
         <x:v>227</x:v>
@@ -5314,16 +5323,16 @@
     </x:row>
     <x:row r="225" spans="1:5">
       <x:c r="A225" s="0" t="n">
-        <x:v>413300</x:v>
+        <x:v>469000</x:v>
       </x:c>
       <x:c r="B225" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C225" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D225" s="0" t="n">
-        <x:v>1664</x:v>
+        <x:v>1632</x:v>
       </x:c>
       <x:c r="E225" s="0" t="s">
         <x:v>228</x:v>
@@ -5331,16 +5340,16 @@
     </x:row>
     <x:row r="226" spans="1:5">
       <x:c r="A226" s="0" t="n">
-        <x:v>414900</x:v>
+        <x:v>469000</x:v>
       </x:c>
       <x:c r="B226" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C226" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D226" s="0" t="n">
-        <x:v>1374</x:v>
+        <x:v>1124</x:v>
       </x:c>
       <x:c r="E226" s="0" t="s">
         <x:v>229</x:v>
@@ -5348,7 +5357,7 @@
     </x:row>
     <x:row r="227" spans="1:5">
       <x:c r="A227" s="0" t="n">
-        <x:v>415000</x:v>
+        <x:v>469900</x:v>
       </x:c>
       <x:c r="B227" s="0" t="n">
         <x:v>3</x:v>
@@ -5357,7 +5366,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D227" s="0" t="n">
-        <x:v>1768</x:v>
+        <x:v>1900</x:v>
       </x:c>
       <x:c r="E227" s="0" t="s">
         <x:v>230</x:v>
@@ -5365,16 +5374,16 @@
     </x:row>
     <x:row r="228" spans="1:5">
       <x:c r="A228" s="0" t="n">
-        <x:v>415000</x:v>
+        <x:v>475000</x:v>
       </x:c>
       <x:c r="B228" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C228" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D228" s="0" t="n">
-        <x:v>1706</x:v>
+        <x:v>1896</x:v>
       </x:c>
       <x:c r="E228" s="0" t="s">
         <x:v>231</x:v>
@@ -5382,7 +5391,7 @@
     </x:row>
     <x:row r="229" spans="1:5">
       <x:c r="A229" s="0" t="n">
-        <x:v>415000</x:v>
+        <x:v>475000</x:v>
       </x:c>
       <x:c r="B229" s="0" t="n">
         <x:v>3</x:v>
@@ -5391,7 +5400,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D229" s="0" t="n">
-        <x:v>2050</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="E229" s="0" t="s">
         <x:v>232</x:v>
@@ -5399,16 +5408,16 @@
     </x:row>
     <x:row r="230" spans="1:5">
       <x:c r="A230" s="0" t="n">
-        <x:v>419900</x:v>
+        <x:v>475000</x:v>
       </x:c>
       <x:c r="B230" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C230" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D230" s="0" t="n">
-        <x:v>3201</x:v>
+        <x:v>1536</x:v>
       </x:c>
       <x:c r="E230" s="0" t="s">
         <x:v>233</x:v>
@@ -5416,16 +5425,16 @@
     </x:row>
     <x:row r="231" spans="1:5">
       <x:c r="A231" s="0" t="n">
-        <x:v>419900</x:v>
+        <x:v>475000</x:v>
       </x:c>
       <x:c r="B231" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C231" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D231" s="0" t="n">
-        <x:v>1488</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="E231" s="0" t="s">
         <x:v>234</x:v>
@@ -5433,16 +5442,16 @@
     </x:row>
     <x:row r="232" spans="1:5">
       <x:c r="A232" s="0" t="n">
-        <x:v>424900</x:v>
+        <x:v>475000</x:v>
       </x:c>
       <x:c r="B232" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C232" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D232" s="0" t="n">
-        <x:v>1408</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="E232" s="0" t="s">
         <x:v>235</x:v>
@@ -5450,7 +5459,7 @@
     </x:row>
     <x:row r="233" spans="1:5">
       <x:c r="A233" s="0" t="n">
-        <x:v>425000</x:v>
+        <x:v>475000</x:v>
       </x:c>
       <x:c r="B233" s="0" t="n">
         <x:v>2</x:v>
@@ -5459,7 +5468,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D233" s="0" t="n">
-        <x:v>1115</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="E233" s="0" t="s">
         <x:v>236</x:v>
@@ -5467,16 +5476,16 @@
     </x:row>
     <x:row r="234" spans="1:5">
       <x:c r="A234" s="0" t="n">
-        <x:v>428800</x:v>
+        <x:v>479000</x:v>
       </x:c>
       <x:c r="B234" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C234" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D234" s="0" t="n">
-        <x:v>1390</x:v>
+        <x:v>1593</x:v>
       </x:c>
       <x:c r="E234" s="0" t="s">
         <x:v>237</x:v>
@@ -5484,16 +5493,16 @@
     </x:row>
     <x:row r="235" spans="1:5">
       <x:c r="A235" s="0" t="n">
-        <x:v>429000</x:v>
+        <x:v>479000</x:v>
       </x:c>
       <x:c r="B235" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C235" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D235" s="0" t="n">
-        <x:v>1040</x:v>
+        <x:v>1916</x:v>
       </x:c>
       <x:c r="E235" s="0" t="s">
         <x:v>238</x:v>
@@ -5501,16 +5510,16 @@
     </x:row>
     <x:row r="236" spans="1:5">
       <x:c r="A236" s="0" t="n">
-        <x:v>429900</x:v>
+        <x:v>479000</x:v>
       </x:c>
       <x:c r="B236" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C236" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D236" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="E236" s="0" t="s">
         <x:v>239</x:v>
@@ -5518,7 +5527,7 @@
     </x:row>
     <x:row r="237" spans="1:5">
       <x:c r="A237" s="0" t="n">
-        <x:v>435000</x:v>
+        <x:v>479000</x:v>
       </x:c>
       <x:c r="B237" s="0" t="n">
         <x:v>4</x:v>
@@ -5527,7 +5536,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D237" s="0" t="n">
-        <x:v>1484</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="E237" s="0" t="s">
         <x:v>240</x:v>
@@ -5535,16 +5544,16 @@
     </x:row>
     <x:row r="238" spans="1:5">
       <x:c r="A238" s="0" t="n">
-        <x:v>439000</x:v>
+        <x:v>489000</x:v>
       </x:c>
       <x:c r="B238" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C238" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D238" s="0" t="n">
-        <x:v>2386</x:v>
+        <x:v>1748</x:v>
       </x:c>
       <x:c r="E238" s="0" t="s">
         <x:v>241</x:v>
@@ -5552,16 +5561,16 @@
     </x:row>
     <x:row r="239" spans="1:5">
       <x:c r="A239" s="0" t="n">
-        <x:v>439000</x:v>
+        <x:v>489000</x:v>
       </x:c>
       <x:c r="B239" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C239" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D239" s="0" t="n">
-        <x:v>1056</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="E239" s="0" t="s">
         <x:v>242</x:v>
@@ -5569,16 +5578,16 @@
     </x:row>
     <x:row r="240" spans="1:5">
       <x:c r="A240" s="0" t="n">
-        <x:v>439900</x:v>
+        <x:v>489000</x:v>
       </x:c>
       <x:c r="B240" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C240" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D240" s="0" t="n">
-        <x:v>1756</x:v>
+        <x:v>2350</x:v>
       </x:c>
       <x:c r="E240" s="0" t="s">
         <x:v>243</x:v>
@@ -5586,16 +5595,16 @@
     </x:row>
     <x:row r="241" spans="1:5">
       <x:c r="A241" s="0" t="n">
-        <x:v>449000</x:v>
+        <x:v>489900</x:v>
       </x:c>
       <x:c r="B241" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C241" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D241" s="0" t="n">
-        <x:v>1434</x:v>
+        <x:v>2544</x:v>
       </x:c>
       <x:c r="E241" s="0" t="s">
         <x:v>244</x:v>
@@ -5603,16 +5612,16 @@
     </x:row>
     <x:row r="242" spans="1:5">
       <x:c r="A242" s="0" t="n">
-        <x:v>449000</x:v>
+        <x:v>489999</x:v>
       </x:c>
       <x:c r="B242" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C242" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D242" s="0" t="n">
-        <x:v>1168</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="E242" s="0" t="s">
         <x:v>245</x:v>
@@ -5620,7 +5629,7 @@
     </x:row>
     <x:row r="243" spans="1:5">
       <x:c r="A243" s="0" t="n">
-        <x:v>449900</x:v>
+        <x:v>498000</x:v>
       </x:c>
       <x:c r="B243" s="0" t="n">
         <x:v>3</x:v>
@@ -5629,7 +5638,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D243" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>1740</x:v>
       </x:c>
       <x:c r="E243" s="0" t="s">
         <x:v>246</x:v>
@@ -5637,16 +5646,16 @@
     </x:row>
     <x:row r="244" spans="1:5">
       <x:c r="A244" s="0" t="n">
-        <x:v>449900</x:v>
+        <x:v>498999</x:v>
       </x:c>
       <x:c r="B244" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C244" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D244" s="0" t="n">
-        <x:v>2888</x:v>
+        <x:v>1338</x:v>
       </x:c>
       <x:c r="E244" s="0" t="s">
         <x:v>247</x:v>
@@ -5654,16 +5663,16 @@
     </x:row>
     <x:row r="245" spans="1:5">
       <x:c r="A245" s="0" t="n">
-        <x:v>450000</x:v>
+        <x:v>499000</x:v>
       </x:c>
       <x:c r="B245" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C245" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D245" s="0" t="n">
-        <x:v>1344</x:v>
+        <x:v>1592</x:v>
       </x:c>
       <x:c r="E245" s="0" t="s">
         <x:v>248</x:v>
@@ -5671,16 +5680,16 @@
     </x:row>
     <x:row r="246" spans="1:5">
       <x:c r="A246" s="0" t="n">
-        <x:v>450000</x:v>
+        <x:v>499000</x:v>
       </x:c>
       <x:c r="B246" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C246" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D246" s="0" t="n">
-        <x:v>1520</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="E246" s="0" t="s">
         <x:v>249</x:v>
@@ -5688,16 +5697,16 @@
     </x:row>
     <x:row r="247" spans="1:5">
       <x:c r="A247" s="0" t="n">
-        <x:v>459000</x:v>
+        <x:v>499000</x:v>
       </x:c>
       <x:c r="B247" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C247" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D247" s="0" t="n">
-        <x:v>1465</x:v>
+        <x:v>1799</x:v>
       </x:c>
       <x:c r="E247" s="0" t="s">
         <x:v>250</x:v>
@@ -5705,16 +5714,16 @@
     </x:row>
     <x:row r="248" spans="1:5">
       <x:c r="A248" s="0" t="n">
-        <x:v>459000</x:v>
+        <x:v>499000</x:v>
       </x:c>
       <x:c r="B248" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C248" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D248" s="0" t="n">
-        <x:v>2157</x:v>
+        <x:v>1650</x:v>
       </x:c>
       <x:c r="E248" s="0" t="s">
         <x:v>251</x:v>
@@ -5722,16 +5731,16 @@
     </x:row>
     <x:row r="249" spans="1:5">
       <x:c r="A249" s="0" t="n">
-        <x:v>465000</x:v>
+        <x:v>499000</x:v>
       </x:c>
       <x:c r="B249" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C249" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D249" s="0" t="n">
-        <x:v>1188</x:v>
+        <x:v>1470</x:v>
       </x:c>
       <x:c r="E249" s="0" t="s">
         <x:v>252</x:v>
@@ -5739,16 +5748,16 @@
     </x:row>
     <x:row r="250" spans="1:5">
       <x:c r="A250" s="0" t="n">
-        <x:v>469000</x:v>
+        <x:v>499100</x:v>
       </x:c>
       <x:c r="B250" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C250" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D250" s="0" t="n">
-        <x:v>1440</x:v>
+        <x:v>1675</x:v>
       </x:c>
       <x:c r="E250" s="0" t="s">
         <x:v>253</x:v>
@@ -5756,16 +5765,16 @@
     </x:row>
     <x:row r="251" spans="1:5">
       <x:c r="A251" s="0" t="n">
-        <x:v>469000</x:v>
+        <x:v>499900</x:v>
       </x:c>
       <x:c r="B251" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C251" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D251" s="0" t="n">
-        <x:v>1566</x:v>
+        <x:v>2086</x:v>
       </x:c>
       <x:c r="E251" s="0" t="s">
         <x:v>254</x:v>
@@ -5773,16 +5782,16 @@
     </x:row>
     <x:row r="252" spans="1:5">
       <x:c r="A252" s="0" t="n">
-        <x:v>469000</x:v>
+        <x:v>499900</x:v>
       </x:c>
       <x:c r="B252" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C252" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D252" s="0" t="n">
-        <x:v>1600</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="E252" s="0" t="s">
         <x:v>255</x:v>
@@ -5790,16 +5799,16 @@
     </x:row>
     <x:row r="253" spans="1:5">
       <x:c r="A253" s="0" t="n">
-        <x:v>469900</x:v>
+        <x:v>499990</x:v>
       </x:c>
       <x:c r="B253" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C253" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D253" s="0" t="n">
-        <x:v>1341</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="E253" s="0" t="s">
         <x:v>256</x:v>
@@ -5807,16 +5816,16 @@
     </x:row>
     <x:row r="254" spans="1:5">
       <x:c r="A254" s="0" t="n">
-        <x:v>469999</x:v>
+        <x:v>499999</x:v>
       </x:c>
       <x:c r="B254" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C254" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D254" s="0" t="n">
-        <x:v>1135</x:v>
+        <x:v>6500</x:v>
       </x:c>
       <x:c r="E254" s="0" t="s">
         <x:v>257</x:v>
@@ -5824,16 +5833,16 @@
     </x:row>
     <x:row r="255" spans="1:5">
       <x:c r="A255" s="0" t="n">
-        <x:v>470000</x:v>
+        <x:v>519000</x:v>
       </x:c>
       <x:c r="B255" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C255" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D255" s="0" t="n">
-        <x:v>1776</x:v>
+        <x:v>1650</x:v>
       </x:c>
       <x:c r="E255" s="0" t="s">
         <x:v>258</x:v>
@@ -5841,16 +5850,16 @@
     </x:row>
     <x:row r="256" spans="1:5">
       <x:c r="A256" s="0" t="n">
-        <x:v>474900</x:v>
+        <x:v>519000</x:v>
       </x:c>
       <x:c r="B256" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C256" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D256" s="0" t="n">
-        <x:v>1980</x:v>
+        <x:v>2400</x:v>
       </x:c>
       <x:c r="E256" s="0" t="s">
         <x:v>259</x:v>
@@ -5858,16 +5867,16 @@
     </x:row>
     <x:row r="257" spans="1:5">
       <x:c r="A257" s="0" t="n">
-        <x:v>475000</x:v>
+        <x:v>519000</x:v>
       </x:c>
       <x:c r="B257" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C257" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D257" s="0" t="n">
-        <x:v>1867</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="E257" s="0" t="s">
         <x:v>260</x:v>
@@ -5875,16 +5884,16 @@
     </x:row>
     <x:row r="258" spans="1:5">
       <x:c r="A258" s="0" t="n">
-        <x:v>479000</x:v>
+        <x:v>519900</x:v>
       </x:c>
       <x:c r="B258" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C258" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D258" s="0" t="n">
-        <x:v>2284</x:v>
+        <x:v>1650</x:v>
       </x:c>
       <x:c r="E258" s="0" t="s">
         <x:v>261</x:v>
@@ -5892,16 +5901,16 @@
     </x:row>
     <x:row r="259" spans="1:5">
       <x:c r="A259" s="0" t="n">
-        <x:v>479900</x:v>
+        <x:v>519990</x:v>
       </x:c>
       <x:c r="B259" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C259" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D259" s="0" t="n">
-        <x:v>1936</x:v>
+        <x:v>1501</x:v>
       </x:c>
       <x:c r="E259" s="0" t="s">
         <x:v>262</x:v>
@@ -5909,16 +5918,16 @@
     </x:row>
     <x:row r="260" spans="1:5">
       <x:c r="A260" s="0" t="n">
-        <x:v>484900</x:v>
+        <x:v>520000</x:v>
       </x:c>
       <x:c r="B260" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C260" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D260" s="0" t="n">
-        <x:v>1344</x:v>
+        <x:v>1181</x:v>
       </x:c>
       <x:c r="E260" s="0" t="s">
         <x:v>263</x:v>
@@ -5926,7 +5935,7 @@
     </x:row>
     <x:row r="261" spans="1:5">
       <x:c r="A261" s="0" t="n">
-        <x:v>485000</x:v>
+        <x:v>520000</x:v>
       </x:c>
       <x:c r="B261" s="0" t="n">
         <x:v>4</x:v>
@@ -5935,7 +5944,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D261" s="0" t="n">
-        <x:v>1255</x:v>
+        <x:v>1836</x:v>
       </x:c>
       <x:c r="E261" s="0" t="s">
         <x:v>264</x:v>
@@ -5943,7 +5952,7 @@
     </x:row>
     <x:row r="262" spans="1:5">
       <x:c r="A262" s="0" t="n">
-        <x:v>489900</x:v>
+        <x:v>525000</x:v>
       </x:c>
       <x:c r="B262" s="0" t="n">
         <x:v>3</x:v>
@@ -5952,7 +5961,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D262" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>1771</x:v>
       </x:c>
       <x:c r="E262" s="0" t="s">
         <x:v>265</x:v>
@@ -5960,16 +5969,16 @@
     </x:row>
     <x:row r="263" spans="1:5">
       <x:c r="A263" s="0" t="n">
-        <x:v>489900</x:v>
+        <x:v>529000</x:v>
       </x:c>
       <x:c r="B263" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C263" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D263" s="0" t="n">
-        <x:v>2350</x:v>
+        <x:v>2288</x:v>
       </x:c>
       <x:c r="E263" s="0" t="s">
         <x:v>266</x:v>
@@ -5977,16 +5986,16 @@
     </x:row>
     <x:row r="264" spans="1:5">
       <x:c r="A264" s="0" t="n">
-        <x:v>499000</x:v>
+        <x:v>535000</x:v>
       </x:c>
       <x:c r="B264" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C264" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D264" s="0" t="n">
-        <x:v>1461</x:v>
+        <x:v>1770</x:v>
       </x:c>
       <x:c r="E264" s="0" t="s">
         <x:v>267</x:v>
@@ -5994,16 +6003,16 @@
     </x:row>
     <x:row r="265" spans="1:5">
       <x:c r="A265" s="0" t="n">
-        <x:v>499000</x:v>
+        <x:v>539000</x:v>
       </x:c>
       <x:c r="B265" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C265" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D265" s="0" t="n">
-        <x:v>1251</x:v>
+        <x:v>1114</x:v>
       </x:c>
       <x:c r="E265" s="0" t="s">
         <x:v>268</x:v>
@@ -6011,16 +6020,16 @@
     </x:row>
     <x:row r="266" spans="1:5">
       <x:c r="A266" s="0" t="n">
-        <x:v>499000</x:v>
+        <x:v>544500</x:v>
       </x:c>
       <x:c r="B266" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C266" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D266" s="0" t="n">
-        <x:v>2932</x:v>
+        <x:v>1326</x:v>
       </x:c>
       <x:c r="E266" s="0" t="s">
         <x:v>269</x:v>
@@ -6028,16 +6037,16 @@
     </x:row>
     <x:row r="267" spans="1:5">
       <x:c r="A267" s="0" t="n">
-        <x:v>499900</x:v>
+        <x:v>545000</x:v>
       </x:c>
       <x:c r="B267" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C267" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D267" s="0" t="n">
-        <x:v>1847</x:v>
+        <x:v>1334</x:v>
       </x:c>
       <x:c r="E267" s="0" t="s">
         <x:v>270</x:v>
@@ -6045,16 +6054,16 @@
     </x:row>
     <x:row r="268" spans="1:5">
       <x:c r="A268" s="0" t="n">
-        <x:v>499900</x:v>
+        <x:v>549000</x:v>
       </x:c>
       <x:c r="B268" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C268" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D268" s="0" t="n">
-        <x:v>2700</x:v>
+        <x:v>1714</x:v>
       </x:c>
       <x:c r="E268" s="0" t="s">
         <x:v>271</x:v>
@@ -6062,16 +6071,16 @@
     </x:row>
     <x:row r="269" spans="1:5">
       <x:c r="A269" s="0" t="n">
-        <x:v>499900</x:v>
+        <x:v>549000</x:v>
       </x:c>
       <x:c r="B269" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C269" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D269" s="0" t="n">
-        <x:v>1875</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="E269" s="0" t="s">
         <x:v>272</x:v>
@@ -6079,16 +6088,16 @@
     </x:row>
     <x:row r="270" spans="1:5">
       <x:c r="A270" s="0" t="n">
-        <x:v>500000</x:v>
+        <x:v>549000</x:v>
       </x:c>
       <x:c r="B270" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C270" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D270" s="0" t="n">
-        <x:v>1968</x:v>
+        <x:v>1375</x:v>
       </x:c>
       <x:c r="E270" s="0" t="s">
         <x:v>273</x:v>
@@ -6096,16 +6105,16 @@
     </x:row>
     <x:row r="271" spans="1:5">
       <x:c r="A271" s="0" t="n">
-        <x:v>508000</x:v>
+        <x:v>549990</x:v>
       </x:c>
       <x:c r="B271" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C271" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D271" s="0" t="n">
-        <x:v>1875</x:v>
+        <x:v>1976</x:v>
       </x:c>
       <x:c r="E271" s="0" t="s">
         <x:v>274</x:v>
@@ -6113,16 +6122,16 @@
     </x:row>
     <x:row r="272" spans="1:5">
       <x:c r="A272" s="0" t="n">
-        <x:v>510000</x:v>
+        <x:v>549999</x:v>
       </x:c>
       <x:c r="B272" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C272" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D272" s="0" t="n">
-        <x:v>1957</x:v>
+        <x:v>1899</x:v>
       </x:c>
       <x:c r="E272" s="0" t="s">
         <x:v>275</x:v>
@@ -6130,16 +6139,16 @@
     </x:row>
     <x:row r="273" spans="1:5">
       <x:c r="A273" s="0" t="n">
-        <x:v>519000</x:v>
+        <x:v>549999</x:v>
       </x:c>
       <x:c r="B273" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C273" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D273" s="0" t="n">
-        <x:v>1059</x:v>
+        <x:v>1954</x:v>
       </x:c>
       <x:c r="E273" s="0" t="s">
         <x:v>276</x:v>
@@ -6147,16 +6156,16 @@
     </x:row>
     <x:row r="274" spans="1:5">
       <x:c r="A274" s="0" t="n">
-        <x:v>519900</x:v>
+        <x:v>550000</x:v>
       </x:c>
       <x:c r="B274" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C274" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D274" s="0" t="n">
-        <x:v>2223</x:v>
+        <x:v>1650</x:v>
       </x:c>
       <x:c r="E274" s="0" t="s">
         <x:v>277</x:v>
@@ -6164,16 +6173,16 @@
     </x:row>
     <x:row r="275" spans="1:5">
       <x:c r="A275" s="0" t="n">
-        <x:v>524900</x:v>
+        <x:v>550000</x:v>
       </x:c>
       <x:c r="B275" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C275" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D275" s="0" t="n">
-        <x:v>2973</x:v>
+        <x:v>1915</x:v>
       </x:c>
       <x:c r="E275" s="0" t="s">
         <x:v>278</x:v>
@@ -6181,7 +6190,7 @@
     </x:row>
     <x:row r="276" spans="1:5">
       <x:c r="A276" s="0" t="n">
-        <x:v>524900</x:v>
+        <x:v>559000</x:v>
       </x:c>
       <x:c r="B276" s="0" t="n">
         <x:v>3</x:v>
@@ -6190,7 +6199,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D276" s="0" t="n">
-        <x:v>2410</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="E276" s="0" t="s">
         <x:v>279</x:v>
@@ -6198,16 +6207,16 @@
     </x:row>
     <x:row r="277" spans="1:5">
       <x:c r="A277" s="0" t="n">
-        <x:v>525000</x:v>
+        <x:v>559900</x:v>
       </x:c>
       <x:c r="B277" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C277" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D277" s="0" t="n">
-        <x:v>1060</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="E277" s="0" t="s">
         <x:v>280</x:v>
@@ -6215,7 +6224,7 @@
     </x:row>
     <x:row r="278" spans="1:5">
       <x:c r="A278" s="0" t="n">
-        <x:v>549900</x:v>
+        <x:v>569000</x:v>
       </x:c>
       <x:c r="B278" s="0" t="n">
         <x:v>3</x:v>
@@ -6224,7 +6233,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D278" s="0" t="n">
-        <x:v>1346</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="E278" s="0" t="s">
         <x:v>281</x:v>
@@ -6232,16 +6241,16 @@
     </x:row>
     <x:row r="279" spans="1:5">
       <x:c r="A279" s="0" t="n">
-        <x:v>549900</x:v>
+        <x:v>575000</x:v>
       </x:c>
       <x:c r="B279" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C279" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D279" s="0" t="n">
-        <x:v>1574</x:v>
+        <x:v>2300</x:v>
       </x:c>
       <x:c r="E279" s="0" t="s">
         <x:v>282</x:v>
@@ -6249,7 +6258,7 @@
     </x:row>
     <x:row r="280" spans="1:5">
       <x:c r="A280" s="0" t="n">
-        <x:v>549900</x:v>
+        <x:v>575000</x:v>
       </x:c>
       <x:c r="B280" s="0" t="n">
         <x:v>3</x:v>
@@ -6258,7 +6267,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D280" s="0" t="n">
-        <x:v>1360</x:v>
+        <x:v>1584</x:v>
       </x:c>
       <x:c r="E280" s="0" t="s">
         <x:v>283</x:v>
@@ -6266,16 +6275,16 @@
     </x:row>
     <x:row r="281" spans="1:5">
       <x:c r="A281" s="0" t="n">
-        <x:v>549900</x:v>
+        <x:v>575000</x:v>
       </x:c>
       <x:c r="B281" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C281" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D281" s="0" t="n">
-        <x:v>1978</x:v>
+        <x:v>1533</x:v>
       </x:c>
       <x:c r="E281" s="0" t="s">
         <x:v>284</x:v>
@@ -6283,16 +6292,16 @@
     </x:row>
     <x:row r="282" spans="1:5">
       <x:c r="A282" s="0" t="n">
-        <x:v>549900</x:v>
+        <x:v>579000</x:v>
       </x:c>
       <x:c r="B282" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C282" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D282" s="0" t="n">
-        <x:v>1683</x:v>
+        <x:v>1810</x:v>
       </x:c>
       <x:c r="E282" s="0" t="s">
         <x:v>285</x:v>
@@ -6300,16 +6309,16 @@
     </x:row>
     <x:row r="283" spans="1:5">
       <x:c r="A283" s="0" t="n">
-        <x:v>550000</x:v>
+        <x:v>579000</x:v>
       </x:c>
       <x:c r="B283" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C283" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D283" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>2142</x:v>
       </x:c>
       <x:c r="E283" s="0" t="s">
         <x:v>286</x:v>
@@ -6317,16 +6326,16 @@
     </x:row>
     <x:row r="284" spans="1:5">
       <x:c r="A284" s="0" t="n">
-        <x:v>550000</x:v>
+        <x:v>580000</x:v>
       </x:c>
       <x:c r="B284" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C284" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D284" s="0" t="n">
-        <x:v>1650</x:v>
+        <x:v>1302</x:v>
       </x:c>
       <x:c r="E284" s="0" t="s">
         <x:v>287</x:v>
@@ -6334,16 +6343,16 @@
     </x:row>
     <x:row r="285" spans="1:5">
       <x:c r="A285" s="0" t="n">
-        <x:v>555000</x:v>
+        <x:v>587000</x:v>
       </x:c>
       <x:c r="B285" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C285" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D285" s="0" t="n">
-        <x:v>1945</x:v>
+        <x:v>2286</x:v>
       </x:c>
       <x:c r="E285" s="0" t="s">
         <x:v>288</x:v>
@@ -6351,16 +6360,16 @@
     </x:row>
     <x:row r="286" spans="1:5">
       <x:c r="A286" s="0" t="n">
-        <x:v>569000</x:v>
+        <x:v>589000</x:v>
       </x:c>
       <x:c r="B286" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C286" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D286" s="0" t="n">
-        <x:v>1275</x:v>
+        <x:v>2000</x:v>
       </x:c>
       <x:c r="E286" s="0" t="s">
         <x:v>289</x:v>
@@ -6368,16 +6377,16 @@
     </x:row>
     <x:row r="287" spans="1:5">
       <x:c r="A287" s="0" t="n">
-        <x:v>569000</x:v>
+        <x:v>589000</x:v>
       </x:c>
       <x:c r="B287" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C287" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D287" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>1935</x:v>
       </x:c>
       <x:c r="E287" s="0" t="s">
         <x:v>290</x:v>
@@ -6385,16 +6394,16 @@
     </x:row>
     <x:row r="288" spans="1:5">
       <x:c r="A288" s="0" t="n">
-        <x:v>569900</x:v>
+        <x:v>589900</x:v>
       </x:c>
       <x:c r="B288" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C288" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D288" s="0" t="n">
-        <x:v>1902</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="E288" s="0" t="s">
         <x:v>291</x:v>
@@ -6402,16 +6411,16 @@
     </x:row>
     <x:row r="289" spans="1:5">
       <x:c r="A289" s="0" t="n">
-        <x:v>569900</x:v>
+        <x:v>595000</x:v>
       </x:c>
       <x:c r="B289" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C289" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D289" s="0" t="n">
-        <x:v>1701</x:v>
+        <x:v>2200</x:v>
       </x:c>
       <x:c r="E289" s="0" t="s">
         <x:v>292</x:v>
@@ -6419,16 +6428,16 @@
     </x:row>
     <x:row r="290" spans="1:5">
       <x:c r="A290" s="0" t="n">
-        <x:v>569900</x:v>
+        <x:v>595000</x:v>
       </x:c>
       <x:c r="B290" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C290" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D290" s="0" t="n">
-        <x:v>2400</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="E290" s="0" t="s">
         <x:v>293</x:v>
@@ -6436,16 +6445,16 @@
     </x:row>
     <x:row r="291" spans="1:5">
       <x:c r="A291" s="0" t="n">
-        <x:v>574000</x:v>
+        <x:v>595000</x:v>
       </x:c>
       <x:c r="B291" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C291" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D291" s="0" t="n">
-        <x:v>2150</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="E291" s="0" t="s">
         <x:v>294</x:v>
@@ -6453,7 +6462,7 @@
     </x:row>
     <x:row r="292" spans="1:5">
       <x:c r="A292" s="0" t="n">
-        <x:v>574900</x:v>
+        <x:v>599000</x:v>
       </x:c>
       <x:c r="B292" s="0" t="n">
         <x:v>3</x:v>
@@ -6462,7 +6471,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D292" s="0" t="n">
-        <x:v>1248</x:v>
+        <x:v>2016</x:v>
       </x:c>
       <x:c r="E292" s="0" t="s">
         <x:v>295</x:v>
@@ -6470,16 +6479,16 @@
     </x:row>
     <x:row r="293" spans="1:5">
       <x:c r="A293" s="0" t="n">
-        <x:v>575000</x:v>
+        <x:v>599000</x:v>
       </x:c>
       <x:c r="B293" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C293" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D293" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>1552</x:v>
       </x:c>
       <x:c r="E293" s="0" t="s">
         <x:v>296</x:v>
@@ -6487,7 +6496,7 @@
     </x:row>
     <x:row r="294" spans="1:5">
       <x:c r="A294" s="0" t="n">
-        <x:v>579000</x:v>
+        <x:v>599000</x:v>
       </x:c>
       <x:c r="B294" s="0" t="n">
         <x:v>3</x:v>
@@ -6496,7 +6505,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D294" s="0" t="n">
-        <x:v>3539</x:v>
+        <x:v>2400</x:v>
       </x:c>
       <x:c r="E294" s="0" t="s">
         <x:v>297</x:v>
@@ -6504,7 +6513,7 @@
     </x:row>
     <x:row r="295" spans="1:5">
       <x:c r="A295" s="0" t="n">
-        <x:v>579900</x:v>
+        <x:v>599000</x:v>
       </x:c>
       <x:c r="B295" s="0" t="n">
         <x:v>4</x:v>
@@ -6513,7 +6522,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D295" s="0" t="n">
-        <x:v>1970</x:v>
+        <x:v>1728</x:v>
       </x:c>
       <x:c r="E295" s="0" t="s">
         <x:v>298</x:v>
@@ -6521,16 +6530,16 @@
     </x:row>
     <x:row r="296" spans="1:5">
       <x:c r="A296" s="0" t="n">
-        <x:v>584900</x:v>
+        <x:v>599000</x:v>
       </x:c>
       <x:c r="B296" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C296" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D296" s="0" t="n">
-        <x:v>1408</x:v>
+        <x:v>1702</x:v>
       </x:c>
       <x:c r="E296" s="0" t="s">
         <x:v>299</x:v>
@@ -6538,16 +6547,16 @@
     </x:row>
     <x:row r="297" spans="1:5">
       <x:c r="A297" s="0" t="n">
-        <x:v>595000</x:v>
+        <x:v>599000</x:v>
       </x:c>
       <x:c r="B297" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C297" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D297" s="0" t="n">
-        <x:v>1393</x:v>
+        <x:v>2432</x:v>
       </x:c>
       <x:c r="E297" s="0" t="s">
         <x:v>300</x:v>
@@ -6558,13 +6567,13 @@
         <x:v>599000</x:v>
       </x:c>
       <x:c r="B298" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C298" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D298" s="0" t="n">
-        <x:v>1265</x:v>
+        <x:v>1840</x:v>
       </x:c>
       <x:c r="E298" s="0" t="s">
         <x:v>301</x:v>
@@ -6575,13 +6584,13 @@
         <x:v>599000</x:v>
       </x:c>
       <x:c r="B299" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C299" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D299" s="0" t="n">
-        <x:v>2888</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="E299" s="0" t="s">
         <x:v>302</x:v>
@@ -6595,10 +6604,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C300" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D300" s="0" t="n">
-        <x:v>2014</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="E300" s="0" t="s">
         <x:v>303</x:v>
@@ -6606,7 +6615,7 @@
     </x:row>
     <x:row r="301" spans="1:5">
       <x:c r="A301" s="0" t="n">
-        <x:v>599900</x:v>
+        <x:v>599999</x:v>
       </x:c>
       <x:c r="B301" s="0" t="n">
         <x:v>3</x:v>
@@ -6615,7 +6624,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D301" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>2200</x:v>
       </x:c>
       <x:c r="E301" s="0" t="s">
         <x:v>304</x:v>
@@ -6623,16 +6632,16 @@
     </x:row>
     <x:row r="302" spans="1:5">
       <x:c r="A302" s="0" t="n">
-        <x:v>599900</x:v>
+        <x:v>599999</x:v>
       </x:c>
       <x:c r="B302" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C302" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D302" s="0" t="n">
-        <x:v>1729</x:v>
+        <x:v>1314</x:v>
       </x:c>
       <x:c r="E302" s="0" t="s">
         <x:v>305</x:v>
@@ -6640,16 +6649,16 @@
     </x:row>
     <x:row r="303" spans="1:5">
       <x:c r="A303" s="0" t="n">
-        <x:v>599900</x:v>
+        <x:v>599999</x:v>
       </x:c>
       <x:c r="B303" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C303" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D303" s="0" t="n">
-        <x:v>1560</x:v>
+        <x:v>1466</x:v>
       </x:c>
       <x:c r="E303" s="0" t="s">
         <x:v>306</x:v>
@@ -6657,16 +6666,16 @@
     </x:row>
     <x:row r="304" spans="1:5">
       <x:c r="A304" s="0" t="n">
-        <x:v>599900</x:v>
+        <x:v>608888</x:v>
       </x:c>
       <x:c r="B304" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C304" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D304" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="E304" s="0" t="s">
         <x:v>307</x:v>
@@ -6674,16 +6683,16 @@
     </x:row>
     <x:row r="305" spans="1:5">
       <x:c r="A305" s="0" t="n">
-        <x:v>599900</x:v>
+        <x:v>610000</x:v>
       </x:c>
       <x:c r="B305" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C305" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D305" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="E305" s="0" t="s">
         <x:v>308</x:v>
@@ -6691,16 +6700,16 @@
     </x:row>
     <x:row r="306" spans="1:5">
       <x:c r="A306" s="0" t="n">
-        <x:v>610000</x:v>
+        <x:v>615000</x:v>
       </x:c>
       <x:c r="B306" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C306" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D306" s="0" t="n">
-        <x:v>1584</x:v>
+        <x:v>1140</x:v>
       </x:c>
       <x:c r="E306" s="0" t="s">
         <x:v>309</x:v>
@@ -6708,16 +6717,16 @@
     </x:row>
     <x:row r="307" spans="1:5">
       <x:c r="A307" s="0" t="n">
-        <x:v>629000</x:v>
+        <x:v>620000</x:v>
       </x:c>
       <x:c r="B307" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C307" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D307" s="0" t="n">
-        <x:v>1763</x:v>
+        <x:v>1850</x:v>
       </x:c>
       <x:c r="E307" s="0" t="s">
         <x:v>310</x:v>
@@ -6725,7 +6734,7 @@
     </x:row>
     <x:row r="308" spans="1:5">
       <x:c r="A308" s="0" t="n">
-        <x:v>629000</x:v>
+        <x:v>625000</x:v>
       </x:c>
       <x:c r="B308" s="0" t="n">
         <x:v>3</x:v>
@@ -6734,7 +6743,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D308" s="0" t="n">
-        <x:v>1447</x:v>
+        <x:v>1358</x:v>
       </x:c>
       <x:c r="E308" s="0" t="s">
         <x:v>311</x:v>
@@ -6742,16 +6751,16 @@
     </x:row>
     <x:row r="309" spans="1:5">
       <x:c r="A309" s="0" t="n">
-        <x:v>629500</x:v>
+        <x:v>625000</x:v>
       </x:c>
       <x:c r="B309" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C309" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D309" s="0" t="n">
-        <x:v>2511</x:v>
+        <x:v>2050</x:v>
       </x:c>
       <x:c r="E309" s="0" t="s">
         <x:v>312</x:v>
@@ -6759,7 +6768,7 @@
     </x:row>
     <x:row r="310" spans="1:5">
       <x:c r="A310" s="0" t="n">
-        <x:v>629900</x:v>
+        <x:v>628888</x:v>
       </x:c>
       <x:c r="B310" s="0" t="n">
         <x:v>3</x:v>
@@ -6768,7 +6777,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D310" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>2116</x:v>
       </x:c>
       <x:c r="E310" s="0" t="s">
         <x:v>313</x:v>
@@ -6779,13 +6788,13 @@
         <x:v>635000</x:v>
       </x:c>
       <x:c r="B311" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C311" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D311" s="0" t="n">
-        <x:v>1880</x:v>
+        <x:v>1490</x:v>
       </x:c>
       <x:c r="E311" s="0" t="s">
         <x:v>314</x:v>
@@ -6793,16 +6802,16 @@
     </x:row>
     <x:row r="312" spans="1:5">
       <x:c r="A312" s="0" t="n">
-        <x:v>639000</x:v>
+        <x:v>635000</x:v>
       </x:c>
       <x:c r="B312" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C312" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D312" s="0" t="n">
-        <x:v>1824</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="E312" s="0" t="s">
         <x:v>315</x:v>
@@ -6810,16 +6819,16 @@
     </x:row>
     <x:row r="313" spans="1:5">
       <x:c r="A313" s="0" t="n">
-        <x:v>639900</x:v>
+        <x:v>635000</x:v>
       </x:c>
       <x:c r="B313" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C313" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D313" s="0" t="n">
-        <x:v>2949</x:v>
+        <x:v>2064</x:v>
       </x:c>
       <x:c r="E313" s="0" t="s">
         <x:v>316</x:v>
@@ -6827,16 +6836,16 @@
     </x:row>
     <x:row r="314" spans="1:5">
       <x:c r="A314" s="0" t="n">
-        <x:v>649000</x:v>
+        <x:v>639000</x:v>
       </x:c>
       <x:c r="B314" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C314" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D314" s="0" t="n">
-        <x:v>1612</x:v>
+        <x:v>1665</x:v>
       </x:c>
       <x:c r="E314" s="0" t="s">
         <x:v>317</x:v>
@@ -6844,16 +6853,16 @@
     </x:row>
     <x:row r="315" spans="1:5">
       <x:c r="A315" s="0" t="n">
-        <x:v>649888</x:v>
+        <x:v>640000</x:v>
       </x:c>
       <x:c r="B315" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C315" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D315" s="0" t="n">
-        <x:v>2500</x:v>
+        <x:v>1970</x:v>
       </x:c>
       <x:c r="E315" s="0" t="s">
         <x:v>318</x:v>
@@ -6861,16 +6870,16 @@
     </x:row>
     <x:row r="316" spans="1:5">
       <x:c r="A316" s="0" t="n">
-        <x:v>649900</x:v>
+        <x:v>645000</x:v>
       </x:c>
       <x:c r="B316" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C316" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D316" s="0" t="n">
-        <x:v>2080</x:v>
+        <x:v>2090</x:v>
       </x:c>
       <x:c r="E316" s="0" t="s">
         <x:v>319</x:v>
@@ -6878,7 +6887,7 @@
     </x:row>
     <x:row r="317" spans="1:5">
       <x:c r="A317" s="0" t="n">
-        <x:v>649900</x:v>
+        <x:v>648000</x:v>
       </x:c>
       <x:c r="B317" s="0" t="n">
         <x:v>3</x:v>
@@ -6887,7 +6896,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D317" s="0" t="n">
-        <x:v>1418</x:v>
+        <x:v>1386</x:v>
       </x:c>
       <x:c r="E317" s="0" t="s">
         <x:v>320</x:v>
@@ -6895,16 +6904,16 @@
     </x:row>
     <x:row r="318" spans="1:5">
       <x:c r="A318" s="0" t="n">
-        <x:v>655000</x:v>
+        <x:v>649000</x:v>
       </x:c>
       <x:c r="B318" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C318" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D318" s="0" t="n">
-        <x:v>2064</x:v>
+        <x:v>5175</x:v>
       </x:c>
       <x:c r="E318" s="0" t="s">
         <x:v>321</x:v>
@@ -6912,16 +6921,16 @@
     </x:row>
     <x:row r="319" spans="1:5">
       <x:c r="A319" s="0" t="n">
-        <x:v>659900</x:v>
+        <x:v>649990</x:v>
       </x:c>
       <x:c r="B319" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C319" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D319" s="0" t="n">
-        <x:v>2279</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="E319" s="0" t="s">
         <x:v>322</x:v>
@@ -6929,16 +6938,16 @@
     </x:row>
     <x:row r="320" spans="1:5">
       <x:c r="A320" s="0" t="n">
-        <x:v>659900</x:v>
+        <x:v>649999</x:v>
       </x:c>
       <x:c r="B320" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C320" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D320" s="0" t="n">
-        <x:v>1956</x:v>
+        <x:v>1382</x:v>
       </x:c>
       <x:c r="E320" s="0" t="s">
         <x:v>323</x:v>
@@ -6946,16 +6955,16 @@
     </x:row>
     <x:row r="321" spans="1:5">
       <x:c r="A321" s="0" t="n">
-        <x:v>665000</x:v>
+        <x:v>649999</x:v>
       </x:c>
       <x:c r="B321" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C321" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D321" s="0" t="n">
-        <x:v>1766</x:v>
+        <x:v>1442</x:v>
       </x:c>
       <x:c r="E321" s="0" t="s">
         <x:v>324</x:v>
@@ -6963,7 +6972,7 @@
     </x:row>
     <x:row r="322" spans="1:5">
       <x:c r="A322" s="0" t="n">
-        <x:v>665000</x:v>
+        <x:v>650000</x:v>
       </x:c>
       <x:c r="B322" s="0" t="n">
         <x:v>3</x:v>
@@ -6972,7 +6981,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D322" s="0" t="n">
-        <x:v>2300</x:v>
+        <x:v>1863</x:v>
       </x:c>
       <x:c r="E322" s="0" t="s">
         <x:v>325</x:v>
@@ -6980,16 +6989,16 @@
     </x:row>
     <x:row r="323" spans="1:5">
       <x:c r="A323" s="0" t="n">
-        <x:v>675000</x:v>
+        <x:v>650000</x:v>
       </x:c>
       <x:c r="B323" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C323" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D323" s="0" t="n">
-        <x:v>1657</x:v>
+        <x:v>1620</x:v>
       </x:c>
       <x:c r="E323" s="0" t="s">
         <x:v>326</x:v>
@@ -6997,7 +7006,7 @@
     </x:row>
     <x:row r="324" spans="1:5">
       <x:c r="A324" s="0" t="n">
-        <x:v>675000</x:v>
+        <x:v>659000</x:v>
       </x:c>
       <x:c r="B324" s="0" t="n">
         <x:v>3</x:v>
@@ -7006,7 +7015,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D324" s="0" t="n">
-        <x:v>2635</x:v>
+        <x:v>1728</x:v>
       </x:c>
       <x:c r="E324" s="0" t="s">
         <x:v>327</x:v>
@@ -7014,16 +7023,16 @@
     </x:row>
     <x:row r="325" spans="1:5">
       <x:c r="A325" s="0" t="n">
-        <x:v>679000</x:v>
+        <x:v>665000</x:v>
       </x:c>
       <x:c r="B325" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C325" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D325" s="0" t="n">
-        <x:v>2422</x:v>
+        <x:v>3034</x:v>
       </x:c>
       <x:c r="E325" s="0" t="s">
         <x:v>328</x:v>
@@ -7031,16 +7040,16 @@
     </x:row>
     <x:row r="326" spans="1:5">
       <x:c r="A326" s="0" t="n">
-        <x:v>689800</x:v>
+        <x:v>679000</x:v>
       </x:c>
       <x:c r="B326" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C326" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D326" s="0" t="n">
-        <x:v>2350</x:v>
+        <x:v>2200</x:v>
       </x:c>
       <x:c r="E326" s="0" t="s">
         <x:v>329</x:v>
@@ -7048,16 +7057,16 @@
     </x:row>
     <x:row r="327" spans="1:5">
       <x:c r="A327" s="0" t="n">
-        <x:v>698000</x:v>
+        <x:v>688888</x:v>
       </x:c>
       <x:c r="B327" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C327" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D327" s="0" t="n">
-        <x:v>2079</x:v>
+        <x:v>2500</x:v>
       </x:c>
       <x:c r="E327" s="0" t="s">
         <x:v>330</x:v>
@@ -7065,7 +7074,7 @@
     </x:row>
     <x:row r="328" spans="1:5">
       <x:c r="A328" s="0" t="n">
-        <x:v>699000</x:v>
+        <x:v>689000</x:v>
       </x:c>
       <x:c r="B328" s="0" t="n">
         <x:v>3</x:v>
@@ -7074,7 +7083,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D328" s="0" t="n">
-        <x:v>1501</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="E328" s="0" t="s">
         <x:v>331</x:v>
@@ -7082,16 +7091,16 @@
     </x:row>
     <x:row r="329" spans="1:5">
       <x:c r="A329" s="0" t="n">
-        <x:v>699000</x:v>
+        <x:v>690000</x:v>
       </x:c>
       <x:c r="B329" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C329" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D329" s="0" t="n">
-        <x:v>1320</x:v>
+        <x:v>2004</x:v>
       </x:c>
       <x:c r="E329" s="0" t="s">
         <x:v>332</x:v>
@@ -7099,7 +7108,7 @@
     </x:row>
     <x:row r="330" spans="1:5">
       <x:c r="A330" s="0" t="n">
-        <x:v>699000</x:v>
+        <x:v>695000</x:v>
       </x:c>
       <x:c r="B330" s="0" t="n">
         <x:v>3</x:v>
@@ -7108,7 +7117,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D330" s="0" t="n">
-        <x:v>1701</x:v>
+        <x:v>2070</x:v>
       </x:c>
       <x:c r="E330" s="0" t="s">
         <x:v>333</x:v>
@@ -7116,16 +7125,16 @@
     </x:row>
     <x:row r="331" spans="1:5">
       <x:c r="A331" s="0" t="n">
-        <x:v>699900</x:v>
+        <x:v>695000</x:v>
       </x:c>
       <x:c r="B331" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C331" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D331" s="0" t="n">
-        <x:v>1806</x:v>
+        <x:v>4500</x:v>
       </x:c>
       <x:c r="E331" s="0" t="s">
         <x:v>334</x:v>
@@ -7133,16 +7142,16 @@
     </x:row>
     <x:row r="332" spans="1:5">
       <x:c r="A332" s="0" t="n">
-        <x:v>699900</x:v>
+        <x:v>698800</x:v>
       </x:c>
       <x:c r="B332" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C332" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D332" s="0" t="n">
-        <x:v>2372</x:v>
+        <x:v>1545</x:v>
       </x:c>
       <x:c r="E332" s="0" t="s">
         <x:v>335</x:v>
@@ -7150,16 +7159,16 @@
     </x:row>
     <x:row r="333" spans="1:5">
       <x:c r="A333" s="0" t="n">
-        <x:v>699900</x:v>
+        <x:v>699000</x:v>
       </x:c>
       <x:c r="B333" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C333" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D333" s="0" t="n">
-        <x:v>1817</x:v>
+        <x:v>1824</x:v>
       </x:c>
       <x:c r="E333" s="0" t="s">
         <x:v>336</x:v>
@@ -7167,16 +7176,16 @@
     </x:row>
     <x:row r="334" spans="1:5">
       <x:c r="A334" s="0" t="n">
-        <x:v>699900</x:v>
+        <x:v>699000</x:v>
       </x:c>
       <x:c r="B334" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C334" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D334" s="0" t="n">
-        <x:v>2542</x:v>
+        <x:v>1650</x:v>
       </x:c>
       <x:c r="E334" s="0" t="s">
         <x:v>337</x:v>
@@ -7184,16 +7193,16 @@
     </x:row>
     <x:row r="335" spans="1:5">
       <x:c r="A335" s="0" t="n">
-        <x:v>705000</x:v>
+        <x:v>699000</x:v>
       </x:c>
       <x:c r="B335" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C335" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D335" s="0" t="n">
-        <x:v>2995</x:v>
+        <x:v>1653</x:v>
       </x:c>
       <x:c r="E335" s="0" t="s">
         <x:v>338</x:v>
@@ -7201,16 +7210,16 @@
     </x:row>
     <x:row r="336" spans="1:5">
       <x:c r="A336" s="0" t="n">
-        <x:v>719000</x:v>
+        <x:v>699000</x:v>
       </x:c>
       <x:c r="B336" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C336" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D336" s="0" t="n">
-        <x:v>1630</x:v>
+        <x:v>1952</x:v>
       </x:c>
       <x:c r="E336" s="0" t="s">
         <x:v>339</x:v>
@@ -7218,16 +7227,16 @@
     </x:row>
     <x:row r="337" spans="1:5">
       <x:c r="A337" s="0" t="n">
-        <x:v>719000</x:v>
+        <x:v>699888</x:v>
       </x:c>
       <x:c r="B337" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C337" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D337" s="0" t="n">
-        <x:v>1625</x:v>
+        <x:v>1752</x:v>
       </x:c>
       <x:c r="E337" s="0" t="s">
         <x:v>340</x:v>
@@ -7235,7 +7244,7 @@
     </x:row>
     <x:row r="338" spans="1:5">
       <x:c r="A338" s="0" t="n">
-        <x:v>725000</x:v>
+        <x:v>699900</x:v>
       </x:c>
       <x:c r="B338" s="0" t="n">
         <x:v>4</x:v>
@@ -7244,7 +7253,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D338" s="0" t="n">
-        <x:v>2245</x:v>
+        <x:v>2039</x:v>
       </x:c>
       <x:c r="E338" s="0" t="s">
         <x:v>341</x:v>
@@ -7252,7 +7261,7 @@
     </x:row>
     <x:row r="339" spans="1:5">
       <x:c r="A339" s="0" t="n">
-        <x:v>729000</x:v>
+        <x:v>719999</x:v>
       </x:c>
       <x:c r="B339" s="0" t="n">
         <x:v>4</x:v>
@@ -7261,7 +7270,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D339" s="0" t="n">
-        <x:v>1867</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="E339" s="0" t="s">
         <x:v>342</x:v>
@@ -7269,7 +7278,7 @@
     </x:row>
     <x:row r="340" spans="1:5">
       <x:c r="A340" s="0" t="n">
-        <x:v>749900</x:v>
+        <x:v>725000</x:v>
       </x:c>
       <x:c r="B340" s="0" t="n">
         <x:v>3</x:v>
@@ -7278,7 +7287,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D340" s="0" t="n">
-        <x:v>1783</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="E340" s="0" t="s">
         <x:v>343</x:v>
@@ -7286,16 +7295,16 @@
     </x:row>
     <x:row r="341" spans="1:5">
       <x:c r="A341" s="0" t="n">
-        <x:v>749900</x:v>
+        <x:v>739000</x:v>
       </x:c>
       <x:c r="B341" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C341" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D341" s="0" t="n">
-        <x:v>1628</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E341" s="0" t="s">
         <x:v>344</x:v>
@@ -7303,16 +7312,16 @@
     </x:row>
     <x:row r="342" spans="1:5">
       <x:c r="A342" s="0" t="n">
-        <x:v>750000</x:v>
+        <x:v>739999</x:v>
       </x:c>
       <x:c r="B342" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C342" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D342" s="0" t="n">
-        <x:v>4000</x:v>
+        <x:v>2000</x:v>
       </x:c>
       <x:c r="E342" s="0" t="s">
         <x:v>345</x:v>
@@ -7320,7 +7329,7 @@
     </x:row>
     <x:row r="343" spans="1:5">
       <x:c r="A343" s="0" t="n">
-        <x:v>760000</x:v>
+        <x:v>749000</x:v>
       </x:c>
       <x:c r="B343" s="0" t="n">
         <x:v>3</x:v>
@@ -7329,7 +7338,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D343" s="0" t="n">
-        <x:v>2774</x:v>
+        <x:v>1721</x:v>
       </x:c>
       <x:c r="E343" s="0" t="s">
         <x:v>346</x:v>
@@ -7337,16 +7346,16 @@
     </x:row>
     <x:row r="344" spans="1:5">
       <x:c r="A344" s="0" t="n">
-        <x:v>769900</x:v>
+        <x:v>749000</x:v>
       </x:c>
       <x:c r="B344" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C344" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D344" s="0" t="n">
-        <x:v>2505</x:v>
+        <x:v>3060</x:v>
       </x:c>
       <x:c r="E344" s="0" t="s">
         <x:v>347</x:v>
@@ -7354,16 +7363,16 @@
     </x:row>
     <x:row r="345" spans="1:5">
       <x:c r="A345" s="0" t="n">
-        <x:v>774900</x:v>
+        <x:v>749000</x:v>
       </x:c>
       <x:c r="B345" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C345" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D345" s="0" t="n">
-        <x:v>1535</x:v>
+        <x:v>2084</x:v>
       </x:c>
       <x:c r="E345" s="0" t="s">
         <x:v>348</x:v>
@@ -7371,16 +7380,16 @@
     </x:row>
     <x:row r="346" spans="1:5">
       <x:c r="A346" s="0" t="n">
-        <x:v>775000</x:v>
+        <x:v>749900</x:v>
       </x:c>
       <x:c r="B346" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C346" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D346" s="0" t="n">
-        <x:v>1275</x:v>
+        <x:v>1767</x:v>
       </x:c>
       <x:c r="E346" s="0" t="s">
         <x:v>349</x:v>
@@ -7388,16 +7397,16 @@
     </x:row>
     <x:row r="347" spans="1:5">
       <x:c r="A347" s="0" t="n">
-        <x:v>799000</x:v>
+        <x:v>750000</x:v>
       </x:c>
       <x:c r="B347" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C347" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D347" s="0" t="n">
-        <x:v>2536</x:v>
+        <x:v>2003</x:v>
       </x:c>
       <x:c r="E347" s="0" t="s">
         <x:v>350</x:v>
@@ -7405,16 +7414,16 @@
     </x:row>
     <x:row r="348" spans="1:5">
       <x:c r="A348" s="0" t="n">
-        <x:v>799000</x:v>
+        <x:v>755000</x:v>
       </x:c>
       <x:c r="B348" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C348" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D348" s="0" t="n">
-        <x:v>1638</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="E348" s="0" t="s">
         <x:v>351</x:v>
@@ -7422,16 +7431,16 @@
     </x:row>
     <x:row r="349" spans="1:5">
       <x:c r="A349" s="0" t="n">
-        <x:v>799000</x:v>
+        <x:v>769000</x:v>
       </x:c>
       <x:c r="B349" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C349" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D349" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>2200</x:v>
       </x:c>
       <x:c r="E349" s="0" t="s">
         <x:v>352</x:v>
@@ -7439,7 +7448,7 @@
     </x:row>
     <x:row r="350" spans="1:5">
       <x:c r="A350" s="0" t="n">
-        <x:v>799000</x:v>
+        <x:v>778000</x:v>
       </x:c>
       <x:c r="B350" s="0" t="n">
         <x:v>4</x:v>
@@ -7448,7 +7457,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D350" s="0" t="n">
-        <x:v>1789</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="E350" s="0" t="s">
         <x:v>353</x:v>
@@ -7456,16 +7465,16 @@
     </x:row>
     <x:row r="351" spans="1:5">
       <x:c r="A351" s="0" t="n">
-        <x:v>815000</x:v>
+        <x:v>779000</x:v>
       </x:c>
       <x:c r="B351" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C351" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D351" s="0" t="n">
-        <x:v>2778</x:v>
+        <x:v>1791</x:v>
       </x:c>
       <x:c r="E351" s="0" t="s">
         <x:v>354</x:v>
@@ -7473,7 +7482,7 @@
     </x:row>
     <x:row r="352" spans="1:5">
       <x:c r="A352" s="0" t="n">
-        <x:v>824000</x:v>
+        <x:v>788000</x:v>
       </x:c>
       <x:c r="B352" s="0" t="n">
         <x:v>4</x:v>
@@ -7482,7 +7491,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D352" s="0" t="n">
-        <x:v>2628</x:v>
+        <x:v>1536</x:v>
       </x:c>
       <x:c r="E352" s="0" t="s">
         <x:v>355</x:v>
@@ -7490,7 +7499,7 @@
     </x:row>
     <x:row r="353" spans="1:5">
       <x:c r="A353" s="0" t="n">
-        <x:v>824900</x:v>
+        <x:v>789000</x:v>
       </x:c>
       <x:c r="B353" s="0" t="n">
         <x:v>3</x:v>
@@ -7499,7 +7508,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D353" s="0" t="n">
-        <x:v>1664</x:v>
+        <x:v>2573</x:v>
       </x:c>
       <x:c r="E353" s="0" t="s">
         <x:v>356</x:v>
@@ -7507,16 +7516,16 @@
     </x:row>
     <x:row r="354" spans="1:5">
       <x:c r="A354" s="0" t="n">
-        <x:v>829900</x:v>
+        <x:v>795000</x:v>
       </x:c>
       <x:c r="B354" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C354" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D354" s="0" t="n">
-        <x:v>1872</x:v>
+        <x:v>2200</x:v>
       </x:c>
       <x:c r="E354" s="0" t="s">
         <x:v>357</x:v>
@@ -7524,7 +7533,7 @@
     </x:row>
     <x:row r="355" spans="1:5">
       <x:c r="A355" s="0" t="n">
-        <x:v>869900</x:v>
+        <x:v>799000</x:v>
       </x:c>
       <x:c r="B355" s="0" t="n">
         <x:v>3</x:v>
@@ -7533,7 +7542,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D355" s="0" t="n">
-        <x:v>1742</x:v>
+        <x:v>1716</x:v>
       </x:c>
       <x:c r="E355" s="0" t="s">
         <x:v>358</x:v>
@@ -7541,16 +7550,16 @@
     </x:row>
     <x:row r="356" spans="1:5">
       <x:c r="A356" s="0" t="n">
-        <x:v>869900</x:v>
+        <x:v>799000</x:v>
       </x:c>
       <x:c r="B356" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C356" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D356" s="0" t="n">
-        <x:v>3405</x:v>
+        <x:v>1943</x:v>
       </x:c>
       <x:c r="E356" s="0" t="s">
         <x:v>359</x:v>
@@ -7558,16 +7567,16 @@
     </x:row>
     <x:row r="357" spans="1:5">
       <x:c r="A357" s="0" t="n">
-        <x:v>874900</x:v>
+        <x:v>799000</x:v>
       </x:c>
       <x:c r="B357" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C357" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D357" s="0" t="n">
-        <x:v>7425</x:v>
+        <x:v>2200</x:v>
       </x:c>
       <x:c r="E357" s="0" t="s">
         <x:v>360</x:v>
@@ -7575,16 +7584,16 @@
     </x:row>
     <x:row r="358" spans="1:5">
       <x:c r="A358" s="0" t="n">
-        <x:v>875000</x:v>
+        <x:v>810000</x:v>
       </x:c>
       <x:c r="B358" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C358" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D358" s="0" t="n">
-        <x:v>2120</x:v>
+        <x:v>2074</x:v>
       </x:c>
       <x:c r="E358" s="0" t="s">
         <x:v>361</x:v>
@@ -7592,16 +7601,16 @@
     </x:row>
     <x:row r="359" spans="1:5">
       <x:c r="A359" s="0" t="n">
-        <x:v>899000</x:v>
+        <x:v>824901</x:v>
       </x:c>
       <x:c r="B359" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C359" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D359" s="0" t="n">
-        <x:v>1939</x:v>
+        <x:v>2400</x:v>
       </x:c>
       <x:c r="E359" s="0" t="s">
         <x:v>362</x:v>
@@ -7609,16 +7618,16 @@
     </x:row>
     <x:row r="360" spans="1:5">
       <x:c r="A360" s="0" t="n">
-        <x:v>919000</x:v>
+        <x:v>840000</x:v>
       </x:c>
       <x:c r="B360" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C360" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D360" s="0" t="n">
-        <x:v>1946</x:v>
+        <x:v>2743</x:v>
       </x:c>
       <x:c r="E360" s="0" t="s">
         <x:v>363</x:v>
@@ -7626,16 +7635,16 @@
     </x:row>
     <x:row r="361" spans="1:5">
       <x:c r="A361" s="0" t="n">
-        <x:v>950000</x:v>
+        <x:v>850000</x:v>
       </x:c>
       <x:c r="B361" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C361" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D361" s="0" t="n">
-        <x:v>3272</x:v>
+        <x:v>1750</x:v>
       </x:c>
       <x:c r="E361" s="0" t="s">
         <x:v>364</x:v>
@@ -7643,16 +7652,16 @@
     </x:row>
     <x:row r="362" spans="1:5">
       <x:c r="A362" s="0" t="n">
-        <x:v>1049000</x:v>
+        <x:v>875000</x:v>
       </x:c>
       <x:c r="B362" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C362" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D362" s="0" t="n">
-        <x:v>1726</x:v>
+        <x:v>2612</x:v>
       </x:c>
       <x:c r="E362" s="0" t="s">
         <x:v>365</x:v>
@@ -7660,16 +7669,16 @@
     </x:row>
     <x:row r="363" spans="1:5">
       <x:c r="A363" s="0" t="n">
-        <x:v>1100000</x:v>
+        <x:v>895000</x:v>
       </x:c>
       <x:c r="B363" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C363" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D363" s="0" t="n">
-        <x:v>2300</x:v>
+        <x:v>3409</x:v>
       </x:c>
       <x:c r="E363" s="0" t="s">
         <x:v>366</x:v>
@@ -7677,16 +7686,16 @@
     </x:row>
     <x:row r="364" spans="1:5">
       <x:c r="A364" s="0" t="n">
-        <x:v>1198000</x:v>
+        <x:v>899000</x:v>
       </x:c>
       <x:c r="B364" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C364" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D364" s="0" t="n">
-        <x:v>2406</x:v>
+        <x:v>2700</x:v>
       </x:c>
       <x:c r="E364" s="0" t="s">
         <x:v>367</x:v>
@@ -7694,16 +7703,16 @@
     </x:row>
     <x:row r="365" spans="1:5">
       <x:c r="A365" s="0" t="n">
-        <x:v>1199000</x:v>
+        <x:v>899000</x:v>
       </x:c>
       <x:c r="B365" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C365" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D365" s="0" t="n">
-        <x:v>2408</x:v>
+        <x:v>3000</x:v>
       </x:c>
       <x:c r="E365" s="0" t="s">
         <x:v>368</x:v>
@@ -7711,16 +7720,16 @@
     </x:row>
     <x:row r="366" spans="1:5">
       <x:c r="A366" s="0" t="n">
-        <x:v>1224999</x:v>
+        <x:v>900000</x:v>
       </x:c>
       <x:c r="B366" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C366" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D366" s="0" t="n">
-        <x:v>2592</x:v>
+        <x:v>2804</x:v>
       </x:c>
       <x:c r="E366" s="0" t="s">
         <x:v>369</x:v>
@@ -7728,16 +7737,16 @@
     </x:row>
     <x:row r="367" spans="1:5">
       <x:c r="A367" s="0" t="n">
-        <x:v>1225000</x:v>
+        <x:v>919000</x:v>
       </x:c>
       <x:c r="B367" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C367" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D367" s="0" t="n">
-        <x:v>1866</x:v>
+        <x:v>2737</x:v>
       </x:c>
       <x:c r="E367" s="0" t="s">
         <x:v>370</x:v>
@@ -7745,16 +7754,16 @@
     </x:row>
     <x:row r="368" spans="1:5">
       <x:c r="A368" s="0" t="n">
-        <x:v>1280000</x:v>
+        <x:v>925000</x:v>
       </x:c>
       <x:c r="B368" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C368" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D368" s="0" t="n">
-        <x:v>1166</x:v>
+        <x:v>2055</x:v>
       </x:c>
       <x:c r="E368" s="0" t="s">
         <x:v>371</x:v>
@@ -7762,16 +7771,16 @@
     </x:row>
     <x:row r="369" spans="1:5">
       <x:c r="A369" s="0" t="n">
-        <x:v>1295000</x:v>
+        <x:v>929000</x:v>
       </x:c>
       <x:c r="B369" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C369" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D369" s="0" t="n">
-        <x:v>2708</x:v>
+        <x:v>1472</x:v>
       </x:c>
       <x:c r="E369" s="0" t="s">
         <x:v>372</x:v>
@@ -7779,16 +7788,16 @@
     </x:row>
     <x:row r="370" spans="1:5">
       <x:c r="A370" s="0" t="n">
-        <x:v>1299999</x:v>
+        <x:v>929000</x:v>
       </x:c>
       <x:c r="B370" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C370" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D370" s="0" t="n">
-        <x:v>2756</x:v>
+        <x:v>2771</x:v>
       </x:c>
       <x:c r="E370" s="0" t="s">
         <x:v>373</x:v>
@@ -7796,16 +7805,16 @@
     </x:row>
     <x:row r="371" spans="1:5">
       <x:c r="A371" s="0" t="n">
-        <x:v>1395000</x:v>
+        <x:v>939000</x:v>
       </x:c>
       <x:c r="B371" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C371" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D371" s="0" t="n">
-        <x:v>1901</x:v>
+        <x:v>1710</x:v>
       </x:c>
       <x:c r="E371" s="0" t="s">
         <x:v>374</x:v>
@@ -7813,16 +7822,16 @@
     </x:row>
     <x:row r="372" spans="1:5">
       <x:c r="A372" s="0" t="n">
-        <x:v>1395000</x:v>
+        <x:v>1098888</x:v>
       </x:c>
       <x:c r="B372" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C372" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D372" s="0" t="n">
-        <x:v>2540</x:v>
+        <x:v>2110</x:v>
       </x:c>
       <x:c r="E372" s="0" t="s">
         <x:v>375</x:v>
@@ -7830,7 +7839,7 @@
     </x:row>
     <x:row r="373" spans="1:5">
       <x:c r="A373" s="0" t="n">
-        <x:v>1399000</x:v>
+        <x:v>1200000</x:v>
       </x:c>
       <x:c r="B373" s="0" t="n">
         <x:v>2</x:v>
@@ -7839,7 +7848,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D373" s="0" t="n">
-        <x:v>1790</x:v>
+        <x:v>4200</x:v>
       </x:c>
       <x:c r="E373" s="0" t="s">
         <x:v>376</x:v>
@@ -7847,19 +7856,70 @@
     </x:row>
     <x:row r="374" spans="1:5">
       <x:c r="A374" s="0" t="n">
-        <x:v>1449000</x:v>
+        <x:v>1245000</x:v>
       </x:c>
       <x:c r="B374" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C374" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D374" s="0" t="n">
-        <x:v>1472</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="E374" s="0" t="s">
         <x:v>377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="375" spans="1:5">
+      <x:c r="A375" s="0" t="n">
+        <x:v>1250000</x:v>
+      </x:c>
+      <x:c r="B375" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C375" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D375" s="0" t="n">
+        <x:v>2800</x:v>
+      </x:c>
+      <x:c r="E375" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="376" spans="1:5">
+      <x:c r="A376" s="0" t="n">
+        <x:v>1318000</x:v>
+      </x:c>
+      <x:c r="B376" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C376" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D376" s="0" t="n">
+        <x:v>2228</x:v>
+      </x:c>
+      <x:c r="E376" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="377" spans="1:5">
+      <x:c r="A377" s="0" t="n">
+        <x:v>1398888</x:v>
+      </x:c>
+      <x:c r="B377" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C377" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D377" s="0" t="n">
+        <x:v>3640</x:v>
+      </x:c>
+      <x:c r="E377" s="0" t="s">
+        <x:v>380</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
